--- a/dumps/Stocks/High Energy Batteries (India) Ltd.xlsx
+++ b/dumps/Stocks/High Energy Batteries (India) Ltd.xlsx
@@ -712,7 +712,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1004"/>
+  <dimension ref="A1:AP1005"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="177" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G19" activePane="bottomRight" state="frozen"/>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1" s="62">
       <c r="A5" s="73" t="n">
-        <v>46063</v>
+        <v>45957</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1078,21 +1078,18 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>589.75</v>
+        <v>607.4</v>
       </c>
       <c r="F5" t="n">
-        <v>5946.05</v>
+        <v>6104.4</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611730667</t>
+          <t>CN#252607382790</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>5.89</v>
-      </c>
       <c r="I5" t="n">
-        <v>42.66</v>
+        <v>30.4</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1100,8 +1097,8 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" s="62">
-      <c r="A6" s="60" t="n">
-        <v>46050</v>
+      <c r="A6" s="73" t="n">
+        <v>46063</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1117,26 +1114,30 @@
         <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>530</v>
+        <v>589.75</v>
       </c>
       <c r="F6" t="n">
-        <v>5343.69</v>
+        <v>5946.05</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611730667</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5.33</v>
+        <v>5.89</v>
       </c>
       <c r="I6" t="n">
-        <v>38.36</v>
+        <v>42.66</v>
+      </c>
+      <c r="J6">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" s="62">
       <c r="A7" s="60" t="n">
-        <v>46049</v>
+        <v>46050</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1149,13 +1150,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>534.7</v>
+        <v>530</v>
       </c>
       <c r="F7" t="n">
-        <v>2695.48</v>
+        <v>5343.69</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -1163,15 +1164,15 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2.67</v>
+        <v>5.33</v>
       </c>
       <c r="I7" t="n">
-        <v>19.31</v>
+        <v>38.36</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" s="62">
       <c r="A8" s="60" t="n">
-        <v>46042</v>
+        <v>46049</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1184,13 +1185,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E8" t="n">
-        <v>541</v>
+        <v>534.7</v>
       </c>
       <c r="F8" t="n">
-        <v>5454.64</v>
+        <v>2695.48</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -1198,15 +1199,15 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5.42</v>
+        <v>2.67</v>
       </c>
       <c r="I8" t="n">
-        <v>39.22</v>
+        <v>19.31</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" s="62">
       <c r="A9" s="60" t="n">
-        <v>46030</v>
+        <v>46042</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1222,10 +1223,10 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>563.85</v>
+        <v>541</v>
       </c>
       <c r="F9" t="n">
-        <v>5684.91</v>
+        <v>5454.64</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1233,15 +1234,15 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5.62</v>
+        <v>5.42</v>
       </c>
       <c r="I9" t="n">
-        <v>40.79</v>
+        <v>39.22</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1" s="62">
       <c r="A10" s="60" t="n">
-        <v>46017</v>
+        <v>46030</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1254,13 +1255,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>545.55</v>
+        <v>563.85</v>
       </c>
       <c r="F10" t="n">
-        <v>2750.24</v>
+        <v>5684.91</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1268,10 +1269,10 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2.74</v>
+        <v>5.62</v>
       </c>
       <c r="I10" t="n">
-        <v>19.75</v>
+        <v>40.79</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" s="62">
@@ -1292,10 +1293,10 @@
         <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>545.5</v>
+        <v>545.55</v>
       </c>
       <c r="F11" t="n">
-        <v>2749.99</v>
+        <v>2750.24</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1311,7 +1312,7 @@
     </row>
     <row r="12" ht="15.75" customHeight="1" s="62">
       <c r="A12" s="60" t="n">
-        <v>46015</v>
+        <v>46017</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1324,13 +1325,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>545.25</v>
+        <v>545.5</v>
       </c>
       <c r="F12" t="n">
-        <v>5497.42</v>
+        <v>2749.99</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1338,15 +1339,15 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5.42</v>
+        <v>2.74</v>
       </c>
       <c r="I12" t="n">
-        <v>39.5</v>
+        <v>19.75</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" s="62">
       <c r="A13" s="60" t="n">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1362,10 +1363,10 @@
         <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>548.9</v>
+        <v>545.25</v>
       </c>
       <c r="F13" t="n">
-        <v>5534.11</v>
+        <v>5497.42</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1373,15 +1374,15 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>5.47</v>
+        <v>5.42</v>
       </c>
       <c r="I13" t="n">
-        <v>39.64</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1" s="62">
       <c r="A14" s="60" t="n">
-        <v>46007</v>
+        <v>46014</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1397,10 +1398,10 @@
         <v>10</v>
       </c>
       <c r="E14" t="n">
-        <v>541.3</v>
+        <v>548.9</v>
       </c>
       <c r="F14" t="n">
-        <v>5457.59</v>
+        <v>5534.11</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1408,15 +1409,15 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>5.39</v>
+        <v>5.47</v>
       </c>
       <c r="I14" t="n">
-        <v>39.2</v>
+        <v>39.64</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1" s="62">
       <c r="A15" s="60" t="n">
-        <v>46002</v>
+        <v>46007</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1429,13 +1430,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E15" t="n">
-        <v>547.9</v>
+        <v>541.3</v>
       </c>
       <c r="F15" t="n">
-        <v>2762.01</v>
+        <v>5457.59</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1443,15 +1444,15 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>2.75</v>
+        <v>5.39</v>
       </c>
       <c r="I15" t="n">
-        <v>19.76</v>
+        <v>39.2</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1" s="62">
       <c r="A16" s="60" t="n">
-        <v>46000</v>
+        <v>46002</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1467,10 +1468,10 @@
         <v>5</v>
       </c>
       <c r="E16" t="n">
-        <v>560.95</v>
+        <v>547.9</v>
       </c>
       <c r="F16" t="n">
-        <v>2827.8</v>
+        <v>2762.01</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1478,10 +1479,10 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I16" t="n">
-        <v>20.25</v>
+        <v>19.76</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" s="62">
@@ -1502,10 +1503,10 @@
         <v>5</v>
       </c>
       <c r="E17" t="n">
-        <v>561</v>
+        <v>560.95</v>
       </c>
       <c r="F17" t="n">
-        <v>2828.11</v>
+        <v>2827.8</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1516,12 +1517,12 @@
         <v>2.8</v>
       </c>
       <c r="I17" t="n">
-        <v>20.31</v>
+        <v>20.25</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1" s="62">
       <c r="A18" s="60" t="n">
-        <v>45996</v>
+        <v>46000</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1534,13 +1535,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E18" t="n">
-        <v>573.95</v>
+        <v>561</v>
       </c>
       <c r="F18" t="n">
-        <v>5786.76</v>
+        <v>2828.11</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1548,15 +1549,15 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>5.72</v>
+        <v>2.8</v>
       </c>
       <c r="I18" t="n">
-        <v>41.54</v>
+        <v>20.31</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1" s="62">
       <c r="A19" s="60" t="n">
-        <v>45989</v>
+        <v>45996</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1569,13 +1570,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>586.95</v>
+        <v>573.95</v>
       </c>
       <c r="F19" t="n">
-        <v>2958.88</v>
+        <v>5786.76</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1583,15 +1584,15 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2.93</v>
+        <v>5.72</v>
       </c>
       <c r="I19" t="n">
-        <v>21.2</v>
+        <v>41.54</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1" s="62">
       <c r="A20" s="60" t="n">
-        <v>45982</v>
+        <v>45989</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1607,10 +1608,10 @@
         <v>5</v>
       </c>
       <c r="E20" t="n">
-        <v>621</v>
+        <v>586.95</v>
       </c>
       <c r="F20" t="n">
-        <v>3130.59</v>
+        <v>2958.88</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1618,15 +1619,15 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3.11</v>
+        <v>2.93</v>
       </c>
       <c r="I20" t="n">
-        <v>22.48</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="62">
       <c r="A21" s="60" t="n">
-        <v>45979</v>
+        <v>45982</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1639,13 +1640,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E21" t="n">
-        <v>624.95</v>
+        <v>621</v>
       </c>
       <c r="F21" t="n">
-        <v>1260.17</v>
+        <v>3130.59</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1653,10 +1654,10 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1.25</v>
+        <v>3.11</v>
       </c>
       <c r="I21" t="n">
-        <v>9.02</v>
+        <v>22.48</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1" s="62">
@@ -1674,13 +1675,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>622.8</v>
+        <v>624.95</v>
       </c>
       <c r="F22" t="n">
-        <v>1883.78</v>
+        <v>1260.17</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1688,15 +1689,15 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1.88</v>
+        <v>1.25</v>
       </c>
       <c r="I22" t="n">
-        <v>13.5</v>
+        <v>9.02</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1" s="62">
       <c r="A23" s="60" t="n">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1709,13 +1710,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E23" t="n">
-        <v>658</v>
+        <v>622.8</v>
       </c>
       <c r="F23" t="n">
-        <v>663.4299999999999</v>
+        <v>1883.78</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1723,10 +1724,10 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0.66</v>
+        <v>1.88</v>
       </c>
       <c r="I23" t="n">
-        <v>4.77</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1" s="62">
@@ -1744,13 +1745,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>657.95</v>
+        <v>658</v>
       </c>
       <c r="F24" t="n">
-        <v>1326.73</v>
+        <v>663.4299999999999</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1758,10 +1759,10 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1.32</v>
+        <v>0.66</v>
       </c>
       <c r="I24" t="n">
-        <v>9.51</v>
+        <v>4.77</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1" s="62">
@@ -1782,10 +1783,10 @@
         <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>657</v>
+        <v>657.95</v>
       </c>
       <c r="F25" t="n">
-        <v>1324.82</v>
+        <v>1326.73</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1796,12 +1797,12 @@
         <v>1.32</v>
       </c>
       <c r="I25" t="n">
-        <v>9.5</v>
+        <v>9.51</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1" s="62">
       <c r="A26" s="60" t="n">
-        <v>45967</v>
+        <v>45978</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1814,13 +1815,13 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E26" t="n">
-        <v>570.45</v>
+        <v>657</v>
       </c>
       <c r="F26" t="n">
-        <v>5751.49</v>
+        <v>1324.82</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1828,15 +1829,15 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>5.74</v>
+        <v>1.32</v>
       </c>
       <c r="I26" t="n">
-        <v>41.25</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1" s="62">
       <c r="A27" s="60" t="n">
-        <v>45961</v>
+        <v>45967</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1849,13 +1850,13 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E27" t="n">
-        <v>596.15</v>
+        <v>570.45</v>
       </c>
       <c r="F27" t="n">
-        <v>3005.27</v>
+        <v>5751.49</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1863,15 +1864,15 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>2.97</v>
+        <v>5.74</v>
       </c>
       <c r="I27" t="n">
-        <v>21.55</v>
+        <v>41.25</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1" s="62">
       <c r="A28" s="60" t="n">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1884,13 +1885,13 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E28" t="n">
-        <v>607.4</v>
+        <v>596.15</v>
       </c>
       <c r="F28" t="n">
-        <v>6124.02</v>
+        <v>3005.27</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1898,15 +1899,15 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>6.08</v>
+        <v>2.97</v>
       </c>
       <c r="I28" t="n">
-        <v>43.94</v>
+        <v>21.55</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1" s="62">
       <c r="A29" s="60" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1919,13 +1920,13 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>647.9</v>
+        <v>607.4</v>
       </c>
       <c r="F29" t="n">
-        <v>3266.17</v>
+        <v>6124.02</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1933,15 +1934,15 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>3.24</v>
+        <v>6.08</v>
       </c>
       <c r="I29" t="n">
-        <v>23.43</v>
+        <v>43.94</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1" s="62">
       <c r="A30" s="60" t="n">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1954,13 +1955,13 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E30" t="n">
-        <v>651.4</v>
+        <v>647.9</v>
       </c>
       <c r="F30" t="n">
-        <v>6567.59</v>
+        <v>3266.17</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1968,15 +1969,15 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>6.49</v>
+        <v>3.24</v>
       </c>
       <c r="I30" t="n">
-        <v>47.1</v>
+        <v>23.43</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1" s="62">
       <c r="A31" s="60" t="n">
-        <v>45950</v>
+        <v>45953</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1992,10 +1993,10 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>640.95</v>
+        <v>651.4</v>
       </c>
       <c r="F31" t="n">
-        <v>6462.21</v>
+        <v>6567.59</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2003,15 +2004,15 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>6.4</v>
+        <v>6.49</v>
       </c>
       <c r="I31" t="n">
-        <v>46.31</v>
+        <v>47.1</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1" s="62">
       <c r="A32" s="60" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2027,10 +2028,10 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>610.5</v>
+        <v>640.95</v>
       </c>
       <c r="F32" t="n">
-        <v>6155.25</v>
+        <v>6462.21</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2038,113 +2039,50 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>6.12</v>
+        <v>6.4</v>
       </c>
       <c r="I32" t="n">
-        <v>44.13</v>
+        <v>46.31</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1" s="62">
-      <c r="A33" s="36" t="n">
-        <v>45807</v>
-      </c>
-      <c r="B33" s="25" t="inlineStr">
+      <c r="A33" s="60" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>BSE</t>
         </is>
       </c>
-      <c r="C33" s="25" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
-      <c r="D33" s="26" t="n">
-        <v>50</v>
-      </c>
-      <c r="E33" s="27" t="n">
-        <v>714.28</v>
-      </c>
-      <c r="F33" s="27">
-        <f>D7*E7</f>
-        <v/>
-      </c>
-      <c r="G33" s="25" t="inlineStr">
+      <c r="D33" t="n">
+        <v>10</v>
+      </c>
+      <c r="E33" t="n">
+        <v>610.5</v>
+      </c>
+      <c r="F33" t="n">
+        <v>6155.25</v>
+      </c>
+      <c r="G33" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H33" s="26" t="n"/>
-      <c r="I33" s="26" t="n"/>
-      <c r="J33" s="28">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K33" s="29">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/SUM(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="L33" s="30">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v/>
-      </c>
-      <c r="M33" s="30">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
-        <v/>
-      </c>
-      <c r="N33" s="31">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
-        <v/>
-      </c>
-      <c r="O33" s="29">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/SUM(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="P33" s="30">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v/>
-      </c>
-      <c r="Q33" s="30">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
-        <v/>
-      </c>
-      <c r="R33" s="30">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
-        <v/>
-      </c>
-      <c r="S33" s="32">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/SUM(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="T33" s="33">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v/>
-      </c>
-      <c r="U33" s="33">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
-        <v/>
-      </c>
-      <c r="V33" s="33">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
-        <v/>
-      </c>
-      <c r="W33" s="33" t="n"/>
-      <c r="X33" s="33" t="n"/>
-      <c r="Y33" s="32">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/SUM(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="Z33" s="33" t="n"/>
-      <c r="AA33" s="33" t="n"/>
-      <c r="AB33" s="34" t="n"/>
-      <c r="AC33" s="30">
-        <f>IF(B7="DIV", F7,"")</f>
-        <v/>
-      </c>
-      <c r="AD33" s="35" t="n"/>
+      <c r="H33" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="I33" t="n">
+        <v>44.13</v>
+      </c>
     </row>
     <row r="34" ht="15.75" customHeight="1" s="62">
       <c r="A34" s="36" t="n">
-        <v>45806</v>
+        <v>45807</v>
       </c>
       <c r="B34" s="25" t="inlineStr">
         <is>
@@ -2157,13 +2095,13 @@
         </is>
       </c>
       <c r="D34" s="26" t="n">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="E34" s="27" t="n">
-        <v>699.39</v>
+        <v>714.28</v>
       </c>
       <c r="F34" s="27">
-        <f>D8*E8</f>
+        <f>D7*E7</f>
         <v/>
       </c>
       <c r="G34" s="25" t="inlineStr">
@@ -2178,64 +2116,64 @@
         <v/>
       </c>
       <c r="K34" s="29">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/SUM(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/SUM(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L34" s="30">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M34" s="30">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N34" s="31">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O34" s="29">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/SUM(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/SUM(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P34" s="30">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q34" s="30">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R34" s="30">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S34" s="32">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/SUM(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/SUM(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T34" s="33">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U34" s="33">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V34" s="33">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W34" s="33" t="n"/>
       <c r="X34" s="33" t="n"/>
       <c r="Y34" s="32">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/SUM(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/SUM(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z34" s="33" t="n"/>
       <c r="AA34" s="33" t="n"/>
       <c r="AB34" s="34" t="n"/>
       <c r="AC34" s="30">
-        <f>IF(B8="DIV", F8,"")</f>
+        <f>IF(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD34" s="35" t="n"/>
@@ -2255,13 +2193,13 @@
         </is>
       </c>
       <c r="D35" s="26" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E35" s="27" t="n">
-        <v>702.78</v>
+        <v>699.39</v>
       </c>
       <c r="F35" s="27">
-        <f>D9*E9</f>
+        <f>D8*E8</f>
         <v/>
       </c>
       <c r="G35" s="25" t="inlineStr">
@@ -2276,64 +2214,64 @@
         <v/>
       </c>
       <c r="K35" s="29">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/SUM(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/SUM(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L35" s="30">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M35" s="30">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N35" s="31">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O35" s="29">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/SUM(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/SUM(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P35" s="30">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q35" s="30">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R35" s="30">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S35" s="32">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/SUM(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/SUM(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T35" s="33">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U35" s="33">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V35" s="33">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W35" s="33" t="n"/>
       <c r="X35" s="33" t="n"/>
       <c r="Y35" s="32">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/SUM(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/SUM(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z35" s="33" t="n"/>
       <c r="AA35" s="33" t="n"/>
       <c r="AB35" s="34" t="n"/>
       <c r="AC35" s="30">
-        <f>IF(B9="DIV", F9,"")</f>
+        <f>IF(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD35" s="35" t="n"/>
@@ -2353,13 +2291,13 @@
         </is>
       </c>
       <c r="D36" s="26" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E36" s="27" t="n">
-        <v>699.29</v>
+        <v>702.78</v>
       </c>
       <c r="F36" s="27">
-        <f>D10*E10</f>
+        <f>D9*E9</f>
         <v/>
       </c>
       <c r="G36" s="25" t="inlineStr">
@@ -2374,71 +2312,71 @@
         <v/>
       </c>
       <c r="K36" s="29">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/SUM(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/SUM(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L36" s="30">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M36" s="30">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N36" s="31">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O36" s="29">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/SUM(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/SUM(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P36" s="30">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q36" s="30">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R36" s="30">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S36" s="32">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/SUM(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/SUM(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T36" s="33">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U36" s="33">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V36" s="33">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W36" s="33" t="n"/>
       <c r="X36" s="33" t="n"/>
       <c r="Y36" s="32">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/SUM(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/SUM(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z36" s="33" t="n"/>
       <c r="AA36" s="33" t="n"/>
       <c r="AB36" s="34" t="n"/>
       <c r="AC36" s="30">
-        <f>IF(B10="DIV", F10,"")</f>
+        <f>IF(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD36" s="35" t="n"/>
     </row>
     <row r="37" ht="15.75" customHeight="1" s="62">
       <c r="A37" s="36" t="n">
-        <v>45712</v>
+        <v>45806</v>
       </c>
       <c r="B37" s="25" t="inlineStr">
         <is>
@@ -2447,117 +2385,92 @@
       </c>
       <c r="C37" s="25" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D37" s="26" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E37" s="27" t="n">
-        <v>484.4</v>
-      </c>
-      <c r="F37" s="27" t="n">
-        <v>968.8099999999999</v>
+        <v>699.29</v>
+      </c>
+      <c r="F37" s="27">
+        <f>D10*E10</f>
+        <v/>
       </c>
       <c r="G37" s="25" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H37" s="26" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="I37" s="26" t="n">
-        <v>6.94</v>
-      </c>
+      <c r="H37" s="26" t="n"/>
+      <c r="I37" s="26" t="n"/>
       <c r="J37" s="28">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K37" s="29">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/SUM(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/SUM(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L37" s="30">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M37" s="30">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N37" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O37" s="29">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/SUM(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/SUM(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P37" s="30">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q37" s="30">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R37" s="30">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S37" s="32">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/SUM(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/SUM(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T37" s="33">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U37" s="33">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V37" s="33">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
-        <v/>
-      </c>
-      <c r="W37" s="33" t="n">
-        <v>703.9400000000001</v>
-      </c>
-      <c r="X37" s="36" t="n">
-        <v>45806</v>
-      </c>
-      <c r="Y37" s="37">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/SUM(F11:I11), "")</f>
-        <v/>
-      </c>
-      <c r="Z37" s="38" t="n">
-        <v>-5376.165</v>
-      </c>
-      <c r="AA37" s="38" t="n">
-        <v>5452.5</v>
-      </c>
-      <c r="AB37" s="39" t="n">
-        <v>10</v>
-      </c>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <v/>
+      </c>
+      <c r="W37" s="33" t="n"/>
+      <c r="X37" s="33" t="n"/>
+      <c r="Y37" s="32">
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/SUM(F10:I10), "")</f>
+        <v/>
+      </c>
+      <c r="Z37" s="33" t="n"/>
+      <c r="AA37" s="33" t="n"/>
+      <c r="AB37" s="34" t="n"/>
       <c r="AC37" s="30">
-        <f>IF(B11="DIV", F11,"")</f>
+        <f>IF(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD37" s="35" t="n"/>
-      <c r="AE37" s="40" t="n"/>
-      <c r="AF37" s="40" t="n"/>
-      <c r="AG37" s="40" t="n"/>
-      <c r="AH37" s="40" t="n"/>
-      <c r="AI37" s="40" t="n"/>
-      <c r="AJ37" s="40" t="n"/>
-      <c r="AK37" s="40" t="n"/>
-      <c r="AL37" s="40" t="n"/>
-      <c r="AM37" s="40" t="n"/>
-      <c r="AN37" s="40" t="n"/>
-      <c r="AO37" s="40" t="n"/>
-      <c r="AP37" s="40" t="n"/>
     </row>
     <row r="38" ht="15.75" customHeight="1" s="62">
       <c r="A38" s="36" t="n">
@@ -2577,10 +2490,10 @@
         <v>2</v>
       </c>
       <c r="E38" s="27" t="n">
-        <v>486.42</v>
+        <v>484.4</v>
       </c>
       <c r="F38" s="27" t="n">
-        <v>972.83</v>
+        <v>968.8099999999999</v>
       </c>
       <c r="G38" s="25" t="inlineStr">
         <is>
@@ -2591,58 +2504,58 @@
         <v>0.97</v>
       </c>
       <c r="I38" s="26" t="n">
-        <v>6.96</v>
+        <v>6.94</v>
       </c>
       <c r="J38" s="28">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K38" s="29">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/SUM(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/SUM(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L38" s="30">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M38" s="30">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N38" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O38" s="29">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/SUM(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/SUM(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P38" s="30">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q38" s="30">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R38" s="30">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S38" s="32">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/SUM(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/SUM(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T38" s="33">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U38" s="33">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V38" s="33">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W38" s="33" t="n">
@@ -2652,20 +2565,20 @@
         <v>45806</v>
       </c>
       <c r="Y38" s="37">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/SUM(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/SUM(F11:I11), "")</f>
         <v/>
       </c>
       <c r="Z38" s="38" t="n">
-        <v>-5412.154</v>
+        <v>-5376.165</v>
       </c>
       <c r="AA38" s="38" t="n">
-        <v>5489</v>
+        <v>5452.5</v>
       </c>
       <c r="AB38" s="39" t="n">
         <v>10</v>
       </c>
       <c r="AC38" s="30">
-        <f>IF(B12="DIV", F12,"")</f>
+        <f>IF(B11="DIV", F11,"")</f>
         <v/>
       </c>
       <c r="AD38" s="35" t="n"/>
@@ -2700,10 +2613,10 @@
         <v>2</v>
       </c>
       <c r="E39" s="27" t="n">
-        <v>485.17</v>
+        <v>486.42</v>
       </c>
       <c r="F39" s="27" t="n">
-        <v>970.33</v>
+        <v>972.83</v>
       </c>
       <c r="G39" s="25" t="inlineStr">
         <is>
@@ -2721,51 +2634,51 @@
         <v/>
       </c>
       <c r="K39" s="29">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/SUM(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/SUM(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L39" s="30">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M39" s="30">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N39" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O39" s="29">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/SUM(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/SUM(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P39" s="30">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q39" s="30">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R39" s="30">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S39" s="32">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/SUM(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/SUM(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T39" s="33">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U39" s="33">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V39" s="33">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W39" s="33" t="n">
@@ -2775,20 +2688,20 @@
         <v>45806</v>
       </c>
       <c r="Y39" s="37">
-        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/SUM(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/SUM(F12:I12), "")</f>
         <v/>
       </c>
       <c r="Z39" s="38" t="n">
-        <v>-5337.218</v>
+        <v>-5412.154</v>
       </c>
       <c r="AA39" s="38" t="n">
-        <v>5413</v>
+        <v>5489</v>
       </c>
       <c r="AB39" s="39" t="n">
         <v>10</v>
       </c>
       <c r="AC39" s="30">
-        <f>IF(B13="DIV", F13,"")</f>
+        <f>IF(B12="DIV", F12,"")</f>
         <v/>
       </c>
       <c r="AD39" s="35" t="n"/>
@@ -2823,10 +2736,10 @@
         <v>2</v>
       </c>
       <c r="E40" s="27" t="n">
-        <v>485.42</v>
+        <v>485.17</v>
       </c>
       <c r="F40" s="27" t="n">
-        <v>970.83</v>
+        <v>970.33</v>
       </c>
       <c r="G40" s="25" t="inlineStr">
         <is>
@@ -2844,51 +2757,51 @@
         <v/>
       </c>
       <c r="K40" s="29">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/SUM(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/SUM(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L40" s="30">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M40" s="30">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N40" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O40" s="29">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/SUM(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/SUM(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P40" s="30">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q40" s="30">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R40" s="30">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S40" s="32">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/SUM(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/SUM(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T40" s="33">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U40" s="33">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V40" s="33">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W40" s="33" t="n">
@@ -2898,20 +2811,20 @@
         <v>45806</v>
       </c>
       <c r="Y40" s="37">
-        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/SUM(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/SUM(F13:I13), "")</f>
         <v/>
       </c>
       <c r="Z40" s="38" t="n">
-        <v>-2701.147</v>
+        <v>-5337.218</v>
       </c>
       <c r="AA40" s="38" t="n">
-        <v>2739.5</v>
+        <v>5413</v>
       </c>
       <c r="AB40" s="39" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AC40" s="30">
-        <f>IF(B14="DIV", F14,"")</f>
+        <f>IF(B13="DIV", F13,"")</f>
         <v/>
       </c>
       <c r="AD40" s="35" t="n"/>
@@ -2946,10 +2859,10 @@
         <v>2</v>
       </c>
       <c r="E41" s="27" t="n">
-        <v>484.15</v>
+        <v>485.42</v>
       </c>
       <c r="F41" s="27" t="n">
-        <v>968.3099999999999</v>
+        <v>970.83</v>
       </c>
       <c r="G41" s="25" t="inlineStr">
         <is>
@@ -2960,58 +2873,58 @@
         <v>0.97</v>
       </c>
       <c r="I41" s="26" t="n">
-        <v>6.94</v>
+        <v>6.96</v>
       </c>
       <c r="J41" s="28">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K41" s="29">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/SUM(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/SUM(F14:I14), "")</f>
         <v/>
       </c>
       <c r="L41" s="30">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="M41" s="30">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
         <v/>
       </c>
       <c r="N41" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O41" s="29">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/SUM(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/SUM(F14:I14), "")</f>
         <v/>
       </c>
       <c r="P41" s="30">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="Q41" s="30">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
         <v/>
       </c>
       <c r="R41" s="30">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S41" s="32">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/SUM(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/SUM(F14:I14), "")</f>
         <v/>
       </c>
       <c r="T41" s="33">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="U41" s="33">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
         <v/>
       </c>
       <c r="V41" s="33">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W41" s="33" t="n">
@@ -3021,20 +2934,20 @@
         <v>45806</v>
       </c>
       <c r="Y41" s="37">
-        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/SUM(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/SUM(F14:I14), "")</f>
         <v/>
       </c>
       <c r="Z41" s="38" t="n">
-        <v>-2765.4835</v>
+        <v>-2701.147</v>
       </c>
       <c r="AA41" s="38" t="n">
-        <v>2804.75</v>
+        <v>2739.5</v>
       </c>
       <c r="AB41" s="39" t="n">
         <v>5</v>
       </c>
       <c r="AC41" s="30">
-        <f>IF(B15="DIV", F15,"")</f>
+        <f>IF(B14="DIV", F14,"")</f>
         <v/>
       </c>
       <c r="AD41" s="35" t="n"/>
@@ -3066,13 +2979,13 @@
         </is>
       </c>
       <c r="D42" s="26" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E42" s="27" t="n">
-        <v>490.95</v>
+        <v>484.15</v>
       </c>
       <c r="F42" s="27" t="n">
-        <v>13746.59</v>
+        <v>968.3099999999999</v>
       </c>
       <c r="G42" s="25" t="inlineStr">
         <is>
@@ -3080,61 +2993,61 @@
         </is>
       </c>
       <c r="H42" s="26" t="n">
-        <v>13.53</v>
+        <v>0.97</v>
       </c>
       <c r="I42" s="26" t="n">
-        <v>98.45999999999999</v>
+        <v>6.94</v>
       </c>
       <c r="J42" s="28">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K42" s="29">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/SUM(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/SUM(F15:I15), "")</f>
         <v/>
       </c>
       <c r="L42" s="30">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="M42" s="30">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
         <v/>
       </c>
       <c r="N42" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O42" s="29">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/SUM(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/SUM(F15:I15), "")</f>
         <v/>
       </c>
       <c r="P42" s="30">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="Q42" s="30">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
         <v/>
       </c>
       <c r="R42" s="30">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S42" s="32">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/SUM(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/SUM(F15:I15), "")</f>
         <v/>
       </c>
       <c r="T42" s="33">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="U42" s="33">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
         <v/>
       </c>
       <c r="V42" s="33">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W42" s="33" t="n">
@@ -3144,20 +3057,20 @@
         <v>45806</v>
       </c>
       <c r="Y42" s="37">
-        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/SUM(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/SUM(F15:I15), "")</f>
         <v/>
       </c>
       <c r="Z42" s="38" t="n">
-        <v>-2765.73</v>
+        <v>-2765.4835</v>
       </c>
       <c r="AA42" s="38" t="n">
-        <v>2805</v>
+        <v>2804.75</v>
       </c>
       <c r="AB42" s="39" t="n">
         <v>5</v>
       </c>
       <c r="AC42" s="30">
-        <f>IF(B16="DIV", F16,"")</f>
+        <f>IF(B15="DIV", F15,"")</f>
         <v/>
       </c>
       <c r="AD42" s="35" t="n"/>
@@ -3189,13 +3102,13 @@
         </is>
       </c>
       <c r="D43" s="26" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E43" s="27" t="n">
-        <v>484.9</v>
+        <v>490.95</v>
       </c>
       <c r="F43" s="27" t="n">
-        <v>969.8099999999999</v>
+        <v>13746.59</v>
       </c>
       <c r="G43" s="25" t="inlineStr">
         <is>
@@ -3203,61 +3116,61 @@
         </is>
       </c>
       <c r="H43" s="26" t="n">
-        <v>0.97</v>
+        <v>13.53</v>
       </c>
       <c r="I43" s="26" t="n">
-        <v>6.94</v>
+        <v>98.45999999999999</v>
       </c>
       <c r="J43" s="28">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K43" s="29">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L43" s="30">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M43" s="30">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N43" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O43" s="29">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P43" s="30">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q43" s="30">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R43" s="30">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S43" s="32">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T43" s="33">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U43" s="33">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V43" s="33">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W43" s="33" t="n">
@@ -3267,20 +3180,20 @@
         <v>45806</v>
       </c>
       <c r="Y43" s="37">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="Z43" s="38" t="n">
-        <v>-5659.147</v>
+        <v>-2765.73</v>
       </c>
       <c r="AA43" s="38" t="n">
-        <v>5739.5</v>
+        <v>2805</v>
       </c>
       <c r="AB43" s="39" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AC43" s="30">
-        <f>IF(B17="DIV", F17,"")</f>
+        <f>IF(B16="DIV", F16,"")</f>
         <v/>
       </c>
       <c r="AD43" s="35" t="n"/>
@@ -3315,10 +3228,10 @@
         <v>2</v>
       </c>
       <c r="E44" s="27" t="n">
-        <v>485.67</v>
+        <v>484.9</v>
       </c>
       <c r="F44" s="27" t="n">
-        <v>971.33</v>
+        <v>969.8099999999999</v>
       </c>
       <c r="G44" s="25" t="inlineStr">
         <is>
@@ -3329,58 +3242,58 @@
         <v>0.97</v>
       </c>
       <c r="I44" s="26" t="n">
-        <v>6.96</v>
+        <v>6.94</v>
       </c>
       <c r="J44" s="28">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K44" s="29">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="L44" s="30">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="M44" s="30">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
         <v/>
       </c>
       <c r="N44" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
         <v/>
       </c>
       <c r="O44" s="29">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="P44" s="30">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="Q44" s="30">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
         <v/>
       </c>
       <c r="R44" s="30">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="S44" s="32">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="T44" s="33">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="U44" s="33">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
         <v/>
       </c>
       <c r="V44" s="33">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="W44" s="33" t="n">
@@ -3390,20 +3303,20 @@
         <v>45806</v>
       </c>
       <c r="Y44" s="37">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="Z44" s="38" t="n">
-        <v>-2893.6635</v>
+        <v>-5659.147</v>
       </c>
       <c r="AA44" s="38" t="n">
-        <v>2934.75</v>
+        <v>5739.5</v>
       </c>
       <c r="AB44" s="39" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AC44" s="30">
-        <f>IF(B18="DIV", F18,"")</f>
+        <f>IF(B17="DIV", F17,"")</f>
         <v/>
       </c>
       <c r="AD44" s="35" t="n"/>
@@ -3438,10 +3351,10 @@
         <v>2</v>
       </c>
       <c r="E45" s="27" t="n">
-        <v>485.92</v>
+        <v>485.67</v>
       </c>
       <c r="F45" s="27" t="n">
-        <v>971.83</v>
+        <v>971.33</v>
       </c>
       <c r="G45" s="25" t="inlineStr">
         <is>
@@ -3459,51 +3372,51 @@
         <v/>
       </c>
       <c r="K45" s="29">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="L45" s="30">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M45" s="30">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N45" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O45" s="29">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="P45" s="30">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q45" s="30">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R45" s="30">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S45" s="32">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="T45" s="33">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="U45" s="33">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V45" s="33">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="W45" s="33" t="n">
@@ -3513,20 +3426,20 @@
         <v>45806</v>
       </c>
       <c r="Y45" s="37">
-        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="Z45" s="38" t="n">
-        <v>-3061.53</v>
+        <v>-2893.6635</v>
       </c>
       <c r="AA45" s="38" t="n">
-        <v>3105</v>
+        <v>2934.75</v>
       </c>
       <c r="AB45" s="39" t="n">
         <v>5</v>
       </c>
       <c r="AC45" s="30">
-        <f>IF(B19="DIV", F19,"")</f>
+        <f>IF(B18="DIV", F18,"")</f>
         <v/>
       </c>
       <c r="AD45" s="35" t="n"/>
@@ -3561,10 +3474,10 @@
         <v>2</v>
       </c>
       <c r="E46" s="27" t="n">
-        <v>483.95</v>
+        <v>485.92</v>
       </c>
       <c r="F46" s="27" t="n">
-        <v>967.91</v>
+        <v>971.83</v>
       </c>
       <c r="G46" s="25" t="inlineStr">
         <is>
@@ -3575,58 +3488,58 @@
         <v>0.97</v>
       </c>
       <c r="I46" s="26" t="n">
-        <v>6.94</v>
+        <v>6.96</v>
       </c>
       <c r="J46" s="28">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K46" s="29">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="L46" s="30">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M46" s="30">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N46" s="31">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O46" s="29">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="P46" s="30">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q46" s="30">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R46" s="30">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S46" s="32">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="T46" s="33">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="U46" s="33">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V46" s="33">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="W46" s="33" t="n">
@@ -3636,20 +3549,20 @@
         <v>45806</v>
       </c>
       <c r="Y46" s="37">
-        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="Z46" s="38" t="n">
-        <v>-1232.4014</v>
+        <v>-3061.53</v>
       </c>
       <c r="AA46" s="38" t="n">
-        <v>1249.9</v>
+        <v>3105</v>
       </c>
       <c r="AB46" s="39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AC46" s="30">
-        <f>IF(B20="DIV", F20,"")</f>
+        <f>IF(B19="DIV", F19,"")</f>
         <v/>
       </c>
       <c r="AD46" s="35" t="n"/>
@@ -3684,10 +3597,10 @@
         <v>2</v>
       </c>
       <c r="E47" s="27" t="n">
-        <v>484.65</v>
+        <v>483.95</v>
       </c>
       <c r="F47" s="27" t="n">
-        <v>969.3099999999999</v>
+        <v>967.91</v>
       </c>
       <c r="G47" s="25" t="inlineStr">
         <is>
@@ -3705,51 +3618,51 @@
         <v/>
       </c>
       <c r="K47" s="29">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="L47" s="30">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M47" s="30">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N47" s="31">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O47" s="29">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="P47" s="30">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q47" s="30">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R47" s="30">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S47" s="32">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="T47" s="33">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="U47" s="33">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V47" s="33">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="W47" s="33" t="n">
@@ -3759,20 +3672,20 @@
         <v>45806</v>
       </c>
       <c r="Y47" s="37">
-        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="Z47" s="38" t="n">
-        <v>-1842.2424</v>
+        <v>-1232.4014</v>
       </c>
       <c r="AA47" s="38" t="n">
-        <v>1868.4</v>
+        <v>1249.9</v>
       </c>
       <c r="AB47" s="39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC47" s="30">
-        <f>IF(B21="DIV", F21,"")</f>
+        <f>IF(B20="DIV", F20,"")</f>
         <v/>
       </c>
       <c r="AD47" s="35" t="n"/>
@@ -3807,10 +3720,10 @@
         <v>2</v>
       </c>
       <c r="E48" s="27" t="n">
-        <v>486.17</v>
+        <v>484.65</v>
       </c>
       <c r="F48" s="27" t="n">
-        <v>972.33</v>
+        <v>969.3099999999999</v>
       </c>
       <c r="G48" s="25" t="inlineStr">
         <is>
@@ -3821,58 +3734,58 @@
         <v>0.97</v>
       </c>
       <c r="I48" s="26" t="n">
-        <v>6.96</v>
+        <v>6.94</v>
       </c>
       <c r="J48" s="28">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K48" s="29">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="L48" s="30">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="M48" s="30">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
         <v/>
       </c>
       <c r="N48" s="31">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O48" s="29">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="P48" s="30">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="Q48" s="30">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
         <v/>
       </c>
       <c r="R48" s="30">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="S48" s="32">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="T48" s="33">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="U48" s="33">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
         <v/>
       </c>
       <c r="V48" s="33">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="W48" s="33" t="n">
@@ -3882,20 +3795,20 @@
         <v>45806</v>
       </c>
       <c r="Y48" s="37">
-        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="Z48" s="38" t="n">
-        <v>-648.788</v>
+        <v>-1842.2424</v>
       </c>
       <c r="AA48" s="38" t="n">
-        <v>658</v>
+        <v>1868.4</v>
       </c>
       <c r="AB48" s="39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC48" s="30">
-        <f>IF(B22="DIV", F22,"")</f>
+        <f>IF(B21="DIV", F21,"")</f>
         <v/>
       </c>
       <c r="AD48" s="35" t="n"/>
@@ -3914,7 +3827,7 @@
     </row>
     <row r="49" ht="15.75" customHeight="1" s="62">
       <c r="A49" s="36" t="n">
-        <v>45705</v>
+        <v>45712</v>
       </c>
       <c r="B49" s="25" t="inlineStr">
         <is>
@@ -3927,13 +3840,13 @@
         </is>
       </c>
       <c r="D49" s="26" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E49" s="27" t="n">
-        <v>445.69</v>
+        <v>486.17</v>
       </c>
       <c r="F49" s="27" t="n">
-        <v>8913.73</v>
+        <v>972.33</v>
       </c>
       <c r="G49" s="25" t="inlineStr">
         <is>
@@ -3941,61 +3854,61 @@
         </is>
       </c>
       <c r="H49" s="26" t="n">
-        <v>8.83</v>
+        <v>0.97</v>
       </c>
       <c r="I49" s="26" t="n">
-        <v>63.9</v>
+        <v>6.96</v>
       </c>
       <c r="J49" s="28">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K49" s="29">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="L49" s="30">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="M49" s="30">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
         <v/>
       </c>
       <c r="N49" s="31">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
         <v/>
       </c>
       <c r="O49" s="29">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="P49" s="30">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="Q49" s="30">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
         <v/>
       </c>
       <c r="R49" s="30">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="S49" s="32">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="T49" s="33">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="U49" s="33">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
         <v/>
       </c>
       <c r="V49" s="33">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="W49" s="33" t="n">
@@ -4005,20 +3918,20 @@
         <v>45806</v>
       </c>
       <c r="Y49" s="37">
-        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="Z49" s="38" t="n">
-        <v>-1297.4774</v>
+        <v>-648.788</v>
       </c>
       <c r="AA49" s="38" t="n">
-        <v>1315.9</v>
+        <v>658</v>
       </c>
       <c r="AB49" s="39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC49" s="30">
-        <f>IF(B23="DIV", F23,"")</f>
+        <f>IF(B22="DIV", F22,"")</f>
         <v/>
       </c>
       <c r="AD49" s="35" t="n"/>
@@ -4037,7 +3950,7 @@
     </row>
     <row r="50" ht="15.75" customHeight="1" s="62">
       <c r="A50" s="36" t="n">
-        <v>45699</v>
+        <v>45705</v>
       </c>
       <c r="B50" s="25" t="inlineStr">
         <is>
@@ -4050,13 +3963,13 @@
         </is>
       </c>
       <c r="D50" s="26" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E50" s="27" t="n">
-        <v>509.46</v>
+        <v>445.69</v>
       </c>
       <c r="F50" s="27" t="n">
-        <v>5094.65</v>
+        <v>8913.73</v>
       </c>
       <c r="G50" s="25" t="inlineStr">
         <is>
@@ -4064,61 +3977,61 @@
         </is>
       </c>
       <c r="H50" s="26" t="n">
-        <v>5.05</v>
+        <v>8.83</v>
       </c>
       <c r="I50" s="26" t="n">
-        <v>36.6</v>
+        <v>63.9</v>
       </c>
       <c r="J50" s="28">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K50" s="29">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="L50" s="30">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="M50" s="30">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
         <v/>
       </c>
       <c r="N50" s="31">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
         <v/>
       </c>
       <c r="O50" s="29">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="P50" s="30">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="Q50" s="30">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
         <v/>
       </c>
       <c r="R50" s="30">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="S50" s="32">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="T50" s="33">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="U50" s="33">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
         <v/>
       </c>
       <c r="V50" s="33">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="W50" s="33" t="n">
@@ -4128,20 +4041,20 @@
         <v>45806</v>
       </c>
       <c r="Y50" s="37">
-        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="Z50" s="38" t="n">
-        <v>-1295.604</v>
+        <v>-1297.4774</v>
       </c>
       <c r="AA50" s="38" t="n">
-        <v>1314</v>
+        <v>1315.9</v>
       </c>
       <c r="AB50" s="39" t="n">
         <v>2</v>
       </c>
       <c r="AC50" s="30">
-        <f>IF(B24="DIV", F24,"")</f>
+        <f>IF(B23="DIV", F23,"")</f>
         <v/>
       </c>
       <c r="AD50" s="35" t="n"/>
@@ -4160,7 +4073,7 @@
     </row>
     <row r="51" ht="15.75" customHeight="1" s="62">
       <c r="A51" s="36" t="n">
-        <v>45694</v>
+        <v>45699</v>
       </c>
       <c r="B51" s="25" t="inlineStr">
         <is>
@@ -4173,13 +4086,13 @@
         </is>
       </c>
       <c r="D51" s="26" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E51" s="27" t="n">
-        <v>529.3200000000001</v>
+        <v>509.46</v>
       </c>
       <c r="F51" s="27" t="n">
-        <v>10586.46</v>
+        <v>5094.65</v>
       </c>
       <c r="G51" s="25" t="inlineStr">
         <is>
@@ -4187,61 +4100,61 @@
         </is>
       </c>
       <c r="H51" s="26" t="n">
-        <v>10.47</v>
+        <v>5.05</v>
       </c>
       <c r="I51" s="26" t="n">
-        <v>75.98999999999999</v>
+        <v>36.6</v>
       </c>
       <c r="J51" s="28">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K51" s="29">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="L51" s="30">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="M51" s="30">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
         <v/>
       </c>
       <c r="N51" s="31">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
         <v/>
       </c>
       <c r="O51" s="29">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="P51" s="30">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="Q51" s="30">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
         <v/>
       </c>
       <c r="R51" s="30">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="S51" s="32">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="T51" s="33">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="U51" s="33">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
         <v/>
       </c>
       <c r="V51" s="33">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="W51" s="33" t="n">
@@ -4251,20 +4164,20 @@
         <v>45806</v>
       </c>
       <c r="Y51" s="37">
-        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="Z51" s="38" t="n">
-        <v>-5624.637</v>
+        <v>-1295.604</v>
       </c>
       <c r="AA51" s="38" t="n">
-        <v>5704.5</v>
+        <v>1314</v>
       </c>
       <c r="AB51" s="39" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AC51" s="30">
-        <f>IF(B25="DIV", F25,"")</f>
+        <f>IF(B24="DIV", F24,"")</f>
         <v/>
       </c>
       <c r="AD51" s="35" t="n"/>
@@ -4282,20 +4195,127 @@
       <c r="AP51" s="40" t="n"/>
     </row>
     <row r="52" ht="15.75" customHeight="1" s="62">
-      <c r="E52" s="41" t="n"/>
-      <c r="F52" s="41" t="n"/>
-      <c r="G52" s="42" t="n"/>
-      <c r="J52" s="41" t="n"/>
-      <c r="K52" s="41" t="n"/>
-      <c r="L52" s="41" t="n"/>
-      <c r="M52" s="1" t="n"/>
-      <c r="W52" s="41" t="n"/>
-      <c r="X52" s="41" t="n"/>
-      <c r="Y52" s="41" t="n"/>
-      <c r="Z52" s="41" t="n"/>
-      <c r="AA52" s="41" t="n"/>
-      <c r="AB52" s="41" t="n"/>
-      <c r="AC52" s="41" t="n"/>
+      <c r="A52" s="36" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B52" s="25" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C52" s="25" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D52" s="26" t="n">
+        <v>20</v>
+      </c>
+      <c r="E52" s="27" t="n">
+        <v>529.3200000000001</v>
+      </c>
+      <c r="F52" s="27" t="n">
+        <v>10586.46</v>
+      </c>
+      <c r="G52" s="25" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H52" s="26" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="I52" s="26" t="n">
+        <v>75.98999999999999</v>
+      </c>
+      <c r="J52" s="28">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K52" s="29">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/SUM(F25:I25), "")</f>
+        <v/>
+      </c>
+      <c r="L52" s="30">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <v/>
+      </c>
+      <c r="M52" s="30">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
+        <v/>
+      </c>
+      <c r="N52" s="31">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
+        <v/>
+      </c>
+      <c r="O52" s="29">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/SUM(F25:I25), "")</f>
+        <v/>
+      </c>
+      <c r="P52" s="30">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <v/>
+      </c>
+      <c r="Q52" s="30">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
+        <v/>
+      </c>
+      <c r="R52" s="30">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
+        <v/>
+      </c>
+      <c r="S52" s="32">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/SUM(F25:I25), "")</f>
+        <v/>
+      </c>
+      <c r="T52" s="33">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <v/>
+      </c>
+      <c r="U52" s="33">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
+        <v/>
+      </c>
+      <c r="V52" s="33">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
+        <v/>
+      </c>
+      <c r="W52" s="33" t="n">
+        <v>703.9400000000001</v>
+      </c>
+      <c r="X52" s="36" t="n">
+        <v>45806</v>
+      </c>
+      <c r="Y52" s="37">
+        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/SUM(F25:I25), "")</f>
+        <v/>
+      </c>
+      <c r="Z52" s="38" t="n">
+        <v>-5624.637</v>
+      </c>
+      <c r="AA52" s="38" t="n">
+        <v>5704.5</v>
+      </c>
+      <c r="AB52" s="39" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC52" s="30">
+        <f>IF(B25="DIV", F25,"")</f>
+        <v/>
+      </c>
+      <c r="AD52" s="35" t="n"/>
+      <c r="AE52" s="40" t="n"/>
+      <c r="AF52" s="40" t="n"/>
+      <c r="AG52" s="40" t="n"/>
+      <c r="AH52" s="40" t="n"/>
+      <c r="AI52" s="40" t="n"/>
+      <c r="AJ52" s="40" t="n"/>
+      <c r="AK52" s="40" t="n"/>
+      <c r="AL52" s="40" t="n"/>
+      <c r="AM52" s="40" t="n"/>
+      <c r="AN52" s="40" t="n"/>
+      <c r="AO52" s="40" t="n"/>
+      <c r="AP52" s="40" t="n"/>
     </row>
     <row r="53" ht="15.75" customHeight="1" s="62">
       <c r="E53" s="41" t="n"/>
@@ -19264,6 +19284,7 @@
       <c r="J988" s="41" t="n"/>
       <c r="K988" s="41" t="n"/>
       <c r="L988" s="41" t="n"/>
+      <c r="M988" s="1" t="n"/>
       <c r="W988" s="41" t="n"/>
       <c r="X988" s="41" t="n"/>
       <c r="Y988" s="41" t="n"/>
@@ -19511,6 +19532,21 @@
       <c r="AA1004" s="41" t="n"/>
       <c r="AB1004" s="41" t="n"/>
       <c r="AC1004" s="41" t="n"/>
+    </row>
+    <row r="1005">
+      <c r="E1005" s="41" t="n"/>
+      <c r="F1005" s="41" t="n"/>
+      <c r="G1005" s="42" t="n"/>
+      <c r="J1005" s="41" t="n"/>
+      <c r="K1005" s="41" t="n"/>
+      <c r="L1005" s="41" t="n"/>
+      <c r="W1005" s="41" t="n"/>
+      <c r="X1005" s="41" t="n"/>
+      <c r="Y1005" s="41" t="n"/>
+      <c r="Z1005" s="41" t="n"/>
+      <c r="AA1005" s="41" t="n"/>
+      <c r="AB1005" s="41" t="n"/>
+      <c r="AC1005" s="41" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:AO53"/>

--- a/dumps/Stocks/High Energy Batteries (India) Ltd.xlsx
+++ b/dumps/Stocks/High Energy Batteries (India) Ltd.xlsx
@@ -712,7 +712,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1005"/>
+  <dimension ref="A1:AP1007"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="177" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G19" activePane="bottomRight" state="frozen"/>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1" s="62">
       <c r="A5" s="73" t="n">
-        <v>45957</v>
+        <v>45967</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1078,18 +1078,18 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>607.4</v>
+        <v>570.45</v>
       </c>
       <c r="F5" t="n">
-        <v>6104.4</v>
+        <v>5733</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252607382790</t>
+          <t>CN#252607785263</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>30.4</v>
+        <v>28.5</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1" s="62">
       <c r="A6" s="73" t="n">
-        <v>46063</v>
+        <v>45961</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1111,24 +1111,21 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>589.75</v>
+        <v>596.15</v>
       </c>
       <c r="F6" t="n">
-        <v>5946.05</v>
+        <v>2995.65</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CN#252611730667</t>
+          <t>CN#252607606298</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v>5.89</v>
-      </c>
       <c r="I6" t="n">
-        <v>42.66</v>
+        <v>14.9</v>
       </c>
       <c r="J6">
         <f>Index!$C$2</f>
@@ -1136,8 +1133,8 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" s="62">
-      <c r="A7" s="60" t="n">
-        <v>46050</v>
+      <c r="A7" s="73" t="n">
+        <v>45957</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1153,26 +1150,27 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>530</v>
+        <v>607.4</v>
       </c>
       <c r="F7" t="n">
-        <v>5343.69</v>
+        <v>6104.4</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252607382790</t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v>5.33</v>
-      </c>
       <c r="I7" t="n">
-        <v>38.36</v>
+        <v>30.4</v>
+      </c>
+      <c r="J7">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" s="62">
-      <c r="A8" s="60" t="n">
-        <v>46049</v>
+      <c r="A8" s="73" t="n">
+        <v>46063</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1185,29 +1183,33 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>534.7</v>
+        <v>589.75</v>
       </c>
       <c r="F8" t="n">
-        <v>2695.48</v>
+        <v>5946.05</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611730667</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2.67</v>
+        <v>5.89</v>
       </c>
       <c r="I8" t="n">
-        <v>19.31</v>
+        <v>42.66</v>
+      </c>
+      <c r="J8">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" s="62">
       <c r="A9" s="60" t="n">
-        <v>46042</v>
+        <v>46050</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1223,10 +1225,10 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="F9" t="n">
-        <v>5454.64</v>
+        <v>5343.69</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1234,15 +1236,15 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5.42</v>
+        <v>5.33</v>
       </c>
       <c r="I9" t="n">
-        <v>39.22</v>
+        <v>38.36</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1" s="62">
       <c r="A10" s="60" t="n">
-        <v>46030</v>
+        <v>46049</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1255,13 +1257,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E10" t="n">
-        <v>563.85</v>
+        <v>534.7</v>
       </c>
       <c r="F10" t="n">
-        <v>5684.91</v>
+        <v>2695.48</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1269,15 +1271,15 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5.62</v>
+        <v>2.67</v>
       </c>
       <c r="I10" t="n">
-        <v>40.79</v>
+        <v>19.31</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" s="62">
       <c r="A11" s="60" t="n">
-        <v>46017</v>
+        <v>46042</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1290,13 +1292,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>545.55</v>
+        <v>541</v>
       </c>
       <c r="F11" t="n">
-        <v>2750.24</v>
+        <v>5454.64</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1304,15 +1306,15 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2.74</v>
+        <v>5.42</v>
       </c>
       <c r="I11" t="n">
-        <v>19.75</v>
+        <v>39.22</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1" s="62">
       <c r="A12" s="60" t="n">
-        <v>46017</v>
+        <v>46030</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1325,13 +1327,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>545.5</v>
+        <v>563.85</v>
       </c>
       <c r="F12" t="n">
-        <v>2749.99</v>
+        <v>5684.91</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1339,15 +1341,15 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2.74</v>
+        <v>5.62</v>
       </c>
       <c r="I12" t="n">
-        <v>19.75</v>
+        <v>40.79</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" s="62">
       <c r="A13" s="60" t="n">
-        <v>46015</v>
+        <v>46017</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1360,13 +1362,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>545.25</v>
+        <v>545.55</v>
       </c>
       <c r="F13" t="n">
-        <v>5497.42</v>
+        <v>2750.24</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1374,15 +1376,15 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>5.42</v>
+        <v>2.74</v>
       </c>
       <c r="I13" t="n">
-        <v>39.5</v>
+        <v>19.75</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1" s="62">
       <c r="A14" s="60" t="n">
-        <v>46014</v>
+        <v>46017</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1395,13 +1397,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>548.9</v>
+        <v>545.5</v>
       </c>
       <c r="F14" t="n">
-        <v>5534.11</v>
+        <v>2749.99</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1409,15 +1411,15 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>5.47</v>
+        <v>2.74</v>
       </c>
       <c r="I14" t="n">
-        <v>39.64</v>
+        <v>19.75</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1" s="62">
       <c r="A15" s="60" t="n">
-        <v>46007</v>
+        <v>46015</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1433,10 +1435,10 @@
         <v>10</v>
       </c>
       <c r="E15" t="n">
-        <v>541.3</v>
+        <v>545.25</v>
       </c>
       <c r="F15" t="n">
-        <v>5457.59</v>
+        <v>5497.42</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1444,15 +1446,15 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>5.39</v>
+        <v>5.42</v>
       </c>
       <c r="I15" t="n">
-        <v>39.2</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1" s="62">
       <c r="A16" s="60" t="n">
-        <v>46002</v>
+        <v>46014</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1465,13 +1467,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>547.9</v>
+        <v>548.9</v>
       </c>
       <c r="F16" t="n">
-        <v>2762.01</v>
+        <v>5534.11</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1479,15 +1481,15 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>2.75</v>
+        <v>5.47</v>
       </c>
       <c r="I16" t="n">
-        <v>19.76</v>
+        <v>39.64</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" s="62">
       <c r="A17" s="60" t="n">
-        <v>46000</v>
+        <v>46007</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1500,13 +1502,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>560.95</v>
+        <v>541.3</v>
       </c>
       <c r="F17" t="n">
-        <v>2827.8</v>
+        <v>5457.59</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1514,15 +1516,15 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>2.8</v>
+        <v>5.39</v>
       </c>
       <c r="I17" t="n">
-        <v>20.25</v>
+        <v>39.2</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1" s="62">
       <c r="A18" s="60" t="n">
-        <v>46000</v>
+        <v>46002</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1538,10 +1540,10 @@
         <v>5</v>
       </c>
       <c r="E18" t="n">
-        <v>561</v>
+        <v>547.9</v>
       </c>
       <c r="F18" t="n">
-        <v>2828.11</v>
+        <v>2762.01</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1549,15 +1551,15 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I18" t="n">
-        <v>20.31</v>
+        <v>19.76</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1" s="62">
       <c r="A19" s="60" t="n">
-        <v>45996</v>
+        <v>46000</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1570,13 +1572,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E19" t="n">
-        <v>573.95</v>
+        <v>560.95</v>
       </c>
       <c r="F19" t="n">
-        <v>5786.76</v>
+        <v>2827.8</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1584,15 +1586,15 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>5.72</v>
+        <v>2.8</v>
       </c>
       <c r="I19" t="n">
-        <v>41.54</v>
+        <v>20.25</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1" s="62">
       <c r="A20" s="60" t="n">
-        <v>45989</v>
+        <v>46000</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1608,10 +1610,10 @@
         <v>5</v>
       </c>
       <c r="E20" t="n">
-        <v>586.95</v>
+        <v>561</v>
       </c>
       <c r="F20" t="n">
-        <v>2958.88</v>
+        <v>2828.11</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1619,15 +1621,15 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>2.93</v>
+        <v>2.8</v>
       </c>
       <c r="I20" t="n">
-        <v>21.2</v>
+        <v>20.31</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="62">
       <c r="A21" s="60" t="n">
-        <v>45982</v>
+        <v>45996</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1640,13 +1642,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>621</v>
+        <v>573.95</v>
       </c>
       <c r="F21" t="n">
-        <v>3130.59</v>
+        <v>5786.76</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1654,15 +1656,15 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>3.11</v>
+        <v>5.72</v>
       </c>
       <c r="I21" t="n">
-        <v>22.48</v>
+        <v>41.54</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1" s="62">
       <c r="A22" s="60" t="n">
-        <v>45979</v>
+        <v>45989</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1675,13 +1677,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E22" t="n">
-        <v>624.95</v>
+        <v>586.95</v>
       </c>
       <c r="F22" t="n">
-        <v>1260.17</v>
+        <v>2958.88</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1689,15 +1691,15 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1.25</v>
+        <v>2.93</v>
       </c>
       <c r="I22" t="n">
-        <v>9.02</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1" s="62">
       <c r="A23" s="60" t="n">
-        <v>45979</v>
+        <v>45982</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1710,13 +1712,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E23" t="n">
-        <v>622.8</v>
+        <v>621</v>
       </c>
       <c r="F23" t="n">
-        <v>1883.78</v>
+        <v>3130.59</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1724,15 +1726,15 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1.88</v>
+        <v>3.11</v>
       </c>
       <c r="I23" t="n">
-        <v>13.5</v>
+        <v>22.48</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1" s="62">
       <c r="A24" s="60" t="n">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1745,13 +1747,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>658</v>
+        <v>624.95</v>
       </c>
       <c r="F24" t="n">
-        <v>663.4299999999999</v>
+        <v>1260.17</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1759,15 +1761,15 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.66</v>
+        <v>1.25</v>
       </c>
       <c r="I24" t="n">
-        <v>4.77</v>
+        <v>9.02</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1" s="62">
       <c r="A25" s="60" t="n">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1780,13 +1782,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25" t="n">
-        <v>657.95</v>
+        <v>622.8</v>
       </c>
       <c r="F25" t="n">
-        <v>1326.73</v>
+        <v>1883.78</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1794,10 +1796,10 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1.32</v>
+        <v>1.88</v>
       </c>
       <c r="I25" t="n">
-        <v>9.51</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1" s="62">
@@ -1815,13 +1817,13 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F26" t="n">
-        <v>1324.82</v>
+        <v>663.4299999999999</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1829,15 +1831,15 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1.32</v>
+        <v>0.66</v>
       </c>
       <c r="I26" t="n">
-        <v>9.5</v>
+        <v>4.77</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1" s="62">
       <c r="A27" s="60" t="n">
-        <v>45967</v>
+        <v>45978</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1850,13 +1852,13 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E27" t="n">
-        <v>570.45</v>
+        <v>657.95</v>
       </c>
       <c r="F27" t="n">
-        <v>5751.49</v>
+        <v>1326.73</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1864,15 +1866,15 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>5.74</v>
+        <v>1.32</v>
       </c>
       <c r="I27" t="n">
-        <v>41.25</v>
+        <v>9.51</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1" s="62">
       <c r="A28" s="60" t="n">
-        <v>45961</v>
+        <v>45978</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1885,13 +1887,13 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E28" t="n">
-        <v>596.15</v>
+        <v>657</v>
       </c>
       <c r="F28" t="n">
-        <v>3005.27</v>
+        <v>1324.82</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1899,15 +1901,15 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>2.97</v>
+        <v>1.32</v>
       </c>
       <c r="I28" t="n">
-        <v>21.55</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1" s="62">
       <c r="A29" s="60" t="n">
-        <v>45957</v>
+        <v>45967</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1923,10 +1925,10 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>607.4</v>
+        <v>570.45</v>
       </c>
       <c r="F29" t="n">
-        <v>6124.02</v>
+        <v>5751.49</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1934,15 +1936,15 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>6.08</v>
+        <v>5.74</v>
       </c>
       <c r="I29" t="n">
-        <v>43.94</v>
+        <v>41.25</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1" s="62">
       <c r="A30" s="60" t="n">
-        <v>45954</v>
+        <v>45961</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1958,10 +1960,10 @@
         <v>5</v>
       </c>
       <c r="E30" t="n">
-        <v>647.9</v>
+        <v>596.15</v>
       </c>
       <c r="F30" t="n">
-        <v>3266.17</v>
+        <v>3005.27</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1969,15 +1971,15 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>3.24</v>
+        <v>2.97</v>
       </c>
       <c r="I30" t="n">
-        <v>23.43</v>
+        <v>21.55</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1" s="62">
       <c r="A31" s="60" t="n">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1993,10 +1995,10 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>651.4</v>
+        <v>607.4</v>
       </c>
       <c r="F31" t="n">
-        <v>6567.59</v>
+        <v>6124.02</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2004,15 +2006,15 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>6.49</v>
+        <v>6.08</v>
       </c>
       <c r="I31" t="n">
-        <v>47.1</v>
+        <v>43.94</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1" s="62">
       <c r="A32" s="60" t="n">
-        <v>45950</v>
+        <v>45954</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2025,13 +2027,13 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E32" t="n">
-        <v>640.95</v>
+        <v>647.9</v>
       </c>
       <c r="F32" t="n">
-        <v>6462.21</v>
+        <v>3266.17</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2039,15 +2041,15 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>6.4</v>
+        <v>3.24</v>
       </c>
       <c r="I32" t="n">
-        <v>46.31</v>
+        <v>23.43</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1" s="62">
       <c r="A33" s="60" t="n">
-        <v>45947</v>
+        <v>45953</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2063,10 +2065,10 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>610.5</v>
+        <v>651.4</v>
       </c>
       <c r="F33" t="n">
-        <v>6155.25</v>
+        <v>6567.59</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2074,211 +2076,85 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>6.12</v>
+        <v>6.49</v>
       </c>
       <c r="I33" t="n">
-        <v>44.13</v>
+        <v>47.1</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1" s="62">
-      <c r="A34" s="36" t="n">
-        <v>45807</v>
-      </c>
-      <c r="B34" s="25" t="inlineStr">
+      <c r="A34" s="60" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>BSE</t>
         </is>
       </c>
-      <c r="C34" s="25" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
-      <c r="D34" s="26" t="n">
-        <v>50</v>
-      </c>
-      <c r="E34" s="27" t="n">
-        <v>714.28</v>
-      </c>
-      <c r="F34" s="27">
-        <f>D7*E7</f>
-        <v/>
-      </c>
-      <c r="G34" s="25" t="inlineStr">
+      <c r="D34" t="n">
+        <v>10</v>
+      </c>
+      <c r="E34" t="n">
+        <v>640.95</v>
+      </c>
+      <c r="F34" t="n">
+        <v>6462.21</v>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H34" s="26" t="n"/>
-      <c r="I34" s="26" t="n"/>
-      <c r="J34" s="28">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K34" s="29">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/SUM(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="L34" s="30">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v/>
-      </c>
-      <c r="M34" s="30">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
-        <v/>
-      </c>
-      <c r="N34" s="31">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
-        <v/>
-      </c>
-      <c r="O34" s="29">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/SUM(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="P34" s="30">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v/>
-      </c>
-      <c r="Q34" s="30">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
-        <v/>
-      </c>
-      <c r="R34" s="30">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
-        <v/>
-      </c>
-      <c r="S34" s="32">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/SUM(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="T34" s="33">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v/>
-      </c>
-      <c r="U34" s="33">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
-        <v/>
-      </c>
-      <c r="V34" s="33">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
-        <v/>
-      </c>
-      <c r="W34" s="33" t="n"/>
-      <c r="X34" s="33" t="n"/>
-      <c r="Y34" s="32">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/SUM(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="Z34" s="33" t="n"/>
-      <c r="AA34" s="33" t="n"/>
-      <c r="AB34" s="34" t="n"/>
-      <c r="AC34" s="30">
-        <f>IF(B7="DIV", F7,"")</f>
-        <v/>
-      </c>
-      <c r="AD34" s="35" t="n"/>
+      <c r="H34" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I34" t="n">
+        <v>46.31</v>
+      </c>
     </row>
     <row r="35" ht="15.75" customHeight="1" s="62">
-      <c r="A35" s="36" t="n">
-        <v>45806</v>
-      </c>
-      <c r="B35" s="25" t="inlineStr">
+      <c r="A35" s="60" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>BSE</t>
         </is>
       </c>
-      <c r="C35" s="25" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
-      <c r="D35" s="26" t="n">
-        <v>6</v>
-      </c>
-      <c r="E35" s="27" t="n">
-        <v>699.39</v>
-      </c>
-      <c r="F35" s="27">
-        <f>D8*E8</f>
-        <v/>
-      </c>
-      <c r="G35" s="25" t="inlineStr">
+      <c r="D35" t="n">
+        <v>10</v>
+      </c>
+      <c r="E35" t="n">
+        <v>610.5</v>
+      </c>
+      <c r="F35" t="n">
+        <v>6155.25</v>
+      </c>
+      <c r="G35" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H35" s="26" t="n"/>
-      <c r="I35" s="26" t="n"/>
-      <c r="J35" s="28">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K35" s="29">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/SUM(F8:I8), "")</f>
-        <v/>
-      </c>
-      <c r="L35" s="30">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
-        <v/>
-      </c>
-      <c r="M35" s="30">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
-        <v/>
-      </c>
-      <c r="N35" s="31">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
-        <v/>
-      </c>
-      <c r="O35" s="29">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/SUM(F8:I8), "")</f>
-        <v/>
-      </c>
-      <c r="P35" s="30">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
-        <v/>
-      </c>
-      <c r="Q35" s="30">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
-        <v/>
-      </c>
-      <c r="R35" s="30">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
-        <v/>
-      </c>
-      <c r="S35" s="32">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/SUM(F8:I8), "")</f>
-        <v/>
-      </c>
-      <c r="T35" s="33">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
-        <v/>
-      </c>
-      <c r="U35" s="33">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
-        <v/>
-      </c>
-      <c r="V35" s="33">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
-        <v/>
-      </c>
-      <c r="W35" s="33" t="n"/>
-      <c r="X35" s="33" t="n"/>
-      <c r="Y35" s="32">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/SUM(F8:I8), "")</f>
-        <v/>
-      </c>
-      <c r="Z35" s="33" t="n"/>
-      <c r="AA35" s="33" t="n"/>
-      <c r="AB35" s="34" t="n"/>
-      <c r="AC35" s="30">
-        <f>IF(B8="DIV", F8,"")</f>
-        <v/>
-      </c>
-      <c r="AD35" s="35" t="n"/>
+      <c r="H35" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="I35" t="n">
+        <v>44.13</v>
+      </c>
     </row>
     <row r="36" ht="15.75" customHeight="1" s="62">
       <c r="A36" s="36" t="n">
-        <v>45806</v>
+        <v>45807</v>
       </c>
       <c r="B36" s="25" t="inlineStr">
         <is>
@@ -2291,13 +2167,13 @@
         </is>
       </c>
       <c r="D36" s="26" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="E36" s="27" t="n">
-        <v>702.78</v>
+        <v>714.28</v>
       </c>
       <c r="F36" s="27">
-        <f>D9*E9</f>
+        <f>D7*E7</f>
         <v/>
       </c>
       <c r="G36" s="25" t="inlineStr">
@@ -2312,64 +2188,64 @@
         <v/>
       </c>
       <c r="K36" s="29">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/SUM(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/SUM(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L36" s="30">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M36" s="30">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N36" s="31">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O36" s="29">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/SUM(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/SUM(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P36" s="30">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q36" s="30">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R36" s="30">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S36" s="32">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/SUM(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/SUM(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T36" s="33">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U36" s="33">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V36" s="33">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W36" s="33" t="n"/>
       <c r="X36" s="33" t="n"/>
       <c r="Y36" s="32">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/SUM(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/SUM(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z36" s="33" t="n"/>
       <c r="AA36" s="33" t="n"/>
       <c r="AB36" s="34" t="n"/>
       <c r="AC36" s="30">
-        <f>IF(B9="DIV", F9,"")</f>
+        <f>IF(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD36" s="35" t="n"/>
@@ -2389,13 +2265,13 @@
         </is>
       </c>
       <c r="D37" s="26" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E37" s="27" t="n">
-        <v>699.29</v>
+        <v>699.39</v>
       </c>
       <c r="F37" s="27">
-        <f>D10*E10</f>
+        <f>D8*E8</f>
         <v/>
       </c>
       <c r="G37" s="25" t="inlineStr">
@@ -2410,71 +2286,71 @@
         <v/>
       </c>
       <c r="K37" s="29">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/SUM(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/SUM(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L37" s="30">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M37" s="30">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N37" s="31">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O37" s="29">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/SUM(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/SUM(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P37" s="30">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q37" s="30">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R37" s="30">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S37" s="32">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/SUM(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/SUM(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T37" s="33">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U37" s="33">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V37" s="33">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W37" s="33" t="n"/>
       <c r="X37" s="33" t="n"/>
       <c r="Y37" s="32">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/SUM(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/SUM(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z37" s="33" t="n"/>
       <c r="AA37" s="33" t="n"/>
       <c r="AB37" s="34" t="n"/>
       <c r="AC37" s="30">
-        <f>IF(B10="DIV", F10,"")</f>
+        <f>IF(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD37" s="35" t="n"/>
     </row>
     <row r="38" ht="15.75" customHeight="1" s="62">
       <c r="A38" s="36" t="n">
-        <v>45712</v>
+        <v>45806</v>
       </c>
       <c r="B38" s="25" t="inlineStr">
         <is>
@@ -2483,121 +2359,96 @@
       </c>
       <c r="C38" s="25" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D38" s="26" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E38" s="27" t="n">
-        <v>484.4</v>
-      </c>
-      <c r="F38" s="27" t="n">
-        <v>968.8099999999999</v>
+        <v>702.78</v>
+      </c>
+      <c r="F38" s="27">
+        <f>D9*E9</f>
+        <v/>
       </c>
       <c r="G38" s="25" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H38" s="26" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="I38" s="26" t="n">
-        <v>6.94</v>
-      </c>
+      <c r="H38" s="26" t="n"/>
+      <c r="I38" s="26" t="n"/>
       <c r="J38" s="28">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K38" s="29">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/SUM(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/SUM(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L38" s="30">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M38" s="30">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N38" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O38" s="29">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/SUM(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/SUM(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P38" s="30">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q38" s="30">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R38" s="30">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S38" s="32">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/SUM(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/SUM(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T38" s="33">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U38" s="33">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V38" s="33">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
-        <v/>
-      </c>
-      <c r="W38" s="33" t="n">
-        <v>703.9400000000001</v>
-      </c>
-      <c r="X38" s="36" t="n">
-        <v>45806</v>
-      </c>
-      <c r="Y38" s="37">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/SUM(F11:I11), "")</f>
-        <v/>
-      </c>
-      <c r="Z38" s="38" t="n">
-        <v>-5376.165</v>
-      </c>
-      <c r="AA38" s="38" t="n">
-        <v>5452.5</v>
-      </c>
-      <c r="AB38" s="39" t="n">
-        <v>10</v>
-      </c>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <v/>
+      </c>
+      <c r="W38" s="33" t="n"/>
+      <c r="X38" s="33" t="n"/>
+      <c r="Y38" s="32">
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/SUM(F9:I9), "")</f>
+        <v/>
+      </c>
+      <c r="Z38" s="33" t="n"/>
+      <c r="AA38" s="33" t="n"/>
+      <c r="AB38" s="34" t="n"/>
       <c r="AC38" s="30">
-        <f>IF(B11="DIV", F11,"")</f>
+        <f>IF(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD38" s="35" t="n"/>
-      <c r="AE38" s="40" t="n"/>
-      <c r="AF38" s="40" t="n"/>
-      <c r="AG38" s="40" t="n"/>
-      <c r="AH38" s="40" t="n"/>
-      <c r="AI38" s="40" t="n"/>
-      <c r="AJ38" s="40" t="n"/>
-      <c r="AK38" s="40" t="n"/>
-      <c r="AL38" s="40" t="n"/>
-      <c r="AM38" s="40" t="n"/>
-      <c r="AN38" s="40" t="n"/>
-      <c r="AO38" s="40" t="n"/>
-      <c r="AP38" s="40" t="n"/>
     </row>
     <row r="39" ht="15.75" customHeight="1" s="62">
       <c r="A39" s="36" t="n">
-        <v>45712</v>
+        <v>45806</v>
       </c>
       <c r="B39" s="25" t="inlineStr">
         <is>
@@ -2606,117 +2457,92 @@
       </c>
       <c r="C39" s="25" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D39" s="26" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E39" s="27" t="n">
-        <v>486.42</v>
-      </c>
-      <c r="F39" s="27" t="n">
-        <v>972.83</v>
+        <v>699.29</v>
+      </c>
+      <c r="F39" s="27">
+        <f>D10*E10</f>
+        <v/>
       </c>
       <c r="G39" s="25" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H39" s="26" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="I39" s="26" t="n">
-        <v>6.96</v>
-      </c>
+      <c r="H39" s="26" t="n"/>
+      <c r="I39" s="26" t="n"/>
       <c r="J39" s="28">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K39" s="29">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/SUM(F12:I12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/SUM(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L39" s="30">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M39" s="30">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N39" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O39" s="29">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/SUM(F12:I12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/SUM(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P39" s="30">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q39" s="30">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R39" s="30">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S39" s="32">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/SUM(F12:I12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/SUM(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T39" s="33">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U39" s="33">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V39" s="33">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
-        <v/>
-      </c>
-      <c r="W39" s="33" t="n">
-        <v>703.9400000000001</v>
-      </c>
-      <c r="X39" s="36" t="n">
-        <v>45806</v>
-      </c>
-      <c r="Y39" s="37">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/SUM(F12:I12), "")</f>
-        <v/>
-      </c>
-      <c r="Z39" s="38" t="n">
-        <v>-5412.154</v>
-      </c>
-      <c r="AA39" s="38" t="n">
-        <v>5489</v>
-      </c>
-      <c r="AB39" s="39" t="n">
-        <v>10</v>
-      </c>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <v/>
+      </c>
+      <c r="W39" s="33" t="n"/>
+      <c r="X39" s="33" t="n"/>
+      <c r="Y39" s="32">
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/SUM(F10:I10), "")</f>
+        <v/>
+      </c>
+      <c r="Z39" s="33" t="n"/>
+      <c r="AA39" s="33" t="n"/>
+      <c r="AB39" s="34" t="n"/>
       <c r="AC39" s="30">
-        <f>IF(B12="DIV", F12,"")</f>
+        <f>IF(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD39" s="35" t="n"/>
-      <c r="AE39" s="40" t="n"/>
-      <c r="AF39" s="40" t="n"/>
-      <c r="AG39" s="40" t="n"/>
-      <c r="AH39" s="40" t="n"/>
-      <c r="AI39" s="40" t="n"/>
-      <c r="AJ39" s="40" t="n"/>
-      <c r="AK39" s="40" t="n"/>
-      <c r="AL39" s="40" t="n"/>
-      <c r="AM39" s="40" t="n"/>
-      <c r="AN39" s="40" t="n"/>
-      <c r="AO39" s="40" t="n"/>
-      <c r="AP39" s="40" t="n"/>
     </row>
     <row r="40" ht="15.75" customHeight="1" s="62">
       <c r="A40" s="36" t="n">
@@ -2736,10 +2562,10 @@
         <v>2</v>
       </c>
       <c r="E40" s="27" t="n">
-        <v>485.17</v>
+        <v>484.4</v>
       </c>
       <c r="F40" s="27" t="n">
-        <v>970.33</v>
+        <v>968.8099999999999</v>
       </c>
       <c r="G40" s="25" t="inlineStr">
         <is>
@@ -2750,58 +2576,58 @@
         <v>0.97</v>
       </c>
       <c r="I40" s="26" t="n">
-        <v>6.96</v>
+        <v>6.94</v>
       </c>
       <c r="J40" s="28">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K40" s="29">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/SUM(F13:I13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/SUM(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L40" s="30">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M40" s="30">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N40" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O40" s="29">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/SUM(F13:I13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/SUM(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P40" s="30">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q40" s="30">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R40" s="30">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S40" s="32">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/SUM(F13:I13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/SUM(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T40" s="33">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U40" s="33">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V40" s="33">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W40" s="33" t="n">
@@ -2811,20 +2637,20 @@
         <v>45806</v>
       </c>
       <c r="Y40" s="37">
-        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/SUM(F13:I13), "")</f>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/SUM(F11:I11), "")</f>
         <v/>
       </c>
       <c r="Z40" s="38" t="n">
-        <v>-5337.218</v>
+        <v>-5376.165</v>
       </c>
       <c r="AA40" s="38" t="n">
-        <v>5413</v>
+        <v>5452.5</v>
       </c>
       <c r="AB40" s="39" t="n">
         <v>10</v>
       </c>
       <c r="AC40" s="30">
-        <f>IF(B13="DIV", F13,"")</f>
+        <f>IF(B11="DIV", F11,"")</f>
         <v/>
       </c>
       <c r="AD40" s="35" t="n"/>
@@ -2859,10 +2685,10 @@
         <v>2</v>
       </c>
       <c r="E41" s="27" t="n">
-        <v>485.42</v>
+        <v>486.42</v>
       </c>
       <c r="F41" s="27" t="n">
-        <v>970.83</v>
+        <v>972.83</v>
       </c>
       <c r="G41" s="25" t="inlineStr">
         <is>
@@ -2880,51 +2706,51 @@
         <v/>
       </c>
       <c r="K41" s="29">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/SUM(F14:I14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/SUM(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L41" s="30">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M41" s="30">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N41" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O41" s="29">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/SUM(F14:I14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/SUM(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P41" s="30">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q41" s="30">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R41" s="30">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S41" s="32">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/SUM(F14:I14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/SUM(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T41" s="33">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U41" s="33">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V41" s="33">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W41" s="33" t="n">
@@ -2934,20 +2760,20 @@
         <v>45806</v>
       </c>
       <c r="Y41" s="37">
-        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/SUM(F14:I14), "")</f>
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/SUM(F12:I12), "")</f>
         <v/>
       </c>
       <c r="Z41" s="38" t="n">
-        <v>-2701.147</v>
+        <v>-5412.154</v>
       </c>
       <c r="AA41" s="38" t="n">
-        <v>2739.5</v>
+        <v>5489</v>
       </c>
       <c r="AB41" s="39" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AC41" s="30">
-        <f>IF(B14="DIV", F14,"")</f>
+        <f>IF(B12="DIV", F12,"")</f>
         <v/>
       </c>
       <c r="AD41" s="35" t="n"/>
@@ -2982,10 +2808,10 @@
         <v>2</v>
       </c>
       <c r="E42" s="27" t="n">
-        <v>484.15</v>
+        <v>485.17</v>
       </c>
       <c r="F42" s="27" t="n">
-        <v>968.3099999999999</v>
+        <v>970.33</v>
       </c>
       <c r="G42" s="25" t="inlineStr">
         <is>
@@ -2996,58 +2822,58 @@
         <v>0.97</v>
       </c>
       <c r="I42" s="26" t="n">
-        <v>6.94</v>
+        <v>6.96</v>
       </c>
       <c r="J42" s="28">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K42" s="29">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/SUM(F15:I15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/SUM(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L42" s="30">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M42" s="30">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N42" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O42" s="29">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/SUM(F15:I15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/SUM(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P42" s="30">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q42" s="30">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R42" s="30">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S42" s="32">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/SUM(F15:I15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/SUM(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T42" s="33">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U42" s="33">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V42" s="33">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W42" s="33" t="n">
@@ -3057,20 +2883,20 @@
         <v>45806</v>
       </c>
       <c r="Y42" s="37">
-        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/SUM(F15:I15), "")</f>
+        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/SUM(F13:I13), "")</f>
         <v/>
       </c>
       <c r="Z42" s="38" t="n">
-        <v>-2765.4835</v>
+        <v>-5337.218</v>
       </c>
       <c r="AA42" s="38" t="n">
-        <v>2804.75</v>
+        <v>5413</v>
       </c>
       <c r="AB42" s="39" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AC42" s="30">
-        <f>IF(B15="DIV", F15,"")</f>
+        <f>IF(B13="DIV", F13,"")</f>
         <v/>
       </c>
       <c r="AD42" s="35" t="n"/>
@@ -3102,13 +2928,13 @@
         </is>
       </c>
       <c r="D43" s="26" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E43" s="27" t="n">
-        <v>490.95</v>
+        <v>485.42</v>
       </c>
       <c r="F43" s="27" t="n">
-        <v>13746.59</v>
+        <v>970.83</v>
       </c>
       <c r="G43" s="25" t="inlineStr">
         <is>
@@ -3116,61 +2942,61 @@
         </is>
       </c>
       <c r="H43" s="26" t="n">
-        <v>13.53</v>
+        <v>0.97</v>
       </c>
       <c r="I43" s="26" t="n">
-        <v>98.45999999999999</v>
+        <v>6.96</v>
       </c>
       <c r="J43" s="28">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K43" s="29">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/SUM(F16:I16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/SUM(F14:I14), "")</f>
         <v/>
       </c>
       <c r="L43" s="30">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="M43" s="30">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
         <v/>
       </c>
       <c r="N43" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O43" s="29">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/SUM(F16:I16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/SUM(F14:I14), "")</f>
         <v/>
       </c>
       <c r="P43" s="30">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="Q43" s="30">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
         <v/>
       </c>
       <c r="R43" s="30">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S43" s="32">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/SUM(F16:I16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/SUM(F14:I14), "")</f>
         <v/>
       </c>
       <c r="T43" s="33">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="U43" s="33">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
         <v/>
       </c>
       <c r="V43" s="33">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W43" s="33" t="n">
@@ -3180,20 +3006,20 @@
         <v>45806</v>
       </c>
       <c r="Y43" s="37">
-        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/SUM(F16:I16), "")</f>
+        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/SUM(F14:I14), "")</f>
         <v/>
       </c>
       <c r="Z43" s="38" t="n">
-        <v>-2765.73</v>
+        <v>-2701.147</v>
       </c>
       <c r="AA43" s="38" t="n">
-        <v>2805</v>
+        <v>2739.5</v>
       </c>
       <c r="AB43" s="39" t="n">
         <v>5</v>
       </c>
       <c r="AC43" s="30">
-        <f>IF(B16="DIV", F16,"")</f>
+        <f>IF(B14="DIV", F14,"")</f>
         <v/>
       </c>
       <c r="AD43" s="35" t="n"/>
@@ -3228,10 +3054,10 @@
         <v>2</v>
       </c>
       <c r="E44" s="27" t="n">
-        <v>484.9</v>
+        <v>484.15</v>
       </c>
       <c r="F44" s="27" t="n">
-        <v>969.8099999999999</v>
+        <v>968.3099999999999</v>
       </c>
       <c r="G44" s="25" t="inlineStr">
         <is>
@@ -3249,51 +3075,51 @@
         <v/>
       </c>
       <c r="K44" s="29">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/SUM(F15:I15), "")</f>
         <v/>
       </c>
       <c r="L44" s="30">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="M44" s="30">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
         <v/>
       </c>
       <c r="N44" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O44" s="29">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/SUM(F15:I15), "")</f>
         <v/>
       </c>
       <c r="P44" s="30">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="Q44" s="30">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
         <v/>
       </c>
       <c r="R44" s="30">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S44" s="32">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/SUM(F15:I15), "")</f>
         <v/>
       </c>
       <c r="T44" s="33">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="U44" s="33">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
         <v/>
       </c>
       <c r="V44" s="33">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W44" s="33" t="n">
@@ -3303,20 +3129,20 @@
         <v>45806</v>
       </c>
       <c r="Y44" s="37">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/SUM(F15:I15), "")</f>
         <v/>
       </c>
       <c r="Z44" s="38" t="n">
-        <v>-5659.147</v>
+        <v>-2765.4835</v>
       </c>
       <c r="AA44" s="38" t="n">
-        <v>5739.5</v>
+        <v>2804.75</v>
       </c>
       <c r="AB44" s="39" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AC44" s="30">
-        <f>IF(B17="DIV", F17,"")</f>
+        <f>IF(B15="DIV", F15,"")</f>
         <v/>
       </c>
       <c r="AD44" s="35" t="n"/>
@@ -3348,13 +3174,13 @@
         </is>
       </c>
       <c r="D45" s="26" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E45" s="27" t="n">
-        <v>485.67</v>
+        <v>490.95</v>
       </c>
       <c r="F45" s="27" t="n">
-        <v>971.33</v>
+        <v>13746.59</v>
       </c>
       <c r="G45" s="25" t="inlineStr">
         <is>
@@ -3362,61 +3188,61 @@
         </is>
       </c>
       <c r="H45" s="26" t="n">
-        <v>0.97</v>
+        <v>13.53</v>
       </c>
       <c r="I45" s="26" t="n">
-        <v>6.96</v>
+        <v>98.45999999999999</v>
       </c>
       <c r="J45" s="28">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K45" s="29">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L45" s="30">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M45" s="30">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N45" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O45" s="29">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P45" s="30">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q45" s="30">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R45" s="30">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S45" s="32">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T45" s="33">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U45" s="33">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V45" s="33">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W45" s="33" t="n">
@@ -3426,20 +3252,20 @@
         <v>45806</v>
       </c>
       <c r="Y45" s="37">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="Z45" s="38" t="n">
-        <v>-2893.6635</v>
+        <v>-2765.73</v>
       </c>
       <c r="AA45" s="38" t="n">
-        <v>2934.75</v>
+        <v>2805</v>
       </c>
       <c r="AB45" s="39" t="n">
         <v>5</v>
       </c>
       <c r="AC45" s="30">
-        <f>IF(B18="DIV", F18,"")</f>
+        <f>IF(B16="DIV", F16,"")</f>
         <v/>
       </c>
       <c r="AD45" s="35" t="n"/>
@@ -3474,10 +3300,10 @@
         <v>2</v>
       </c>
       <c r="E46" s="27" t="n">
-        <v>485.92</v>
+        <v>484.9</v>
       </c>
       <c r="F46" s="27" t="n">
-        <v>971.83</v>
+        <v>969.8099999999999</v>
       </c>
       <c r="G46" s="25" t="inlineStr">
         <is>
@@ -3488,58 +3314,58 @@
         <v>0.97</v>
       </c>
       <c r="I46" s="26" t="n">
-        <v>6.96</v>
+        <v>6.94</v>
       </c>
       <c r="J46" s="28">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K46" s="29">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="L46" s="30">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="M46" s="30">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
         <v/>
       </c>
       <c r="N46" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
         <v/>
       </c>
       <c r="O46" s="29">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="P46" s="30">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="Q46" s="30">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
         <v/>
       </c>
       <c r="R46" s="30">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="S46" s="32">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="T46" s="33">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="U46" s="33">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
         <v/>
       </c>
       <c r="V46" s="33">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="W46" s="33" t="n">
@@ -3549,20 +3375,20 @@
         <v>45806</v>
       </c>
       <c r="Y46" s="37">
-        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="Z46" s="38" t="n">
-        <v>-3061.53</v>
+        <v>-5659.147</v>
       </c>
       <c r="AA46" s="38" t="n">
-        <v>3105</v>
+        <v>5739.5</v>
       </c>
       <c r="AB46" s="39" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AC46" s="30">
-        <f>IF(B19="DIV", F19,"")</f>
+        <f>IF(B17="DIV", F17,"")</f>
         <v/>
       </c>
       <c r="AD46" s="35" t="n"/>
@@ -3597,10 +3423,10 @@
         <v>2</v>
       </c>
       <c r="E47" s="27" t="n">
-        <v>483.95</v>
+        <v>485.67</v>
       </c>
       <c r="F47" s="27" t="n">
-        <v>967.91</v>
+        <v>971.33</v>
       </c>
       <c r="G47" s="25" t="inlineStr">
         <is>
@@ -3611,58 +3437,58 @@
         <v>0.97</v>
       </c>
       <c r="I47" s="26" t="n">
-        <v>6.94</v>
+        <v>6.96</v>
       </c>
       <c r="J47" s="28">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K47" s="29">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="L47" s="30">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M47" s="30">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N47" s="31">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O47" s="29">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="P47" s="30">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q47" s="30">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R47" s="30">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S47" s="32">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="T47" s="33">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="U47" s="33">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V47" s="33">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="W47" s="33" t="n">
@@ -3672,20 +3498,20 @@
         <v>45806</v>
       </c>
       <c r="Y47" s="37">
-        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="Z47" s="38" t="n">
-        <v>-1232.4014</v>
+        <v>-2893.6635</v>
       </c>
       <c r="AA47" s="38" t="n">
-        <v>1249.9</v>
+        <v>2934.75</v>
       </c>
       <c r="AB47" s="39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AC47" s="30">
-        <f>IF(B20="DIV", F20,"")</f>
+        <f>IF(B18="DIV", F18,"")</f>
         <v/>
       </c>
       <c r="AD47" s="35" t="n"/>
@@ -3720,10 +3546,10 @@
         <v>2</v>
       </c>
       <c r="E48" s="27" t="n">
-        <v>484.65</v>
+        <v>485.92</v>
       </c>
       <c r="F48" s="27" t="n">
-        <v>969.3099999999999</v>
+        <v>971.83</v>
       </c>
       <c r="G48" s="25" t="inlineStr">
         <is>
@@ -3734,58 +3560,58 @@
         <v>0.97</v>
       </c>
       <c r="I48" s="26" t="n">
-        <v>6.94</v>
+        <v>6.96</v>
       </c>
       <c r="J48" s="28">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K48" s="29">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="L48" s="30">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M48" s="30">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N48" s="31">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O48" s="29">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="P48" s="30">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q48" s="30">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R48" s="30">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S48" s="32">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="T48" s="33">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="U48" s="33">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V48" s="33">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="W48" s="33" t="n">
@@ -3795,20 +3621,20 @@
         <v>45806</v>
       </c>
       <c r="Y48" s="37">
-        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="Z48" s="38" t="n">
-        <v>-1842.2424</v>
+        <v>-3061.53</v>
       </c>
       <c r="AA48" s="38" t="n">
-        <v>1868.4</v>
+        <v>3105</v>
       </c>
       <c r="AB48" s="39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AC48" s="30">
-        <f>IF(B21="DIV", F21,"")</f>
+        <f>IF(B19="DIV", F19,"")</f>
         <v/>
       </c>
       <c r="AD48" s="35" t="n"/>
@@ -3843,10 +3669,10 @@
         <v>2</v>
       </c>
       <c r="E49" s="27" t="n">
-        <v>486.17</v>
+        <v>483.95</v>
       </c>
       <c r="F49" s="27" t="n">
-        <v>972.33</v>
+        <v>967.91</v>
       </c>
       <c r="G49" s="25" t="inlineStr">
         <is>
@@ -3857,58 +3683,58 @@
         <v>0.97</v>
       </c>
       <c r="I49" s="26" t="n">
-        <v>6.96</v>
+        <v>6.94</v>
       </c>
       <c r="J49" s="28">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K49" s="29">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="L49" s="30">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M49" s="30">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N49" s="31">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O49" s="29">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="P49" s="30">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q49" s="30">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R49" s="30">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S49" s="32">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="T49" s="33">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="U49" s="33">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V49" s="33">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="W49" s="33" t="n">
@@ -3918,20 +3744,20 @@
         <v>45806</v>
       </c>
       <c r="Y49" s="37">
-        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="Z49" s="38" t="n">
-        <v>-648.788</v>
+        <v>-1232.4014</v>
       </c>
       <c r="AA49" s="38" t="n">
-        <v>658</v>
+        <v>1249.9</v>
       </c>
       <c r="AB49" s="39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC49" s="30">
-        <f>IF(B22="DIV", F22,"")</f>
+        <f>IF(B20="DIV", F20,"")</f>
         <v/>
       </c>
       <c r="AD49" s="35" t="n"/>
@@ -3950,7 +3776,7 @@
     </row>
     <row r="50" ht="15.75" customHeight="1" s="62">
       <c r="A50" s="36" t="n">
-        <v>45705</v>
+        <v>45712</v>
       </c>
       <c r="B50" s="25" t="inlineStr">
         <is>
@@ -3963,13 +3789,13 @@
         </is>
       </c>
       <c r="D50" s="26" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E50" s="27" t="n">
-        <v>445.69</v>
+        <v>484.65</v>
       </c>
       <c r="F50" s="27" t="n">
-        <v>8913.73</v>
+        <v>969.3099999999999</v>
       </c>
       <c r="G50" s="25" t="inlineStr">
         <is>
@@ -3977,61 +3803,61 @@
         </is>
       </c>
       <c r="H50" s="26" t="n">
-        <v>8.83</v>
+        <v>0.97</v>
       </c>
       <c r="I50" s="26" t="n">
-        <v>63.9</v>
+        <v>6.94</v>
       </c>
       <c r="J50" s="28">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K50" s="29">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="L50" s="30">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="M50" s="30">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
         <v/>
       </c>
       <c r="N50" s="31">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O50" s="29">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="P50" s="30">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="Q50" s="30">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
         <v/>
       </c>
       <c r="R50" s="30">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="S50" s="32">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="T50" s="33">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="U50" s="33">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
         <v/>
       </c>
       <c r="V50" s="33">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="W50" s="33" t="n">
@@ -4041,20 +3867,20 @@
         <v>45806</v>
       </c>
       <c r="Y50" s="37">
-        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="Z50" s="38" t="n">
-        <v>-1297.4774</v>
+        <v>-1842.2424</v>
       </c>
       <c r="AA50" s="38" t="n">
-        <v>1315.9</v>
+        <v>1868.4</v>
       </c>
       <c r="AB50" s="39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC50" s="30">
-        <f>IF(B23="DIV", F23,"")</f>
+        <f>IF(B21="DIV", F21,"")</f>
         <v/>
       </c>
       <c r="AD50" s="35" t="n"/>
@@ -4073,7 +3899,7 @@
     </row>
     <row r="51" ht="15.75" customHeight="1" s="62">
       <c r="A51" s="36" t="n">
-        <v>45699</v>
+        <v>45712</v>
       </c>
       <c r="B51" s="25" t="inlineStr">
         <is>
@@ -4086,13 +3912,13 @@
         </is>
       </c>
       <c r="D51" s="26" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E51" s="27" t="n">
-        <v>509.46</v>
+        <v>486.17</v>
       </c>
       <c r="F51" s="27" t="n">
-        <v>5094.65</v>
+        <v>972.33</v>
       </c>
       <c r="G51" s="25" t="inlineStr">
         <is>
@@ -4100,61 +3926,61 @@
         </is>
       </c>
       <c r="H51" s="26" t="n">
-        <v>5.05</v>
+        <v>0.97</v>
       </c>
       <c r="I51" s="26" t="n">
-        <v>36.6</v>
+        <v>6.96</v>
       </c>
       <c r="J51" s="28">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K51" s="29">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="L51" s="30">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="M51" s="30">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
         <v/>
       </c>
       <c r="N51" s="31">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
         <v/>
       </c>
       <c r="O51" s="29">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="P51" s="30">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="Q51" s="30">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
         <v/>
       </c>
       <c r="R51" s="30">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="S51" s="32">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="T51" s="33">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="U51" s="33">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
         <v/>
       </c>
       <c r="V51" s="33">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="W51" s="33" t="n">
@@ -4164,20 +3990,20 @@
         <v>45806</v>
       </c>
       <c r="Y51" s="37">
-        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="Z51" s="38" t="n">
-        <v>-1295.604</v>
+        <v>-648.788</v>
       </c>
       <c r="AA51" s="38" t="n">
-        <v>1314</v>
+        <v>658</v>
       </c>
       <c r="AB51" s="39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC51" s="30">
-        <f>IF(B24="DIV", F24,"")</f>
+        <f>IF(B22="DIV", F22,"")</f>
         <v/>
       </c>
       <c r="AD51" s="35" t="n"/>
@@ -4196,7 +4022,7 @@
     </row>
     <row r="52" ht="15.75" customHeight="1" s="62">
       <c r="A52" s="36" t="n">
-        <v>45694</v>
+        <v>45705</v>
       </c>
       <c r="B52" s="25" t="inlineStr">
         <is>
@@ -4212,10 +4038,10 @@
         <v>20</v>
       </c>
       <c r="E52" s="27" t="n">
-        <v>529.3200000000001</v>
+        <v>445.69</v>
       </c>
       <c r="F52" s="27" t="n">
-        <v>10586.46</v>
+        <v>8913.73</v>
       </c>
       <c r="G52" s="25" t="inlineStr">
         <is>
@@ -4223,61 +4049,61 @@
         </is>
       </c>
       <c r="H52" s="26" t="n">
-        <v>10.47</v>
+        <v>8.83</v>
       </c>
       <c r="I52" s="26" t="n">
-        <v>75.98999999999999</v>
+        <v>63.9</v>
       </c>
       <c r="J52" s="28">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K52" s="29">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="L52" s="30">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="M52" s="30">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
         <v/>
       </c>
       <c r="N52" s="31">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
         <v/>
       </c>
       <c r="O52" s="29">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="P52" s="30">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="Q52" s="30">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
         <v/>
       </c>
       <c r="R52" s="30">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="S52" s="32">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="T52" s="33">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="U52" s="33">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
         <v/>
       </c>
       <c r="V52" s="33">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="W52" s="33" t="n">
@@ -4287,20 +4113,20 @@
         <v>45806</v>
       </c>
       <c r="Y52" s="37">
-        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="Z52" s="38" t="n">
-        <v>-5624.637</v>
+        <v>-1297.4774</v>
       </c>
       <c r="AA52" s="38" t="n">
-        <v>5704.5</v>
+        <v>1315.9</v>
       </c>
       <c r="AB52" s="39" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AC52" s="30">
-        <f>IF(B25="DIV", F25,"")</f>
+        <f>IF(B23="DIV", F23,"")</f>
         <v/>
       </c>
       <c r="AD52" s="35" t="n"/>
@@ -4318,36 +4144,250 @@
       <c r="AP52" s="40" t="n"/>
     </row>
     <row r="53" ht="15.75" customHeight="1" s="62">
-      <c r="E53" s="41" t="n"/>
-      <c r="F53" s="41" t="n"/>
-      <c r="G53" s="42" t="n"/>
-      <c r="J53" s="41" t="n"/>
-      <c r="K53" s="41" t="n"/>
-      <c r="L53" s="41" t="n"/>
-      <c r="M53" s="1" t="n"/>
-      <c r="W53" s="41" t="n"/>
-      <c r="X53" s="41" t="n"/>
-      <c r="Y53" s="41" t="n"/>
-      <c r="Z53" s="41" t="n"/>
-      <c r="AA53" s="41" t="n"/>
-      <c r="AB53" s="41" t="n"/>
-      <c r="AC53" s="41" t="n"/>
+      <c r="A53" s="36" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B53" s="25" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C53" s="25" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D53" s="26" t="n">
+        <v>10</v>
+      </c>
+      <c r="E53" s="27" t="n">
+        <v>509.46</v>
+      </c>
+      <c r="F53" s="27" t="n">
+        <v>5094.65</v>
+      </c>
+      <c r="G53" s="25" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H53" s="26" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="I53" s="26" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="J53" s="28">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K53" s="29">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/SUM(F24:I24), "")</f>
+        <v/>
+      </c>
+      <c r="L53" s="30">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <v/>
+      </c>
+      <c r="M53" s="30">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <v/>
+      </c>
+      <c r="N53" s="31">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <v/>
+      </c>
+      <c r="O53" s="29">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/SUM(F24:I24), "")</f>
+        <v/>
+      </c>
+      <c r="P53" s="30">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <v/>
+      </c>
+      <c r="Q53" s="30">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <v/>
+      </c>
+      <c r="R53" s="30">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <v/>
+      </c>
+      <c r="S53" s="32">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/SUM(F24:I24), "")</f>
+        <v/>
+      </c>
+      <c r="T53" s="33">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <v/>
+      </c>
+      <c r="U53" s="33">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <v/>
+      </c>
+      <c r="V53" s="33">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <v/>
+      </c>
+      <c r="W53" s="33" t="n">
+        <v>703.9400000000001</v>
+      </c>
+      <c r="X53" s="36" t="n">
+        <v>45806</v>
+      </c>
+      <c r="Y53" s="37">
+        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/SUM(F24:I24), "")</f>
+        <v/>
+      </c>
+      <c r="Z53" s="38" t="n">
+        <v>-1295.604</v>
+      </c>
+      <c r="AA53" s="38" t="n">
+        <v>1314</v>
+      </c>
+      <c r="AB53" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC53" s="30">
+        <f>IF(B24="DIV", F24,"")</f>
+        <v/>
+      </c>
+      <c r="AD53" s="35" t="n"/>
+      <c r="AE53" s="40" t="n"/>
+      <c r="AF53" s="40" t="n"/>
+      <c r="AG53" s="40" t="n"/>
+      <c r="AH53" s="40" t="n"/>
+      <c r="AI53" s="40" t="n"/>
+      <c r="AJ53" s="40" t="n"/>
+      <c r="AK53" s="40" t="n"/>
+      <c r="AL53" s="40" t="n"/>
+      <c r="AM53" s="40" t="n"/>
+      <c r="AN53" s="40" t="n"/>
+      <c r="AO53" s="40" t="n"/>
+      <c r="AP53" s="40" t="n"/>
     </row>
     <row r="54" ht="15.75" customHeight="1" s="62">
-      <c r="E54" s="41" t="n"/>
-      <c r="F54" s="41" t="n"/>
-      <c r="G54" s="42" t="n"/>
-      <c r="J54" s="41" t="n"/>
-      <c r="K54" s="41" t="n"/>
-      <c r="L54" s="41" t="n"/>
-      <c r="M54" s="1" t="n"/>
-      <c r="W54" s="41" t="n"/>
-      <c r="X54" s="41" t="n"/>
-      <c r="Y54" s="41" t="n"/>
-      <c r="Z54" s="41" t="n"/>
-      <c r="AA54" s="41" t="n"/>
-      <c r="AB54" s="41" t="n"/>
-      <c r="AC54" s="41" t="n"/>
+      <c r="A54" s="36" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B54" s="25" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C54" s="25" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D54" s="26" t="n">
+        <v>20</v>
+      </c>
+      <c r="E54" s="27" t="n">
+        <v>529.3200000000001</v>
+      </c>
+      <c r="F54" s="27" t="n">
+        <v>10586.46</v>
+      </c>
+      <c r="G54" s="25" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H54" s="26" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="I54" s="26" t="n">
+        <v>75.98999999999999</v>
+      </c>
+      <c r="J54" s="28">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K54" s="29">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/SUM(F25:I25), "")</f>
+        <v/>
+      </c>
+      <c r="L54" s="30">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <v/>
+      </c>
+      <c r="M54" s="30">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
+        <v/>
+      </c>
+      <c r="N54" s="31">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
+        <v/>
+      </c>
+      <c r="O54" s="29">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/SUM(F25:I25), "")</f>
+        <v/>
+      </c>
+      <c r="P54" s="30">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <v/>
+      </c>
+      <c r="Q54" s="30">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
+        <v/>
+      </c>
+      <c r="R54" s="30">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
+        <v/>
+      </c>
+      <c r="S54" s="32">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/SUM(F25:I25), "")</f>
+        <v/>
+      </c>
+      <c r="T54" s="33">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <v/>
+      </c>
+      <c r="U54" s="33">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
+        <v/>
+      </c>
+      <c r="V54" s="33">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
+        <v/>
+      </c>
+      <c r="W54" s="33" t="n">
+        <v>703.9400000000001</v>
+      </c>
+      <c r="X54" s="36" t="n">
+        <v>45806</v>
+      </c>
+      <c r="Y54" s="37">
+        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/SUM(F25:I25), "")</f>
+        <v/>
+      </c>
+      <c r="Z54" s="38" t="n">
+        <v>-5624.637</v>
+      </c>
+      <c r="AA54" s="38" t="n">
+        <v>5704.5</v>
+      </c>
+      <c r="AB54" s="39" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC54" s="30">
+        <f>IF(B25="DIV", F25,"")</f>
+        <v/>
+      </c>
+      <c r="AD54" s="35" t="n"/>
+      <c r="AE54" s="40" t="n"/>
+      <c r="AF54" s="40" t="n"/>
+      <c r="AG54" s="40" t="n"/>
+      <c r="AH54" s="40" t="n"/>
+      <c r="AI54" s="40" t="n"/>
+      <c r="AJ54" s="40" t="n"/>
+      <c r="AK54" s="40" t="n"/>
+      <c r="AL54" s="40" t="n"/>
+      <c r="AM54" s="40" t="n"/>
+      <c r="AN54" s="40" t="n"/>
+      <c r="AO54" s="40" t="n"/>
+      <c r="AP54" s="40" t="n"/>
     </row>
     <row r="55" ht="15.75" customHeight="1" s="62">
       <c r="E55" s="41" t="n"/>
@@ -19300,6 +19340,7 @@
       <c r="J989" s="41" t="n"/>
       <c r="K989" s="41" t="n"/>
       <c r="L989" s="41" t="n"/>
+      <c r="M989" s="1" t="n"/>
       <c r="W989" s="41" t="n"/>
       <c r="X989" s="41" t="n"/>
       <c r="Y989" s="41" t="n"/>
@@ -19315,6 +19356,7 @@
       <c r="J990" s="41" t="n"/>
       <c r="K990" s="41" t="n"/>
       <c r="L990" s="41" t="n"/>
+      <c r="M990" s="1" t="n"/>
       <c r="W990" s="41" t="n"/>
       <c r="X990" s="41" t="n"/>
       <c r="Y990" s="41" t="n"/>
@@ -19547,6 +19589,36 @@
       <c r="AA1005" s="41" t="n"/>
       <c r="AB1005" s="41" t="n"/>
       <c r="AC1005" s="41" t="n"/>
+    </row>
+    <row r="1006">
+      <c r="E1006" s="41" t="n"/>
+      <c r="F1006" s="41" t="n"/>
+      <c r="G1006" s="42" t="n"/>
+      <c r="J1006" s="41" t="n"/>
+      <c r="K1006" s="41" t="n"/>
+      <c r="L1006" s="41" t="n"/>
+      <c r="W1006" s="41" t="n"/>
+      <c r="X1006" s="41" t="n"/>
+      <c r="Y1006" s="41" t="n"/>
+      <c r="Z1006" s="41" t="n"/>
+      <c r="AA1006" s="41" t="n"/>
+      <c r="AB1006" s="41" t="n"/>
+      <c r="AC1006" s="41" t="n"/>
+    </row>
+    <row r="1007">
+      <c r="E1007" s="41" t="n"/>
+      <c r="F1007" s="41" t="n"/>
+      <c r="G1007" s="42" t="n"/>
+      <c r="J1007" s="41" t="n"/>
+      <c r="K1007" s="41" t="n"/>
+      <c r="L1007" s="41" t="n"/>
+      <c r="W1007" s="41" t="n"/>
+      <c r="X1007" s="41" t="n"/>
+      <c r="Y1007" s="41" t="n"/>
+      <c r="Z1007" s="41" t="n"/>
+      <c r="AA1007" s="41" t="n"/>
+      <c r="AB1007" s="41" t="n"/>
+      <c r="AC1007" s="41" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:AO53"/>

--- a/dumps/Stocks/High Energy Batteries (India) Ltd.xlsx
+++ b/dumps/Stocks/High Energy Batteries (India) Ltd.xlsx
@@ -712,7 +712,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1007"/>
+  <dimension ref="A1:AP1008"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="177" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G19" activePane="bottomRight" state="frozen"/>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1" s="62">
       <c r="A5" s="73" t="n">
-        <v>45967</v>
+        <v>45978</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1075,21 +1075,21 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>570.45</v>
+        <v>657.58</v>
       </c>
       <c r="F5" t="n">
-        <v>5733</v>
+        <v>3304.35</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252607785263</t>
+          <t>CN#252608260909</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>28.5</v>
+        <v>16.45</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1" s="62">
       <c r="A6" s="73" t="n">
-        <v>45961</v>
+        <v>45967</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1111,21 +1111,21 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>596.15</v>
+        <v>570.45</v>
       </c>
       <c r="F6" t="n">
-        <v>2995.65</v>
+        <v>5733</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CN#252607606298</t>
+          <t>CN#252607785263</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>14.9</v>
+        <v>28.5</v>
       </c>
       <c r="J6">
         <f>Index!$C$2</f>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="7" ht="15.75" customHeight="1" s="62">
       <c r="A7" s="73" t="n">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1147,21 +1147,21 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>607.4</v>
+        <v>596.15</v>
       </c>
       <c r="F7" t="n">
-        <v>6104.4</v>
+        <v>2995.65</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>CN#252607382790</t>
+          <t>CN#252607606298</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>30.4</v>
+        <v>14.9</v>
       </c>
       <c r="J7">
         <f>Index!$C$2</f>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1" s="62">
       <c r="A8" s="73" t="n">
-        <v>46063</v>
+        <v>45957</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1186,21 +1186,18 @@
         <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>589.75</v>
+        <v>607.4</v>
       </c>
       <c r="F8" t="n">
-        <v>5946.05</v>
+        <v>6104.4</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>CN#252611730667</t>
+          <t>CN#252607382790</t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v>5.89</v>
-      </c>
       <c r="I8" t="n">
-        <v>42.66</v>
+        <v>30.4</v>
       </c>
       <c r="J8">
         <f>Index!$C$2</f>
@@ -1208,8 +1205,8 @@
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" s="62">
-      <c r="A9" s="60" t="n">
-        <v>46050</v>
+      <c r="A9" s="73" t="n">
+        <v>46063</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1225,26 +1222,30 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>530</v>
+        <v>589.75</v>
       </c>
       <c r="F9" t="n">
-        <v>5343.69</v>
+        <v>5946.05</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611730667</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5.33</v>
+        <v>5.89</v>
       </c>
       <c r="I9" t="n">
-        <v>38.36</v>
+        <v>42.66</v>
+      </c>
+      <c r="J9">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1" s="62">
       <c r="A10" s="60" t="n">
-        <v>46049</v>
+        <v>46050</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1257,13 +1258,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>534.7</v>
+        <v>530</v>
       </c>
       <c r="F10" t="n">
-        <v>2695.48</v>
+        <v>5343.69</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1271,15 +1272,15 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2.67</v>
+        <v>5.33</v>
       </c>
       <c r="I10" t="n">
-        <v>19.31</v>
+        <v>38.36</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" s="62">
       <c r="A11" s="60" t="n">
-        <v>46042</v>
+        <v>46049</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1292,13 +1293,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>541</v>
+        <v>534.7</v>
       </c>
       <c r="F11" t="n">
-        <v>5454.64</v>
+        <v>2695.48</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1306,15 +1307,15 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5.42</v>
+        <v>2.67</v>
       </c>
       <c r="I11" t="n">
-        <v>39.22</v>
+        <v>19.31</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1" s="62">
       <c r="A12" s="60" t="n">
-        <v>46030</v>
+        <v>46042</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1330,10 +1331,10 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>563.85</v>
+        <v>541</v>
       </c>
       <c r="F12" t="n">
-        <v>5684.91</v>
+        <v>5454.64</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1341,15 +1342,15 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5.62</v>
+        <v>5.42</v>
       </c>
       <c r="I12" t="n">
-        <v>40.79</v>
+        <v>39.22</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" s="62">
       <c r="A13" s="60" t="n">
-        <v>46017</v>
+        <v>46030</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1362,13 +1363,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>545.55</v>
+        <v>563.85</v>
       </c>
       <c r="F13" t="n">
-        <v>2750.24</v>
+        <v>5684.91</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1376,10 +1377,10 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>2.74</v>
+        <v>5.62</v>
       </c>
       <c r="I13" t="n">
-        <v>19.75</v>
+        <v>40.79</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1" s="62">
@@ -1400,10 +1401,10 @@
         <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>545.5</v>
+        <v>545.55</v>
       </c>
       <c r="F14" t="n">
-        <v>2749.99</v>
+        <v>2750.24</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1419,7 +1420,7 @@
     </row>
     <row r="15" ht="15.75" customHeight="1" s="62">
       <c r="A15" s="60" t="n">
-        <v>46015</v>
+        <v>46017</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1432,13 +1433,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E15" t="n">
-        <v>545.25</v>
+        <v>545.5</v>
       </c>
       <c r="F15" t="n">
-        <v>5497.42</v>
+        <v>2749.99</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1446,15 +1447,15 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>5.42</v>
+        <v>2.74</v>
       </c>
       <c r="I15" t="n">
-        <v>39.5</v>
+        <v>19.75</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1" s="62">
       <c r="A16" s="60" t="n">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1470,10 +1471,10 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>548.9</v>
+        <v>545.25</v>
       </c>
       <c r="F16" t="n">
-        <v>5534.11</v>
+        <v>5497.42</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1481,15 +1482,15 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>5.47</v>
+        <v>5.42</v>
       </c>
       <c r="I16" t="n">
-        <v>39.64</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" s="62">
       <c r="A17" s="60" t="n">
-        <v>46007</v>
+        <v>46014</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1505,10 +1506,10 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>541.3</v>
+        <v>548.9</v>
       </c>
       <c r="F17" t="n">
-        <v>5457.59</v>
+        <v>5534.11</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1516,15 +1517,15 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>5.39</v>
+        <v>5.47</v>
       </c>
       <c r="I17" t="n">
-        <v>39.2</v>
+        <v>39.64</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1" s="62">
       <c r="A18" s="60" t="n">
-        <v>46002</v>
+        <v>46007</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1537,13 +1538,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>547.9</v>
+        <v>541.3</v>
       </c>
       <c r="F18" t="n">
-        <v>2762.01</v>
+        <v>5457.59</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1551,15 +1552,15 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>2.75</v>
+        <v>5.39</v>
       </c>
       <c r="I18" t="n">
-        <v>19.76</v>
+        <v>39.2</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1" s="62">
       <c r="A19" s="60" t="n">
-        <v>46000</v>
+        <v>46002</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1575,10 +1576,10 @@
         <v>5</v>
       </c>
       <c r="E19" t="n">
-        <v>560.95</v>
+        <v>547.9</v>
       </c>
       <c r="F19" t="n">
-        <v>2827.8</v>
+        <v>2762.01</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1586,10 +1587,10 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I19" t="n">
-        <v>20.25</v>
+        <v>19.76</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1" s="62">
@@ -1610,10 +1611,10 @@
         <v>5</v>
       </c>
       <c r="E20" t="n">
-        <v>561</v>
+        <v>560.95</v>
       </c>
       <c r="F20" t="n">
-        <v>2828.11</v>
+        <v>2827.8</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1624,12 +1625,12 @@
         <v>2.8</v>
       </c>
       <c r="I20" t="n">
-        <v>20.31</v>
+        <v>20.25</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="62">
       <c r="A21" s="60" t="n">
-        <v>45996</v>
+        <v>46000</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1642,13 +1643,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E21" t="n">
-        <v>573.95</v>
+        <v>561</v>
       </c>
       <c r="F21" t="n">
-        <v>5786.76</v>
+        <v>2828.11</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1656,15 +1657,15 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>5.72</v>
+        <v>2.8</v>
       </c>
       <c r="I21" t="n">
-        <v>41.54</v>
+        <v>20.31</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1" s="62">
       <c r="A22" s="60" t="n">
-        <v>45989</v>
+        <v>45996</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1677,13 +1678,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>586.95</v>
+        <v>573.95</v>
       </c>
       <c r="F22" t="n">
-        <v>2958.88</v>
+        <v>5786.76</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1691,15 +1692,15 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>2.93</v>
+        <v>5.72</v>
       </c>
       <c r="I22" t="n">
-        <v>21.2</v>
+        <v>41.54</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1" s="62">
       <c r="A23" s="60" t="n">
-        <v>45982</v>
+        <v>45989</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1715,10 +1716,10 @@
         <v>5</v>
       </c>
       <c r="E23" t="n">
-        <v>621</v>
+        <v>586.95</v>
       </c>
       <c r="F23" t="n">
-        <v>3130.59</v>
+        <v>2958.88</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1726,15 +1727,15 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>3.11</v>
+        <v>2.93</v>
       </c>
       <c r="I23" t="n">
-        <v>22.48</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1" s="62">
       <c r="A24" s="60" t="n">
-        <v>45979</v>
+        <v>45982</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1747,13 +1748,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E24" t="n">
-        <v>624.95</v>
+        <v>621</v>
       </c>
       <c r="F24" t="n">
-        <v>1260.17</v>
+        <v>3130.59</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1761,10 +1762,10 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1.25</v>
+        <v>3.11</v>
       </c>
       <c r="I24" t="n">
-        <v>9.02</v>
+        <v>22.48</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1" s="62">
@@ -1782,13 +1783,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>622.8</v>
+        <v>624.95</v>
       </c>
       <c r="F25" t="n">
-        <v>1883.78</v>
+        <v>1260.17</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1796,15 +1797,15 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1.88</v>
+        <v>1.25</v>
       </c>
       <c r="I25" t="n">
-        <v>13.5</v>
+        <v>9.02</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1" s="62">
       <c r="A26" s="60" t="n">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1817,13 +1818,13 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E26" t="n">
-        <v>658</v>
+        <v>622.8</v>
       </c>
       <c r="F26" t="n">
-        <v>663.4299999999999</v>
+        <v>1883.78</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1831,10 +1832,10 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.66</v>
+        <v>1.88</v>
       </c>
       <c r="I26" t="n">
-        <v>4.77</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1" s="62">
@@ -1852,13 +1853,13 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>657.95</v>
+        <v>658</v>
       </c>
       <c r="F27" t="n">
-        <v>1326.73</v>
+        <v>663.4299999999999</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1866,10 +1867,10 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>1.32</v>
+        <v>0.66</v>
       </c>
       <c r="I27" t="n">
-        <v>9.51</v>
+        <v>4.77</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1" s="62">
@@ -1890,10 +1891,10 @@
         <v>2</v>
       </c>
       <c r="E28" t="n">
-        <v>657</v>
+        <v>657.95</v>
       </c>
       <c r="F28" t="n">
-        <v>1324.82</v>
+        <v>1326.73</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1904,12 +1905,12 @@
         <v>1.32</v>
       </c>
       <c r="I28" t="n">
-        <v>9.5</v>
+        <v>9.51</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1" s="62">
       <c r="A29" s="60" t="n">
-        <v>45967</v>
+        <v>45978</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1922,13 +1923,13 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E29" t="n">
-        <v>570.45</v>
+        <v>657</v>
       </c>
       <c r="F29" t="n">
-        <v>5751.49</v>
+        <v>1324.82</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1936,15 +1937,15 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>5.74</v>
+        <v>1.32</v>
       </c>
       <c r="I29" t="n">
-        <v>41.25</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1" s="62">
       <c r="A30" s="60" t="n">
-        <v>45961</v>
+        <v>45967</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1957,13 +1958,13 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>596.15</v>
+        <v>570.45</v>
       </c>
       <c r="F30" t="n">
-        <v>3005.27</v>
+        <v>5751.49</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1971,15 +1972,15 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>2.97</v>
+        <v>5.74</v>
       </c>
       <c r="I30" t="n">
-        <v>21.55</v>
+        <v>41.25</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1" s="62">
       <c r="A31" s="60" t="n">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1992,13 +1993,13 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E31" t="n">
-        <v>607.4</v>
+        <v>596.15</v>
       </c>
       <c r="F31" t="n">
-        <v>6124.02</v>
+        <v>3005.27</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2006,15 +2007,15 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>6.08</v>
+        <v>2.97</v>
       </c>
       <c r="I31" t="n">
-        <v>43.94</v>
+        <v>21.55</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1" s="62">
       <c r="A32" s="60" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2027,13 +2028,13 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>647.9</v>
+        <v>607.4</v>
       </c>
       <c r="F32" t="n">
-        <v>3266.17</v>
+        <v>6124.02</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2041,15 +2042,15 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>3.24</v>
+        <v>6.08</v>
       </c>
       <c r="I32" t="n">
-        <v>23.43</v>
+        <v>43.94</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1" s="62">
       <c r="A33" s="60" t="n">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2062,13 +2063,13 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E33" t="n">
-        <v>651.4</v>
+        <v>647.9</v>
       </c>
       <c r="F33" t="n">
-        <v>6567.59</v>
+        <v>3266.17</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2076,15 +2077,15 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>6.49</v>
+        <v>3.24</v>
       </c>
       <c r="I33" t="n">
-        <v>47.1</v>
+        <v>23.43</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1" s="62">
       <c r="A34" s="60" t="n">
-        <v>45950</v>
+        <v>45953</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2100,10 +2101,10 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>640.95</v>
+        <v>651.4</v>
       </c>
       <c r="F34" t="n">
-        <v>6462.21</v>
+        <v>6567.59</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2111,15 +2112,15 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>6.4</v>
+        <v>6.49</v>
       </c>
       <c r="I34" t="n">
-        <v>46.31</v>
+        <v>47.1</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1" s="62">
       <c r="A35" s="60" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2135,10 +2136,10 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>610.5</v>
+        <v>640.95</v>
       </c>
       <c r="F35" t="n">
-        <v>6155.25</v>
+        <v>6462.21</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2146,113 +2147,50 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>6.12</v>
+        <v>6.4</v>
       </c>
       <c r="I35" t="n">
-        <v>44.13</v>
+        <v>46.31</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1" s="62">
-      <c r="A36" s="36" t="n">
-        <v>45807</v>
-      </c>
-      <c r="B36" s="25" t="inlineStr">
+      <c r="A36" s="60" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>BSE</t>
         </is>
       </c>
-      <c r="C36" s="25" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
-      <c r="D36" s="26" t="n">
-        <v>50</v>
-      </c>
-      <c r="E36" s="27" t="n">
-        <v>714.28</v>
-      </c>
-      <c r="F36" s="27">
-        <f>D7*E7</f>
-        <v/>
-      </c>
-      <c r="G36" s="25" t="inlineStr">
+      <c r="D36" t="n">
+        <v>10</v>
+      </c>
+      <c r="E36" t="n">
+        <v>610.5</v>
+      </c>
+      <c r="F36" t="n">
+        <v>6155.25</v>
+      </c>
+      <c r="G36" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H36" s="26" t="n"/>
-      <c r="I36" s="26" t="n"/>
-      <c r="J36" s="28">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K36" s="29">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/SUM(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="L36" s="30">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v/>
-      </c>
-      <c r="M36" s="30">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
-        <v/>
-      </c>
-      <c r="N36" s="31">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
-        <v/>
-      </c>
-      <c r="O36" s="29">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/SUM(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="P36" s="30">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v/>
-      </c>
-      <c r="Q36" s="30">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
-        <v/>
-      </c>
-      <c r="R36" s="30">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
-        <v/>
-      </c>
-      <c r="S36" s="32">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/SUM(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="T36" s="33">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v/>
-      </c>
-      <c r="U36" s="33">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
-        <v/>
-      </c>
-      <c r="V36" s="33">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
-        <v/>
-      </c>
-      <c r="W36" s="33" t="n"/>
-      <c r="X36" s="33" t="n"/>
-      <c r="Y36" s="32">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/SUM(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="Z36" s="33" t="n"/>
-      <c r="AA36" s="33" t="n"/>
-      <c r="AB36" s="34" t="n"/>
-      <c r="AC36" s="30">
-        <f>IF(B7="DIV", F7,"")</f>
-        <v/>
-      </c>
-      <c r="AD36" s="35" t="n"/>
+      <c r="H36" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="I36" t="n">
+        <v>44.13</v>
+      </c>
     </row>
     <row r="37" ht="15.75" customHeight="1" s="62">
       <c r="A37" s="36" t="n">
-        <v>45806</v>
+        <v>45807</v>
       </c>
       <c r="B37" s="25" t="inlineStr">
         <is>
@@ -2265,13 +2203,13 @@
         </is>
       </c>
       <c r="D37" s="26" t="n">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="E37" s="27" t="n">
-        <v>699.39</v>
+        <v>714.28</v>
       </c>
       <c r="F37" s="27">
-        <f>D8*E8</f>
+        <f>D7*E7</f>
         <v/>
       </c>
       <c r="G37" s="25" t="inlineStr">
@@ -2286,64 +2224,64 @@
         <v/>
       </c>
       <c r="K37" s="29">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/SUM(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/SUM(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L37" s="30">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M37" s="30">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N37" s="31">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O37" s="29">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/SUM(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/SUM(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P37" s="30">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q37" s="30">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R37" s="30">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S37" s="32">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/SUM(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/SUM(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T37" s="33">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U37" s="33">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V37" s="33">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W37" s="33" t="n"/>
       <c r="X37" s="33" t="n"/>
       <c r="Y37" s="32">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/SUM(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/SUM(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z37" s="33" t="n"/>
       <c r="AA37" s="33" t="n"/>
       <c r="AB37" s="34" t="n"/>
       <c r="AC37" s="30">
-        <f>IF(B8="DIV", F8,"")</f>
+        <f>IF(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD37" s="35" t="n"/>
@@ -2363,13 +2301,13 @@
         </is>
       </c>
       <c r="D38" s="26" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E38" s="27" t="n">
-        <v>702.78</v>
+        <v>699.39</v>
       </c>
       <c r="F38" s="27">
-        <f>D9*E9</f>
+        <f>D8*E8</f>
         <v/>
       </c>
       <c r="G38" s="25" t="inlineStr">
@@ -2384,64 +2322,64 @@
         <v/>
       </c>
       <c r="K38" s="29">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/SUM(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/SUM(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L38" s="30">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M38" s="30">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N38" s="31">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O38" s="29">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/SUM(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/SUM(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P38" s="30">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q38" s="30">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R38" s="30">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S38" s="32">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/SUM(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/SUM(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T38" s="33">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U38" s="33">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V38" s="33">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W38" s="33" t="n"/>
       <c r="X38" s="33" t="n"/>
       <c r="Y38" s="32">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/SUM(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/SUM(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z38" s="33" t="n"/>
       <c r="AA38" s="33" t="n"/>
       <c r="AB38" s="34" t="n"/>
       <c r="AC38" s="30">
-        <f>IF(B9="DIV", F9,"")</f>
+        <f>IF(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD38" s="35" t="n"/>
@@ -2461,13 +2399,13 @@
         </is>
       </c>
       <c r="D39" s="26" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E39" s="27" t="n">
-        <v>699.29</v>
+        <v>702.78</v>
       </c>
       <c r="F39" s="27">
-        <f>D10*E10</f>
+        <f>D9*E9</f>
         <v/>
       </c>
       <c r="G39" s="25" t="inlineStr">
@@ -2482,71 +2420,71 @@
         <v/>
       </c>
       <c r="K39" s="29">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/SUM(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/SUM(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L39" s="30">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M39" s="30">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N39" s="31">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O39" s="29">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/SUM(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/SUM(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P39" s="30">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q39" s="30">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R39" s="30">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S39" s="32">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/SUM(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/SUM(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T39" s="33">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U39" s="33">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V39" s="33">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W39" s="33" t="n"/>
       <c r="X39" s="33" t="n"/>
       <c r="Y39" s="32">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/SUM(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/SUM(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z39" s="33" t="n"/>
       <c r="AA39" s="33" t="n"/>
       <c r="AB39" s="34" t="n"/>
       <c r="AC39" s="30">
-        <f>IF(B10="DIV", F10,"")</f>
+        <f>IF(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD39" s="35" t="n"/>
     </row>
     <row r="40" ht="15.75" customHeight="1" s="62">
       <c r="A40" s="36" t="n">
-        <v>45712</v>
+        <v>45806</v>
       </c>
       <c r="B40" s="25" t="inlineStr">
         <is>
@@ -2555,117 +2493,92 @@
       </c>
       <c r="C40" s="25" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D40" s="26" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E40" s="27" t="n">
-        <v>484.4</v>
-      </c>
-      <c r="F40" s="27" t="n">
-        <v>968.8099999999999</v>
+        <v>699.29</v>
+      </c>
+      <c r="F40" s="27">
+        <f>D10*E10</f>
+        <v/>
       </c>
       <c r="G40" s="25" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H40" s="26" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="I40" s="26" t="n">
-        <v>6.94</v>
-      </c>
+      <c r="H40" s="26" t="n"/>
+      <c r="I40" s="26" t="n"/>
       <c r="J40" s="28">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K40" s="29">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/SUM(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/SUM(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L40" s="30">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M40" s="30">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N40" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O40" s="29">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/SUM(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/SUM(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P40" s="30">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q40" s="30">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R40" s="30">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S40" s="32">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/SUM(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/SUM(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T40" s="33">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U40" s="33">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V40" s="33">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
-        <v/>
-      </c>
-      <c r="W40" s="33" t="n">
-        <v>703.9400000000001</v>
-      </c>
-      <c r="X40" s="36" t="n">
-        <v>45806</v>
-      </c>
-      <c r="Y40" s="37">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/SUM(F11:I11), "")</f>
-        <v/>
-      </c>
-      <c r="Z40" s="38" t="n">
-        <v>-5376.165</v>
-      </c>
-      <c r="AA40" s="38" t="n">
-        <v>5452.5</v>
-      </c>
-      <c r="AB40" s="39" t="n">
-        <v>10</v>
-      </c>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <v/>
+      </c>
+      <c r="W40" s="33" t="n"/>
+      <c r="X40" s="33" t="n"/>
+      <c r="Y40" s="32">
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/SUM(F10:I10), "")</f>
+        <v/>
+      </c>
+      <c r="Z40" s="33" t="n"/>
+      <c r="AA40" s="33" t="n"/>
+      <c r="AB40" s="34" t="n"/>
       <c r="AC40" s="30">
-        <f>IF(B11="DIV", F11,"")</f>
+        <f>IF(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD40" s="35" t="n"/>
-      <c r="AE40" s="40" t="n"/>
-      <c r="AF40" s="40" t="n"/>
-      <c r="AG40" s="40" t="n"/>
-      <c r="AH40" s="40" t="n"/>
-      <c r="AI40" s="40" t="n"/>
-      <c r="AJ40" s="40" t="n"/>
-      <c r="AK40" s="40" t="n"/>
-      <c r="AL40" s="40" t="n"/>
-      <c r="AM40" s="40" t="n"/>
-      <c r="AN40" s="40" t="n"/>
-      <c r="AO40" s="40" t="n"/>
-      <c r="AP40" s="40" t="n"/>
     </row>
     <row r="41" ht="15.75" customHeight="1" s="62">
       <c r="A41" s="36" t="n">
@@ -2685,10 +2598,10 @@
         <v>2</v>
       </c>
       <c r="E41" s="27" t="n">
-        <v>486.42</v>
+        <v>484.4</v>
       </c>
       <c r="F41" s="27" t="n">
-        <v>972.83</v>
+        <v>968.8099999999999</v>
       </c>
       <c r="G41" s="25" t="inlineStr">
         <is>
@@ -2699,58 +2612,58 @@
         <v>0.97</v>
       </c>
       <c r="I41" s="26" t="n">
-        <v>6.96</v>
+        <v>6.94</v>
       </c>
       <c r="J41" s="28">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K41" s="29">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/SUM(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/SUM(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L41" s="30">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M41" s="30">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N41" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O41" s="29">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/SUM(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/SUM(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P41" s="30">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q41" s="30">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R41" s="30">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S41" s="32">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/SUM(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/SUM(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T41" s="33">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U41" s="33">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V41" s="33">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W41" s="33" t="n">
@@ -2760,20 +2673,20 @@
         <v>45806</v>
       </c>
       <c r="Y41" s="37">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/SUM(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/SUM(F11:I11), "")</f>
         <v/>
       </c>
       <c r="Z41" s="38" t="n">
-        <v>-5412.154</v>
+        <v>-5376.165</v>
       </c>
       <c r="AA41" s="38" t="n">
-        <v>5489</v>
+        <v>5452.5</v>
       </c>
       <c r="AB41" s="39" t="n">
         <v>10</v>
       </c>
       <c r="AC41" s="30">
-        <f>IF(B12="DIV", F12,"")</f>
+        <f>IF(B11="DIV", F11,"")</f>
         <v/>
       </c>
       <c r="AD41" s="35" t="n"/>
@@ -2808,10 +2721,10 @@
         <v>2</v>
       </c>
       <c r="E42" s="27" t="n">
-        <v>485.17</v>
+        <v>486.42</v>
       </c>
       <c r="F42" s="27" t="n">
-        <v>970.33</v>
+        <v>972.83</v>
       </c>
       <c r="G42" s="25" t="inlineStr">
         <is>
@@ -2829,51 +2742,51 @@
         <v/>
       </c>
       <c r="K42" s="29">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/SUM(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/SUM(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L42" s="30">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M42" s="30">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N42" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O42" s="29">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/SUM(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/SUM(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P42" s="30">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q42" s="30">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R42" s="30">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S42" s="32">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/SUM(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/SUM(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T42" s="33">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U42" s="33">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V42" s="33">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W42" s="33" t="n">
@@ -2883,20 +2796,20 @@
         <v>45806</v>
       </c>
       <c r="Y42" s="37">
-        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/SUM(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/SUM(F12:I12), "")</f>
         <v/>
       </c>
       <c r="Z42" s="38" t="n">
-        <v>-5337.218</v>
+        <v>-5412.154</v>
       </c>
       <c r="AA42" s="38" t="n">
-        <v>5413</v>
+        <v>5489</v>
       </c>
       <c r="AB42" s="39" t="n">
         <v>10</v>
       </c>
       <c r="AC42" s="30">
-        <f>IF(B13="DIV", F13,"")</f>
+        <f>IF(B12="DIV", F12,"")</f>
         <v/>
       </c>
       <c r="AD42" s="35" t="n"/>
@@ -2931,10 +2844,10 @@
         <v>2</v>
       </c>
       <c r="E43" s="27" t="n">
-        <v>485.42</v>
+        <v>485.17</v>
       </c>
       <c r="F43" s="27" t="n">
-        <v>970.83</v>
+        <v>970.33</v>
       </c>
       <c r="G43" s="25" t="inlineStr">
         <is>
@@ -2952,51 +2865,51 @@
         <v/>
       </c>
       <c r="K43" s="29">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/SUM(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/SUM(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L43" s="30">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M43" s="30">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N43" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O43" s="29">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/SUM(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/SUM(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P43" s="30">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q43" s="30">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R43" s="30">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S43" s="32">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/SUM(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/SUM(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T43" s="33">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U43" s="33">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V43" s="33">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W43" s="33" t="n">
@@ -3006,20 +2919,20 @@
         <v>45806</v>
       </c>
       <c r="Y43" s="37">
-        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/SUM(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/SUM(F13:I13), "")</f>
         <v/>
       </c>
       <c r="Z43" s="38" t="n">
-        <v>-2701.147</v>
+        <v>-5337.218</v>
       </c>
       <c r="AA43" s="38" t="n">
-        <v>2739.5</v>
+        <v>5413</v>
       </c>
       <c r="AB43" s="39" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AC43" s="30">
-        <f>IF(B14="DIV", F14,"")</f>
+        <f>IF(B13="DIV", F13,"")</f>
         <v/>
       </c>
       <c r="AD43" s="35" t="n"/>
@@ -3054,10 +2967,10 @@
         <v>2</v>
       </c>
       <c r="E44" s="27" t="n">
-        <v>484.15</v>
+        <v>485.42</v>
       </c>
       <c r="F44" s="27" t="n">
-        <v>968.3099999999999</v>
+        <v>970.83</v>
       </c>
       <c r="G44" s="25" t="inlineStr">
         <is>
@@ -3068,58 +2981,58 @@
         <v>0.97</v>
       </c>
       <c r="I44" s="26" t="n">
-        <v>6.94</v>
+        <v>6.96</v>
       </c>
       <c r="J44" s="28">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K44" s="29">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/SUM(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/SUM(F14:I14), "")</f>
         <v/>
       </c>
       <c r="L44" s="30">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="M44" s="30">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
         <v/>
       </c>
       <c r="N44" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O44" s="29">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/SUM(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/SUM(F14:I14), "")</f>
         <v/>
       </c>
       <c r="P44" s="30">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="Q44" s="30">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
         <v/>
       </c>
       <c r="R44" s="30">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S44" s="32">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/SUM(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/SUM(F14:I14), "")</f>
         <v/>
       </c>
       <c r="T44" s="33">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="U44" s="33">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
         <v/>
       </c>
       <c r="V44" s="33">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W44" s="33" t="n">
@@ -3129,20 +3042,20 @@
         <v>45806</v>
       </c>
       <c r="Y44" s="37">
-        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/SUM(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/SUM(F14:I14), "")</f>
         <v/>
       </c>
       <c r="Z44" s="38" t="n">
-        <v>-2765.4835</v>
+        <v>-2701.147</v>
       </c>
       <c r="AA44" s="38" t="n">
-        <v>2804.75</v>
+        <v>2739.5</v>
       </c>
       <c r="AB44" s="39" t="n">
         <v>5</v>
       </c>
       <c r="AC44" s="30">
-        <f>IF(B15="DIV", F15,"")</f>
+        <f>IF(B14="DIV", F14,"")</f>
         <v/>
       </c>
       <c r="AD44" s="35" t="n"/>
@@ -3174,13 +3087,13 @@
         </is>
       </c>
       <c r="D45" s="26" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E45" s="27" t="n">
-        <v>490.95</v>
+        <v>484.15</v>
       </c>
       <c r="F45" s="27" t="n">
-        <v>13746.59</v>
+        <v>968.3099999999999</v>
       </c>
       <c r="G45" s="25" t="inlineStr">
         <is>
@@ -3188,61 +3101,61 @@
         </is>
       </c>
       <c r="H45" s="26" t="n">
-        <v>13.53</v>
+        <v>0.97</v>
       </c>
       <c r="I45" s="26" t="n">
-        <v>98.45999999999999</v>
+        <v>6.94</v>
       </c>
       <c r="J45" s="28">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K45" s="29">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/SUM(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/SUM(F15:I15), "")</f>
         <v/>
       </c>
       <c r="L45" s="30">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="M45" s="30">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
         <v/>
       </c>
       <c r="N45" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O45" s="29">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/SUM(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/SUM(F15:I15), "")</f>
         <v/>
       </c>
       <c r="P45" s="30">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="Q45" s="30">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
         <v/>
       </c>
       <c r="R45" s="30">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S45" s="32">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/SUM(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/SUM(F15:I15), "")</f>
         <v/>
       </c>
       <c r="T45" s="33">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="U45" s="33">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
         <v/>
       </c>
       <c r="V45" s="33">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W45" s="33" t="n">
@@ -3252,20 +3165,20 @@
         <v>45806</v>
       </c>
       <c r="Y45" s="37">
-        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/SUM(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/SUM(F15:I15), "")</f>
         <v/>
       </c>
       <c r="Z45" s="38" t="n">
-        <v>-2765.73</v>
+        <v>-2765.4835</v>
       </c>
       <c r="AA45" s="38" t="n">
-        <v>2805</v>
+        <v>2804.75</v>
       </c>
       <c r="AB45" s="39" t="n">
         <v>5</v>
       </c>
       <c r="AC45" s="30">
-        <f>IF(B16="DIV", F16,"")</f>
+        <f>IF(B15="DIV", F15,"")</f>
         <v/>
       </c>
       <c r="AD45" s="35" t="n"/>
@@ -3297,13 +3210,13 @@
         </is>
       </c>
       <c r="D46" s="26" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E46" s="27" t="n">
-        <v>484.9</v>
+        <v>490.95</v>
       </c>
       <c r="F46" s="27" t="n">
-        <v>969.8099999999999</v>
+        <v>13746.59</v>
       </c>
       <c r="G46" s="25" t="inlineStr">
         <is>
@@ -3311,61 +3224,61 @@
         </is>
       </c>
       <c r="H46" s="26" t="n">
-        <v>0.97</v>
+        <v>13.53</v>
       </c>
       <c r="I46" s="26" t="n">
-        <v>6.94</v>
+        <v>98.45999999999999</v>
       </c>
       <c r="J46" s="28">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K46" s="29">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L46" s="30">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M46" s="30">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N46" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O46" s="29">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P46" s="30">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q46" s="30">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R46" s="30">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S46" s="32">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T46" s="33">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U46" s="33">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V46" s="33">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W46" s="33" t="n">
@@ -3375,20 +3288,20 @@
         <v>45806</v>
       </c>
       <c r="Y46" s="37">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="Z46" s="38" t="n">
-        <v>-5659.147</v>
+        <v>-2765.73</v>
       </c>
       <c r="AA46" s="38" t="n">
-        <v>5739.5</v>
+        <v>2805</v>
       </c>
       <c r="AB46" s="39" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AC46" s="30">
-        <f>IF(B17="DIV", F17,"")</f>
+        <f>IF(B16="DIV", F16,"")</f>
         <v/>
       </c>
       <c r="AD46" s="35" t="n"/>
@@ -3423,10 +3336,10 @@
         <v>2</v>
       </c>
       <c r="E47" s="27" t="n">
-        <v>485.67</v>
+        <v>484.9</v>
       </c>
       <c r="F47" s="27" t="n">
-        <v>971.33</v>
+        <v>969.8099999999999</v>
       </c>
       <c r="G47" s="25" t="inlineStr">
         <is>
@@ -3437,58 +3350,58 @@
         <v>0.97</v>
       </c>
       <c r="I47" s="26" t="n">
-        <v>6.96</v>
+        <v>6.94</v>
       </c>
       <c r="J47" s="28">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K47" s="29">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="L47" s="30">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="M47" s="30">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
         <v/>
       </c>
       <c r="N47" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
         <v/>
       </c>
       <c r="O47" s="29">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="P47" s="30">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="Q47" s="30">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
         <v/>
       </c>
       <c r="R47" s="30">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="S47" s="32">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="T47" s="33">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="U47" s="33">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
         <v/>
       </c>
       <c r="V47" s="33">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="W47" s="33" t="n">
@@ -3498,20 +3411,20 @@
         <v>45806</v>
       </c>
       <c r="Y47" s="37">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="Z47" s="38" t="n">
-        <v>-2893.6635</v>
+        <v>-5659.147</v>
       </c>
       <c r="AA47" s="38" t="n">
-        <v>2934.75</v>
+        <v>5739.5</v>
       </c>
       <c r="AB47" s="39" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AC47" s="30">
-        <f>IF(B18="DIV", F18,"")</f>
+        <f>IF(B17="DIV", F17,"")</f>
         <v/>
       </c>
       <c r="AD47" s="35" t="n"/>
@@ -3546,10 +3459,10 @@
         <v>2</v>
       </c>
       <c r="E48" s="27" t="n">
-        <v>485.92</v>
+        <v>485.67</v>
       </c>
       <c r="F48" s="27" t="n">
-        <v>971.83</v>
+        <v>971.33</v>
       </c>
       <c r="G48" s="25" t="inlineStr">
         <is>
@@ -3567,51 +3480,51 @@
         <v/>
       </c>
       <c r="K48" s="29">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="L48" s="30">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M48" s="30">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N48" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O48" s="29">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="P48" s="30">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q48" s="30">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R48" s="30">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S48" s="32">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="T48" s="33">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="U48" s="33">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V48" s="33">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="W48" s="33" t="n">
@@ -3621,20 +3534,20 @@
         <v>45806</v>
       </c>
       <c r="Y48" s="37">
-        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="Z48" s="38" t="n">
-        <v>-3061.53</v>
+        <v>-2893.6635</v>
       </c>
       <c r="AA48" s="38" t="n">
-        <v>3105</v>
+        <v>2934.75</v>
       </c>
       <c r="AB48" s="39" t="n">
         <v>5</v>
       </c>
       <c r="AC48" s="30">
-        <f>IF(B19="DIV", F19,"")</f>
+        <f>IF(B18="DIV", F18,"")</f>
         <v/>
       </c>
       <c r="AD48" s="35" t="n"/>
@@ -3669,10 +3582,10 @@
         <v>2</v>
       </c>
       <c r="E49" s="27" t="n">
-        <v>483.95</v>
+        <v>485.92</v>
       </c>
       <c r="F49" s="27" t="n">
-        <v>967.91</v>
+        <v>971.83</v>
       </c>
       <c r="G49" s="25" t="inlineStr">
         <is>
@@ -3683,58 +3596,58 @@
         <v>0.97</v>
       </c>
       <c r="I49" s="26" t="n">
-        <v>6.94</v>
+        <v>6.96</v>
       </c>
       <c r="J49" s="28">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K49" s="29">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="L49" s="30">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M49" s="30">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N49" s="31">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O49" s="29">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="P49" s="30">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q49" s="30">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R49" s="30">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S49" s="32">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="T49" s="33">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="U49" s="33">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V49" s="33">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="W49" s="33" t="n">
@@ -3744,20 +3657,20 @@
         <v>45806</v>
       </c>
       <c r="Y49" s="37">
-        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="Z49" s="38" t="n">
-        <v>-1232.4014</v>
+        <v>-3061.53</v>
       </c>
       <c r="AA49" s="38" t="n">
-        <v>1249.9</v>
+        <v>3105</v>
       </c>
       <c r="AB49" s="39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AC49" s="30">
-        <f>IF(B20="DIV", F20,"")</f>
+        <f>IF(B19="DIV", F19,"")</f>
         <v/>
       </c>
       <c r="AD49" s="35" t="n"/>
@@ -3792,10 +3705,10 @@
         <v>2</v>
       </c>
       <c r="E50" s="27" t="n">
-        <v>484.65</v>
+        <v>483.95</v>
       </c>
       <c r="F50" s="27" t="n">
-        <v>969.3099999999999</v>
+        <v>967.91</v>
       </c>
       <c r="G50" s="25" t="inlineStr">
         <is>
@@ -3813,51 +3726,51 @@
         <v/>
       </c>
       <c r="K50" s="29">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="L50" s="30">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M50" s="30">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N50" s="31">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O50" s="29">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="P50" s="30">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q50" s="30">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R50" s="30">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S50" s="32">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="T50" s="33">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="U50" s="33">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V50" s="33">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="W50" s="33" t="n">
@@ -3867,20 +3780,20 @@
         <v>45806</v>
       </c>
       <c r="Y50" s="37">
-        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="Z50" s="38" t="n">
-        <v>-1842.2424</v>
+        <v>-1232.4014</v>
       </c>
       <c r="AA50" s="38" t="n">
-        <v>1868.4</v>
+        <v>1249.9</v>
       </c>
       <c r="AB50" s="39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC50" s="30">
-        <f>IF(B21="DIV", F21,"")</f>
+        <f>IF(B20="DIV", F20,"")</f>
         <v/>
       </c>
       <c r="AD50" s="35" t="n"/>
@@ -3915,10 +3828,10 @@
         <v>2</v>
       </c>
       <c r="E51" s="27" t="n">
-        <v>486.17</v>
+        <v>484.65</v>
       </c>
       <c r="F51" s="27" t="n">
-        <v>972.33</v>
+        <v>969.3099999999999</v>
       </c>
       <c r="G51" s="25" t="inlineStr">
         <is>
@@ -3929,58 +3842,58 @@
         <v>0.97</v>
       </c>
       <c r="I51" s="26" t="n">
-        <v>6.96</v>
+        <v>6.94</v>
       </c>
       <c r="J51" s="28">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K51" s="29">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="L51" s="30">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="M51" s="30">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
         <v/>
       </c>
       <c r="N51" s="31">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O51" s="29">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="P51" s="30">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="Q51" s="30">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
         <v/>
       </c>
       <c r="R51" s="30">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="S51" s="32">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="T51" s="33">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="U51" s="33">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
         <v/>
       </c>
       <c r="V51" s="33">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="W51" s="33" t="n">
@@ -3990,20 +3903,20 @@
         <v>45806</v>
       </c>
       <c r="Y51" s="37">
-        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="Z51" s="38" t="n">
-        <v>-648.788</v>
+        <v>-1842.2424</v>
       </c>
       <c r="AA51" s="38" t="n">
-        <v>658</v>
+        <v>1868.4</v>
       </c>
       <c r="AB51" s="39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC51" s="30">
-        <f>IF(B22="DIV", F22,"")</f>
+        <f>IF(B21="DIV", F21,"")</f>
         <v/>
       </c>
       <c r="AD51" s="35" t="n"/>
@@ -4022,7 +3935,7 @@
     </row>
     <row r="52" ht="15.75" customHeight="1" s="62">
       <c r="A52" s="36" t="n">
-        <v>45705</v>
+        <v>45712</v>
       </c>
       <c r="B52" s="25" t="inlineStr">
         <is>
@@ -4035,13 +3948,13 @@
         </is>
       </c>
       <c r="D52" s="26" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E52" s="27" t="n">
-        <v>445.69</v>
+        <v>486.17</v>
       </c>
       <c r="F52" s="27" t="n">
-        <v>8913.73</v>
+        <v>972.33</v>
       </c>
       <c r="G52" s="25" t="inlineStr">
         <is>
@@ -4049,61 +3962,61 @@
         </is>
       </c>
       <c r="H52" s="26" t="n">
-        <v>8.83</v>
+        <v>0.97</v>
       </c>
       <c r="I52" s="26" t="n">
-        <v>63.9</v>
+        <v>6.96</v>
       </c>
       <c r="J52" s="28">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K52" s="29">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="L52" s="30">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="M52" s="30">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
         <v/>
       </c>
       <c r="N52" s="31">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
         <v/>
       </c>
       <c r="O52" s="29">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="P52" s="30">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="Q52" s="30">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
         <v/>
       </c>
       <c r="R52" s="30">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="S52" s="32">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="T52" s="33">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="U52" s="33">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
         <v/>
       </c>
       <c r="V52" s="33">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="W52" s="33" t="n">
@@ -4113,20 +4026,20 @@
         <v>45806</v>
       </c>
       <c r="Y52" s="37">
-        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="Z52" s="38" t="n">
-        <v>-1297.4774</v>
+        <v>-648.788</v>
       </c>
       <c r="AA52" s="38" t="n">
-        <v>1315.9</v>
+        <v>658</v>
       </c>
       <c r="AB52" s="39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC52" s="30">
-        <f>IF(B23="DIV", F23,"")</f>
+        <f>IF(B22="DIV", F22,"")</f>
         <v/>
       </c>
       <c r="AD52" s="35" t="n"/>
@@ -4145,7 +4058,7 @@
     </row>
     <row r="53" ht="15.75" customHeight="1" s="62">
       <c r="A53" s="36" t="n">
-        <v>45699</v>
+        <v>45705</v>
       </c>
       <c r="B53" s="25" t="inlineStr">
         <is>
@@ -4158,13 +4071,13 @@
         </is>
       </c>
       <c r="D53" s="26" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E53" s="27" t="n">
-        <v>509.46</v>
+        <v>445.69</v>
       </c>
       <c r="F53" s="27" t="n">
-        <v>5094.65</v>
+        <v>8913.73</v>
       </c>
       <c r="G53" s="25" t="inlineStr">
         <is>
@@ -4172,61 +4085,61 @@
         </is>
       </c>
       <c r="H53" s="26" t="n">
-        <v>5.05</v>
+        <v>8.83</v>
       </c>
       <c r="I53" s="26" t="n">
-        <v>36.6</v>
+        <v>63.9</v>
       </c>
       <c r="J53" s="28">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K53" s="29">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="L53" s="30">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="M53" s="30">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
         <v/>
       </c>
       <c r="N53" s="31">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
         <v/>
       </c>
       <c r="O53" s="29">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="P53" s="30">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="Q53" s="30">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
         <v/>
       </c>
       <c r="R53" s="30">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="S53" s="32">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="T53" s="33">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="U53" s="33">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
         <v/>
       </c>
       <c r="V53" s="33">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="W53" s="33" t="n">
@@ -4236,20 +4149,20 @@
         <v>45806</v>
       </c>
       <c r="Y53" s="37">
-        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="Z53" s="38" t="n">
-        <v>-1295.604</v>
+        <v>-1297.4774</v>
       </c>
       <c r="AA53" s="38" t="n">
-        <v>1314</v>
+        <v>1315.9</v>
       </c>
       <c r="AB53" s="39" t="n">
         <v>2</v>
       </c>
       <c r="AC53" s="30">
-        <f>IF(B24="DIV", F24,"")</f>
+        <f>IF(B23="DIV", F23,"")</f>
         <v/>
       </c>
       <c r="AD53" s="35" t="n"/>
@@ -4268,7 +4181,7 @@
     </row>
     <row r="54" ht="15.75" customHeight="1" s="62">
       <c r="A54" s="36" t="n">
-        <v>45694</v>
+        <v>45699</v>
       </c>
       <c r="B54" s="25" t="inlineStr">
         <is>
@@ -4281,13 +4194,13 @@
         </is>
       </c>
       <c r="D54" s="26" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E54" s="27" t="n">
-        <v>529.3200000000001</v>
+        <v>509.46</v>
       </c>
       <c r="F54" s="27" t="n">
-        <v>10586.46</v>
+        <v>5094.65</v>
       </c>
       <c r="G54" s="25" t="inlineStr">
         <is>
@@ -4295,61 +4208,61 @@
         </is>
       </c>
       <c r="H54" s="26" t="n">
-        <v>10.47</v>
+        <v>5.05</v>
       </c>
       <c r="I54" s="26" t="n">
-        <v>75.98999999999999</v>
+        <v>36.6</v>
       </c>
       <c r="J54" s="28">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K54" s="29">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="L54" s="30">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="M54" s="30">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
         <v/>
       </c>
       <c r="N54" s="31">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
         <v/>
       </c>
       <c r="O54" s="29">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="P54" s="30">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="Q54" s="30">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
         <v/>
       </c>
       <c r="R54" s="30">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="S54" s="32">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="T54" s="33">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="U54" s="33">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
         <v/>
       </c>
       <c r="V54" s="33">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="W54" s="33" t="n">
@@ -4359,20 +4272,20 @@
         <v>45806</v>
       </c>
       <c r="Y54" s="37">
-        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="Z54" s="38" t="n">
-        <v>-5624.637</v>
+        <v>-1295.604</v>
       </c>
       <c r="AA54" s="38" t="n">
-        <v>5704.5</v>
+        <v>1314</v>
       </c>
       <c r="AB54" s="39" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AC54" s="30">
-        <f>IF(B25="DIV", F25,"")</f>
+        <f>IF(B24="DIV", F24,"")</f>
         <v/>
       </c>
       <c r="AD54" s="35" t="n"/>
@@ -4390,20 +4303,127 @@
       <c r="AP54" s="40" t="n"/>
     </row>
     <row r="55" ht="15.75" customHeight="1" s="62">
-      <c r="E55" s="41" t="n"/>
-      <c r="F55" s="41" t="n"/>
-      <c r="G55" s="42" t="n"/>
-      <c r="J55" s="41" t="n"/>
-      <c r="K55" s="41" t="n"/>
-      <c r="L55" s="41" t="n"/>
-      <c r="M55" s="1" t="n"/>
-      <c r="W55" s="41" t="n"/>
-      <c r="X55" s="41" t="n"/>
-      <c r="Y55" s="41" t="n"/>
-      <c r="Z55" s="41" t="n"/>
-      <c r="AA55" s="41" t="n"/>
-      <c r="AB55" s="41" t="n"/>
-      <c r="AC55" s="41" t="n"/>
+      <c r="A55" s="36" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B55" s="25" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C55" s="25" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D55" s="26" t="n">
+        <v>20</v>
+      </c>
+      <c r="E55" s="27" t="n">
+        <v>529.3200000000001</v>
+      </c>
+      <c r="F55" s="27" t="n">
+        <v>10586.46</v>
+      </c>
+      <c r="G55" s="25" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H55" s="26" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="I55" s="26" t="n">
+        <v>75.98999999999999</v>
+      </c>
+      <c r="J55" s="28">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K55" s="29">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/SUM(F25:I25), "")</f>
+        <v/>
+      </c>
+      <c r="L55" s="30">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <v/>
+      </c>
+      <c r="M55" s="30">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
+        <v/>
+      </c>
+      <c r="N55" s="31">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
+        <v/>
+      </c>
+      <c r="O55" s="29">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/SUM(F25:I25), "")</f>
+        <v/>
+      </c>
+      <c r="P55" s="30">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <v/>
+      </c>
+      <c r="Q55" s="30">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
+        <v/>
+      </c>
+      <c r="R55" s="30">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
+        <v/>
+      </c>
+      <c r="S55" s="32">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/SUM(F25:I25), "")</f>
+        <v/>
+      </c>
+      <c r="T55" s="33">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <v/>
+      </c>
+      <c r="U55" s="33">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
+        <v/>
+      </c>
+      <c r="V55" s="33">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
+        <v/>
+      </c>
+      <c r="W55" s="33" t="n">
+        <v>703.9400000000001</v>
+      </c>
+      <c r="X55" s="36" t="n">
+        <v>45806</v>
+      </c>
+      <c r="Y55" s="37">
+        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/SUM(F25:I25), "")</f>
+        <v/>
+      </c>
+      <c r="Z55" s="38" t="n">
+        <v>-5624.637</v>
+      </c>
+      <c r="AA55" s="38" t="n">
+        <v>5704.5</v>
+      </c>
+      <c r="AB55" s="39" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC55" s="30">
+        <f>IF(B25="DIV", F25,"")</f>
+        <v/>
+      </c>
+      <c r="AD55" s="35" t="n"/>
+      <c r="AE55" s="40" t="n"/>
+      <c r="AF55" s="40" t="n"/>
+      <c r="AG55" s="40" t="n"/>
+      <c r="AH55" s="40" t="n"/>
+      <c r="AI55" s="40" t="n"/>
+      <c r="AJ55" s="40" t="n"/>
+      <c r="AK55" s="40" t="n"/>
+      <c r="AL55" s="40" t="n"/>
+      <c r="AM55" s="40" t="n"/>
+      <c r="AN55" s="40" t="n"/>
+      <c r="AO55" s="40" t="n"/>
+      <c r="AP55" s="40" t="n"/>
     </row>
     <row r="56" ht="15.75" customHeight="1" s="62">
       <c r="E56" s="41" t="n"/>
@@ -19372,6 +19392,7 @@
       <c r="J991" s="41" t="n"/>
       <c r="K991" s="41" t="n"/>
       <c r="L991" s="41" t="n"/>
+      <c r="M991" s="1" t="n"/>
       <c r="W991" s="41" t="n"/>
       <c r="X991" s="41" t="n"/>
       <c r="Y991" s="41" t="n"/>
@@ -19619,6 +19640,21 @@
       <c r="AA1007" s="41" t="n"/>
       <c r="AB1007" s="41" t="n"/>
       <c r="AC1007" s="41" t="n"/>
+    </row>
+    <row r="1008">
+      <c r="E1008" s="41" t="n"/>
+      <c r="F1008" s="41" t="n"/>
+      <c r="G1008" s="42" t="n"/>
+      <c r="J1008" s="41" t="n"/>
+      <c r="K1008" s="41" t="n"/>
+      <c r="L1008" s="41" t="n"/>
+      <c r="W1008" s="41" t="n"/>
+      <c r="X1008" s="41" t="n"/>
+      <c r="Y1008" s="41" t="n"/>
+      <c r="Z1008" s="41" t="n"/>
+      <c r="AA1008" s="41" t="n"/>
+      <c r="AB1008" s="41" t="n"/>
+      <c r="AC1008" s="41" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:AO53"/>

--- a/dumps/Stocks/High Energy Batteries (India) Ltd.xlsx
+++ b/dumps/Stocks/High Energy Batteries (India) Ltd.xlsx
@@ -712,7 +712,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1008"/>
+  <dimension ref="A1:AP1010"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="177" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G19" activePane="bottomRight" state="frozen"/>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1" s="62">
       <c r="A5" s="73" t="n">
-        <v>45978</v>
+        <v>45982</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1078,18 +1078,18 @@
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>657.58</v>
+        <v>621</v>
       </c>
       <c r="F5" t="n">
-        <v>3304.35</v>
+        <v>3120.55</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252608260909</t>
+          <t>CN#252608495287</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>16.45</v>
+        <v>15.55</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1" s="62">
       <c r="A6" s="73" t="n">
-        <v>45967</v>
+        <v>45979</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1111,21 +1111,21 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>570.45</v>
+        <v>623.66</v>
       </c>
       <c r="F6" t="n">
-        <v>5733</v>
+        <v>3133.87</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CN#252607785263</t>
+          <t>CN#252608322011</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>28.5</v>
+        <v>15.57</v>
       </c>
       <c r="J6">
         <f>Index!$C$2</f>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="7" ht="15.75" customHeight="1" s="62">
       <c r="A7" s="73" t="n">
-        <v>45961</v>
+        <v>45978</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1150,18 +1150,18 @@
         <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>596.15</v>
+        <v>657.58</v>
       </c>
       <c r="F7" t="n">
-        <v>2995.65</v>
+        <v>3304.35</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>CN#252607606298</t>
+          <t>CN#252608260909</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>14.9</v>
+        <v>16.45</v>
       </c>
       <c r="J7">
         <f>Index!$C$2</f>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1" s="62">
       <c r="A8" s="73" t="n">
-        <v>45957</v>
+        <v>45967</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1186,18 +1186,18 @@
         <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>607.4</v>
+        <v>570.45</v>
       </c>
       <c r="F8" t="n">
-        <v>6104.4</v>
+        <v>5733</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>CN#252607382790</t>
+          <t>CN#252607785263</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>30.4</v>
+        <v>28.5</v>
       </c>
       <c r="J8">
         <f>Index!$C$2</f>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1" s="62">
       <c r="A9" s="73" t="n">
-        <v>46063</v>
+        <v>45961</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1219,24 +1219,21 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>589.75</v>
+        <v>596.15</v>
       </c>
       <c r="F9" t="n">
-        <v>5946.05</v>
+        <v>2995.65</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>CN#252611730667</t>
+          <t>CN#252607606298</t>
         </is>
       </c>
-      <c r="H9" t="n">
-        <v>5.89</v>
-      </c>
       <c r="I9" t="n">
-        <v>42.66</v>
+        <v>14.9</v>
       </c>
       <c r="J9">
         <f>Index!$C$2</f>
@@ -1244,8 +1241,8 @@
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1" s="62">
-      <c r="A10" s="60" t="n">
-        <v>46050</v>
+      <c r="A10" s="73" t="n">
+        <v>45957</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1261,26 +1258,27 @@
         <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>530</v>
+        <v>607.4</v>
       </c>
       <c r="F10" t="n">
-        <v>5343.69</v>
+        <v>6104.4</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252607382790</t>
         </is>
       </c>
-      <c r="H10" t="n">
-        <v>5.33</v>
-      </c>
       <c r="I10" t="n">
-        <v>38.36</v>
+        <v>30.4</v>
+      </c>
+      <c r="J10">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" s="62">
-      <c r="A11" s="60" t="n">
-        <v>46049</v>
+      <c r="A11" s="73" t="n">
+        <v>46063</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1293,29 +1291,33 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>534.7</v>
+        <v>589.75</v>
       </c>
       <c r="F11" t="n">
-        <v>2695.48</v>
+        <v>5946.05</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611730667</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2.67</v>
+        <v>5.89</v>
       </c>
       <c r="I11" t="n">
-        <v>19.31</v>
+        <v>42.66</v>
+      </c>
+      <c r="J11">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1" s="62">
       <c r="A12" s="60" t="n">
-        <v>46042</v>
+        <v>46050</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1331,10 +1333,10 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="F12" t="n">
-        <v>5454.64</v>
+        <v>5343.69</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1342,15 +1344,15 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5.42</v>
+        <v>5.33</v>
       </c>
       <c r="I12" t="n">
-        <v>39.22</v>
+        <v>38.36</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" s="62">
       <c r="A13" s="60" t="n">
-        <v>46030</v>
+        <v>46049</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1363,13 +1365,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>563.85</v>
+        <v>534.7</v>
       </c>
       <c r="F13" t="n">
-        <v>5684.91</v>
+        <v>2695.48</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1377,15 +1379,15 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>5.62</v>
+        <v>2.67</v>
       </c>
       <c r="I13" t="n">
-        <v>40.79</v>
+        <v>19.31</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1" s="62">
       <c r="A14" s="60" t="n">
-        <v>46017</v>
+        <v>46042</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1398,13 +1400,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E14" t="n">
-        <v>545.55</v>
+        <v>541</v>
       </c>
       <c r="F14" t="n">
-        <v>2750.24</v>
+        <v>5454.64</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1412,15 +1414,15 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>2.74</v>
+        <v>5.42</v>
       </c>
       <c r="I14" t="n">
-        <v>19.75</v>
+        <v>39.22</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1" s="62">
       <c r="A15" s="60" t="n">
-        <v>46017</v>
+        <v>46030</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1433,13 +1435,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E15" t="n">
-        <v>545.5</v>
+        <v>563.85</v>
       </c>
       <c r="F15" t="n">
-        <v>2749.99</v>
+        <v>5684.91</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1447,15 +1449,15 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>2.74</v>
+        <v>5.62</v>
       </c>
       <c r="I15" t="n">
-        <v>19.75</v>
+        <v>40.79</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1" s="62">
       <c r="A16" s="60" t="n">
-        <v>46015</v>
+        <v>46017</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1468,13 +1470,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E16" t="n">
-        <v>545.25</v>
+        <v>545.55</v>
       </c>
       <c r="F16" t="n">
-        <v>5497.42</v>
+        <v>2750.24</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1482,15 +1484,15 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>5.42</v>
+        <v>2.74</v>
       </c>
       <c r="I16" t="n">
-        <v>39.5</v>
+        <v>19.75</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" s="62">
       <c r="A17" s="60" t="n">
-        <v>46014</v>
+        <v>46017</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1503,13 +1505,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E17" t="n">
-        <v>548.9</v>
+        <v>545.5</v>
       </c>
       <c r="F17" t="n">
-        <v>5534.11</v>
+        <v>2749.99</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1517,15 +1519,15 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>5.47</v>
+        <v>2.74</v>
       </c>
       <c r="I17" t="n">
-        <v>39.64</v>
+        <v>19.75</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1" s="62">
       <c r="A18" s="60" t="n">
-        <v>46007</v>
+        <v>46015</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1541,10 +1543,10 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>541.3</v>
+        <v>545.25</v>
       </c>
       <c r="F18" t="n">
-        <v>5457.59</v>
+        <v>5497.42</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1552,15 +1554,15 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>5.39</v>
+        <v>5.42</v>
       </c>
       <c r="I18" t="n">
-        <v>39.2</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1" s="62">
       <c r="A19" s="60" t="n">
-        <v>46002</v>
+        <v>46014</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1573,13 +1575,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>547.9</v>
+        <v>548.9</v>
       </c>
       <c r="F19" t="n">
-        <v>2762.01</v>
+        <v>5534.11</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1587,15 +1589,15 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2.75</v>
+        <v>5.47</v>
       </c>
       <c r="I19" t="n">
-        <v>19.76</v>
+        <v>39.64</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1" s="62">
       <c r="A20" s="60" t="n">
-        <v>46000</v>
+        <v>46007</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1608,13 +1610,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>560.95</v>
+        <v>541.3</v>
       </c>
       <c r="F20" t="n">
-        <v>2827.8</v>
+        <v>5457.59</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1622,15 +1624,15 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>2.8</v>
+        <v>5.39</v>
       </c>
       <c r="I20" t="n">
-        <v>20.25</v>
+        <v>39.2</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="62">
       <c r="A21" s="60" t="n">
-        <v>46000</v>
+        <v>46002</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1646,10 +1648,10 @@
         <v>5</v>
       </c>
       <c r="E21" t="n">
-        <v>561</v>
+        <v>547.9</v>
       </c>
       <c r="F21" t="n">
-        <v>2828.11</v>
+        <v>2762.01</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1657,15 +1659,15 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I21" t="n">
-        <v>20.31</v>
+        <v>19.76</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1" s="62">
       <c r="A22" s="60" t="n">
-        <v>45996</v>
+        <v>46000</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1678,13 +1680,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E22" t="n">
-        <v>573.95</v>
+        <v>560.95</v>
       </c>
       <c r="F22" t="n">
-        <v>5786.76</v>
+        <v>2827.8</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1692,15 +1694,15 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>5.72</v>
+        <v>2.8</v>
       </c>
       <c r="I22" t="n">
-        <v>41.54</v>
+        <v>20.25</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1" s="62">
       <c r="A23" s="60" t="n">
-        <v>45989</v>
+        <v>46000</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1716,10 +1718,10 @@
         <v>5</v>
       </c>
       <c r="E23" t="n">
-        <v>586.95</v>
+        <v>561</v>
       </c>
       <c r="F23" t="n">
-        <v>2958.88</v>
+        <v>2828.11</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1727,15 +1729,15 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>2.93</v>
+        <v>2.8</v>
       </c>
       <c r="I23" t="n">
-        <v>21.2</v>
+        <v>20.31</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1" s="62">
       <c r="A24" s="60" t="n">
-        <v>45982</v>
+        <v>45996</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1748,13 +1750,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>621</v>
+        <v>573.95</v>
       </c>
       <c r="F24" t="n">
-        <v>3130.59</v>
+        <v>5786.76</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1762,15 +1764,15 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>3.11</v>
+        <v>5.72</v>
       </c>
       <c r="I24" t="n">
-        <v>22.48</v>
+        <v>41.54</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1" s="62">
       <c r="A25" s="60" t="n">
-        <v>45979</v>
+        <v>45989</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1783,13 +1785,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E25" t="n">
-        <v>624.95</v>
+        <v>586.95</v>
       </c>
       <c r="F25" t="n">
-        <v>1260.17</v>
+        <v>2958.88</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1797,15 +1799,15 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1.25</v>
+        <v>2.93</v>
       </c>
       <c r="I25" t="n">
-        <v>9.02</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1" s="62">
       <c r="A26" s="60" t="n">
-        <v>45979</v>
+        <v>45982</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1818,13 +1820,13 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E26" t="n">
-        <v>622.8</v>
+        <v>621</v>
       </c>
       <c r="F26" t="n">
-        <v>1883.78</v>
+        <v>3130.59</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1832,15 +1834,15 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1.88</v>
+        <v>3.11</v>
       </c>
       <c r="I26" t="n">
-        <v>13.5</v>
+        <v>22.48</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1" s="62">
       <c r="A27" s="60" t="n">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1853,13 +1855,13 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" t="n">
-        <v>658</v>
+        <v>624.95</v>
       </c>
       <c r="F27" t="n">
-        <v>663.4299999999999</v>
+        <v>1260.17</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1867,15 +1869,15 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.66</v>
+        <v>1.25</v>
       </c>
       <c r="I27" t="n">
-        <v>4.77</v>
+        <v>9.02</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1" s="62">
       <c r="A28" s="60" t="n">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1888,13 +1890,13 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28" t="n">
-        <v>657.95</v>
+        <v>622.8</v>
       </c>
       <c r="F28" t="n">
-        <v>1326.73</v>
+        <v>1883.78</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1902,10 +1904,10 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1.32</v>
+        <v>1.88</v>
       </c>
       <c r="I28" t="n">
-        <v>9.51</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1" s="62">
@@ -1923,13 +1925,13 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F29" t="n">
-        <v>1324.82</v>
+        <v>663.4299999999999</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1937,15 +1939,15 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>1.32</v>
+        <v>0.66</v>
       </c>
       <c r="I29" t="n">
-        <v>9.5</v>
+        <v>4.77</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1" s="62">
       <c r="A30" s="60" t="n">
-        <v>45967</v>
+        <v>45978</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1958,13 +1960,13 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E30" t="n">
-        <v>570.45</v>
+        <v>657.95</v>
       </c>
       <c r="F30" t="n">
-        <v>5751.49</v>
+        <v>1326.73</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1972,15 +1974,15 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>5.74</v>
+        <v>1.32</v>
       </c>
       <c r="I30" t="n">
-        <v>41.25</v>
+        <v>9.51</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1" s="62">
       <c r="A31" s="60" t="n">
-        <v>45961</v>
+        <v>45978</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1993,13 +1995,13 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>596.15</v>
+        <v>657</v>
       </c>
       <c r="F31" t="n">
-        <v>3005.27</v>
+        <v>1324.82</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2007,15 +2009,15 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>2.97</v>
+        <v>1.32</v>
       </c>
       <c r="I31" t="n">
-        <v>21.55</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1" s="62">
       <c r="A32" s="60" t="n">
-        <v>45957</v>
+        <v>45967</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2031,10 +2033,10 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>607.4</v>
+        <v>570.45</v>
       </c>
       <c r="F32" t="n">
-        <v>6124.02</v>
+        <v>5751.49</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2042,15 +2044,15 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>6.08</v>
+        <v>5.74</v>
       </c>
       <c r="I32" t="n">
-        <v>43.94</v>
+        <v>41.25</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1" s="62">
       <c r="A33" s="60" t="n">
-        <v>45954</v>
+        <v>45961</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2066,10 +2068,10 @@
         <v>5</v>
       </c>
       <c r="E33" t="n">
-        <v>647.9</v>
+        <v>596.15</v>
       </c>
       <c r="F33" t="n">
-        <v>3266.17</v>
+        <v>3005.27</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2077,15 +2079,15 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>3.24</v>
+        <v>2.97</v>
       </c>
       <c r="I33" t="n">
-        <v>23.43</v>
+        <v>21.55</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1" s="62">
       <c r="A34" s="60" t="n">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2101,10 +2103,10 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>651.4</v>
+        <v>607.4</v>
       </c>
       <c r="F34" t="n">
-        <v>6567.59</v>
+        <v>6124.02</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2112,15 +2114,15 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>6.49</v>
+        <v>6.08</v>
       </c>
       <c r="I34" t="n">
-        <v>47.1</v>
+        <v>43.94</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1" s="62">
       <c r="A35" s="60" t="n">
-        <v>45950</v>
+        <v>45954</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2133,13 +2135,13 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E35" t="n">
-        <v>640.95</v>
+        <v>647.9</v>
       </c>
       <c r="F35" t="n">
-        <v>6462.21</v>
+        <v>3266.17</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2147,15 +2149,15 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>6.4</v>
+        <v>3.24</v>
       </c>
       <c r="I35" t="n">
-        <v>46.31</v>
+        <v>23.43</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1" s="62">
       <c r="A36" s="60" t="n">
-        <v>45947</v>
+        <v>45953</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2171,10 +2173,10 @@
         <v>10</v>
       </c>
       <c r="E36" t="n">
-        <v>610.5</v>
+        <v>651.4</v>
       </c>
       <c r="F36" t="n">
-        <v>6155.25</v>
+        <v>6567.59</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2182,211 +2184,85 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>6.12</v>
+        <v>6.49</v>
       </c>
       <c r="I36" t="n">
-        <v>44.13</v>
+        <v>47.1</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1" s="62">
-      <c r="A37" s="36" t="n">
-        <v>45807</v>
-      </c>
-      <c r="B37" s="25" t="inlineStr">
+      <c r="A37" s="60" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>BSE</t>
         </is>
       </c>
-      <c r="C37" s="25" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
-      <c r="D37" s="26" t="n">
-        <v>50</v>
-      </c>
-      <c r="E37" s="27" t="n">
-        <v>714.28</v>
-      </c>
-      <c r="F37" s="27">
-        <f>D7*E7</f>
-        <v/>
-      </c>
-      <c r="G37" s="25" t="inlineStr">
+      <c r="D37" t="n">
+        <v>10</v>
+      </c>
+      <c r="E37" t="n">
+        <v>640.95</v>
+      </c>
+      <c r="F37" t="n">
+        <v>6462.21</v>
+      </c>
+      <c r="G37" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H37" s="26" t="n"/>
-      <c r="I37" s="26" t="n"/>
-      <c r="J37" s="28">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K37" s="29">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/SUM(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="L37" s="30">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v/>
-      </c>
-      <c r="M37" s="30">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
-        <v/>
-      </c>
-      <c r="N37" s="31">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
-        <v/>
-      </c>
-      <c r="O37" s="29">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/SUM(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="P37" s="30">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v/>
-      </c>
-      <c r="Q37" s="30">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
-        <v/>
-      </c>
-      <c r="R37" s="30">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
-        <v/>
-      </c>
-      <c r="S37" s="32">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/SUM(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="T37" s="33">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v/>
-      </c>
-      <c r="U37" s="33">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
-        <v/>
-      </c>
-      <c r="V37" s="33">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
-        <v/>
-      </c>
-      <c r="W37" s="33" t="n"/>
-      <c r="X37" s="33" t="n"/>
-      <c r="Y37" s="32">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/SUM(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="Z37" s="33" t="n"/>
-      <c r="AA37" s="33" t="n"/>
-      <c r="AB37" s="34" t="n"/>
-      <c r="AC37" s="30">
-        <f>IF(B7="DIV", F7,"")</f>
-        <v/>
-      </c>
-      <c r="AD37" s="35" t="n"/>
+      <c r="H37" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I37" t="n">
+        <v>46.31</v>
+      </c>
     </row>
     <row r="38" ht="15.75" customHeight="1" s="62">
-      <c r="A38" s="36" t="n">
-        <v>45806</v>
-      </c>
-      <c r="B38" s="25" t="inlineStr">
+      <c r="A38" s="60" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>BSE</t>
         </is>
       </c>
-      <c r="C38" s="25" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
-      <c r="D38" s="26" t="n">
-        <v>6</v>
-      </c>
-      <c r="E38" s="27" t="n">
-        <v>699.39</v>
-      </c>
-      <c r="F38" s="27">
-        <f>D8*E8</f>
-        <v/>
-      </c>
-      <c r="G38" s="25" t="inlineStr">
+      <c r="D38" t="n">
+        <v>10</v>
+      </c>
+      <c r="E38" t="n">
+        <v>610.5</v>
+      </c>
+      <c r="F38" t="n">
+        <v>6155.25</v>
+      </c>
+      <c r="G38" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H38" s="26" t="n"/>
-      <c r="I38" s="26" t="n"/>
-      <c r="J38" s="28">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K38" s="29">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/SUM(F8:I8), "")</f>
-        <v/>
-      </c>
-      <c r="L38" s="30">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
-        <v/>
-      </c>
-      <c r="M38" s="30">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
-        <v/>
-      </c>
-      <c r="N38" s="31">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
-        <v/>
-      </c>
-      <c r="O38" s="29">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/SUM(F8:I8), "")</f>
-        <v/>
-      </c>
-      <c r="P38" s="30">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
-        <v/>
-      </c>
-      <c r="Q38" s="30">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
-        <v/>
-      </c>
-      <c r="R38" s="30">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
-        <v/>
-      </c>
-      <c r="S38" s="32">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/SUM(F8:I8), "")</f>
-        <v/>
-      </c>
-      <c r="T38" s="33">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
-        <v/>
-      </c>
-      <c r="U38" s="33">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
-        <v/>
-      </c>
-      <c r="V38" s="33">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
-        <v/>
-      </c>
-      <c r="W38" s="33" t="n"/>
-      <c r="X38" s="33" t="n"/>
-      <c r="Y38" s="32">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/SUM(F8:I8), "")</f>
-        <v/>
-      </c>
-      <c r="Z38" s="33" t="n"/>
-      <c r="AA38" s="33" t="n"/>
-      <c r="AB38" s="34" t="n"/>
-      <c r="AC38" s="30">
-        <f>IF(B8="DIV", F8,"")</f>
-        <v/>
-      </c>
-      <c r="AD38" s="35" t="n"/>
+      <c r="H38" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="I38" t="n">
+        <v>44.13</v>
+      </c>
     </row>
     <row r="39" ht="15.75" customHeight="1" s="62">
       <c r="A39" s="36" t="n">
-        <v>45806</v>
+        <v>45807</v>
       </c>
       <c r="B39" s="25" t="inlineStr">
         <is>
@@ -2399,13 +2275,13 @@
         </is>
       </c>
       <c r="D39" s="26" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="E39" s="27" t="n">
-        <v>702.78</v>
+        <v>714.28</v>
       </c>
       <c r="F39" s="27">
-        <f>D9*E9</f>
+        <f>D7*E7</f>
         <v/>
       </c>
       <c r="G39" s="25" t="inlineStr">
@@ -2420,64 +2296,64 @@
         <v/>
       </c>
       <c r="K39" s="29">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/SUM(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/SUM(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L39" s="30">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M39" s="30">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N39" s="31">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O39" s="29">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/SUM(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/SUM(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P39" s="30">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q39" s="30">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R39" s="30">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S39" s="32">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/SUM(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/SUM(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T39" s="33">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U39" s="33">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V39" s="33">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W39" s="33" t="n"/>
       <c r="X39" s="33" t="n"/>
       <c r="Y39" s="32">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/SUM(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/SUM(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z39" s="33" t="n"/>
       <c r="AA39" s="33" t="n"/>
       <c r="AB39" s="34" t="n"/>
       <c r="AC39" s="30">
-        <f>IF(B9="DIV", F9,"")</f>
+        <f>IF(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD39" s="35" t="n"/>
@@ -2497,13 +2373,13 @@
         </is>
       </c>
       <c r="D40" s="26" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E40" s="27" t="n">
-        <v>699.29</v>
+        <v>699.39</v>
       </c>
       <c r="F40" s="27">
-        <f>D10*E10</f>
+        <f>D8*E8</f>
         <v/>
       </c>
       <c r="G40" s="25" t="inlineStr">
@@ -2518,71 +2394,71 @@
         <v/>
       </c>
       <c r="K40" s="29">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/SUM(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/SUM(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L40" s="30">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M40" s="30">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N40" s="31">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O40" s="29">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/SUM(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/SUM(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P40" s="30">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q40" s="30">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R40" s="30">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S40" s="32">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/SUM(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/SUM(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T40" s="33">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U40" s="33">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V40" s="33">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W40" s="33" t="n"/>
       <c r="X40" s="33" t="n"/>
       <c r="Y40" s="32">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/SUM(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/SUM(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z40" s="33" t="n"/>
       <c r="AA40" s="33" t="n"/>
       <c r="AB40" s="34" t="n"/>
       <c r="AC40" s="30">
-        <f>IF(B10="DIV", F10,"")</f>
+        <f>IF(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD40" s="35" t="n"/>
     </row>
     <row r="41" ht="15.75" customHeight="1" s="62">
       <c r="A41" s="36" t="n">
-        <v>45712</v>
+        <v>45806</v>
       </c>
       <c r="B41" s="25" t="inlineStr">
         <is>
@@ -2591,121 +2467,96 @@
       </c>
       <c r="C41" s="25" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D41" s="26" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E41" s="27" t="n">
-        <v>484.4</v>
-      </c>
-      <c r="F41" s="27" t="n">
-        <v>968.8099999999999</v>
+        <v>702.78</v>
+      </c>
+      <c r="F41" s="27">
+        <f>D9*E9</f>
+        <v/>
       </c>
       <c r="G41" s="25" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H41" s="26" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="I41" s="26" t="n">
-        <v>6.94</v>
-      </c>
+      <c r="H41" s="26" t="n"/>
+      <c r="I41" s="26" t="n"/>
       <c r="J41" s="28">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K41" s="29">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/SUM(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/SUM(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L41" s="30">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M41" s="30">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N41" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O41" s="29">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/SUM(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/SUM(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P41" s="30">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q41" s="30">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R41" s="30">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S41" s="32">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/SUM(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/SUM(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T41" s="33">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U41" s="33">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V41" s="33">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
-        <v/>
-      </c>
-      <c r="W41" s="33" t="n">
-        <v>703.9400000000001</v>
-      </c>
-      <c r="X41" s="36" t="n">
-        <v>45806</v>
-      </c>
-      <c r="Y41" s="37">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/SUM(F11:I11), "")</f>
-        <v/>
-      </c>
-      <c r="Z41" s="38" t="n">
-        <v>-5376.165</v>
-      </c>
-      <c r="AA41" s="38" t="n">
-        <v>5452.5</v>
-      </c>
-      <c r="AB41" s="39" t="n">
-        <v>10</v>
-      </c>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <v/>
+      </c>
+      <c r="W41" s="33" t="n"/>
+      <c r="X41" s="33" t="n"/>
+      <c r="Y41" s="32">
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/SUM(F9:I9), "")</f>
+        <v/>
+      </c>
+      <c r="Z41" s="33" t="n"/>
+      <c r="AA41" s="33" t="n"/>
+      <c r="AB41" s="34" t="n"/>
       <c r="AC41" s="30">
-        <f>IF(B11="DIV", F11,"")</f>
+        <f>IF(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD41" s="35" t="n"/>
-      <c r="AE41" s="40" t="n"/>
-      <c r="AF41" s="40" t="n"/>
-      <c r="AG41" s="40" t="n"/>
-      <c r="AH41" s="40" t="n"/>
-      <c r="AI41" s="40" t="n"/>
-      <c r="AJ41" s="40" t="n"/>
-      <c r="AK41" s="40" t="n"/>
-      <c r="AL41" s="40" t="n"/>
-      <c r="AM41" s="40" t="n"/>
-      <c r="AN41" s="40" t="n"/>
-      <c r="AO41" s="40" t="n"/>
-      <c r="AP41" s="40" t="n"/>
     </row>
     <row r="42" ht="15.75" customHeight="1" s="62">
       <c r="A42" s="36" t="n">
-        <v>45712</v>
+        <v>45806</v>
       </c>
       <c r="B42" s="25" t="inlineStr">
         <is>
@@ -2714,117 +2565,92 @@
       </c>
       <c r="C42" s="25" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D42" s="26" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E42" s="27" t="n">
-        <v>486.42</v>
-      </c>
-      <c r="F42" s="27" t="n">
-        <v>972.83</v>
+        <v>699.29</v>
+      </c>
+      <c r="F42" s="27">
+        <f>D10*E10</f>
+        <v/>
       </c>
       <c r="G42" s="25" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H42" s="26" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="I42" s="26" t="n">
-        <v>6.96</v>
-      </c>
+      <c r="H42" s="26" t="n"/>
+      <c r="I42" s="26" t="n"/>
       <c r="J42" s="28">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K42" s="29">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/SUM(F12:I12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/SUM(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L42" s="30">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M42" s="30">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N42" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O42" s="29">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/SUM(F12:I12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/SUM(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P42" s="30">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q42" s="30">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R42" s="30">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S42" s="32">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/SUM(F12:I12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/SUM(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T42" s="33">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U42" s="33">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V42" s="33">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
-        <v/>
-      </c>
-      <c r="W42" s="33" t="n">
-        <v>703.9400000000001</v>
-      </c>
-      <c r="X42" s="36" t="n">
-        <v>45806</v>
-      </c>
-      <c r="Y42" s="37">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/SUM(F12:I12), "")</f>
-        <v/>
-      </c>
-      <c r="Z42" s="38" t="n">
-        <v>-5412.154</v>
-      </c>
-      <c r="AA42" s="38" t="n">
-        <v>5489</v>
-      </c>
-      <c r="AB42" s="39" t="n">
-        <v>10</v>
-      </c>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <v/>
+      </c>
+      <c r="W42" s="33" t="n"/>
+      <c r="X42" s="33" t="n"/>
+      <c r="Y42" s="32">
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/SUM(F10:I10), "")</f>
+        <v/>
+      </c>
+      <c r="Z42" s="33" t="n"/>
+      <c r="AA42" s="33" t="n"/>
+      <c r="AB42" s="34" t="n"/>
       <c r="AC42" s="30">
-        <f>IF(B12="DIV", F12,"")</f>
+        <f>IF(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD42" s="35" t="n"/>
-      <c r="AE42" s="40" t="n"/>
-      <c r="AF42" s="40" t="n"/>
-      <c r="AG42" s="40" t="n"/>
-      <c r="AH42" s="40" t="n"/>
-      <c r="AI42" s="40" t="n"/>
-      <c r="AJ42" s="40" t="n"/>
-      <c r="AK42" s="40" t="n"/>
-      <c r="AL42" s="40" t="n"/>
-      <c r="AM42" s="40" t="n"/>
-      <c r="AN42" s="40" t="n"/>
-      <c r="AO42" s="40" t="n"/>
-      <c r="AP42" s="40" t="n"/>
     </row>
     <row r="43" ht="15.75" customHeight="1" s="62">
       <c r="A43" s="36" t="n">
@@ -2844,10 +2670,10 @@
         <v>2</v>
       </c>
       <c r="E43" s="27" t="n">
-        <v>485.17</v>
+        <v>484.4</v>
       </c>
       <c r="F43" s="27" t="n">
-        <v>970.33</v>
+        <v>968.8099999999999</v>
       </c>
       <c r="G43" s="25" t="inlineStr">
         <is>
@@ -2858,58 +2684,58 @@
         <v>0.97</v>
       </c>
       <c r="I43" s="26" t="n">
-        <v>6.96</v>
+        <v>6.94</v>
       </c>
       <c r="J43" s="28">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K43" s="29">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/SUM(F13:I13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/SUM(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L43" s="30">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M43" s="30">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N43" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O43" s="29">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/SUM(F13:I13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/SUM(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P43" s="30">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q43" s="30">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R43" s="30">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S43" s="32">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/SUM(F13:I13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/SUM(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T43" s="33">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U43" s="33">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V43" s="33">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W43" s="33" t="n">
@@ -2919,20 +2745,20 @@
         <v>45806</v>
       </c>
       <c r="Y43" s="37">
-        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/SUM(F13:I13), "")</f>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/SUM(F11:I11), "")</f>
         <v/>
       </c>
       <c r="Z43" s="38" t="n">
-        <v>-5337.218</v>
+        <v>-5376.165</v>
       </c>
       <c r="AA43" s="38" t="n">
-        <v>5413</v>
+        <v>5452.5</v>
       </c>
       <c r="AB43" s="39" t="n">
         <v>10</v>
       </c>
       <c r="AC43" s="30">
-        <f>IF(B13="DIV", F13,"")</f>
+        <f>IF(B11="DIV", F11,"")</f>
         <v/>
       </c>
       <c r="AD43" s="35" t="n"/>
@@ -2967,10 +2793,10 @@
         <v>2</v>
       </c>
       <c r="E44" s="27" t="n">
-        <v>485.42</v>
+        <v>486.42</v>
       </c>
       <c r="F44" s="27" t="n">
-        <v>970.83</v>
+        <v>972.83</v>
       </c>
       <c r="G44" s="25" t="inlineStr">
         <is>
@@ -2988,51 +2814,51 @@
         <v/>
       </c>
       <c r="K44" s="29">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/SUM(F14:I14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/SUM(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L44" s="30">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M44" s="30">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N44" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O44" s="29">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/SUM(F14:I14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/SUM(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P44" s="30">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q44" s="30">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R44" s="30">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S44" s="32">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/SUM(F14:I14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/SUM(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T44" s="33">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U44" s="33">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V44" s="33">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W44" s="33" t="n">
@@ -3042,20 +2868,20 @@
         <v>45806</v>
       </c>
       <c r="Y44" s="37">
-        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/SUM(F14:I14), "")</f>
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/SUM(F12:I12), "")</f>
         <v/>
       </c>
       <c r="Z44" s="38" t="n">
-        <v>-2701.147</v>
+        <v>-5412.154</v>
       </c>
       <c r="AA44" s="38" t="n">
-        <v>2739.5</v>
+        <v>5489</v>
       </c>
       <c r="AB44" s="39" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AC44" s="30">
-        <f>IF(B14="DIV", F14,"")</f>
+        <f>IF(B12="DIV", F12,"")</f>
         <v/>
       </c>
       <c r="AD44" s="35" t="n"/>
@@ -3090,10 +2916,10 @@
         <v>2</v>
       </c>
       <c r="E45" s="27" t="n">
-        <v>484.15</v>
+        <v>485.17</v>
       </c>
       <c r="F45" s="27" t="n">
-        <v>968.3099999999999</v>
+        <v>970.33</v>
       </c>
       <c r="G45" s="25" t="inlineStr">
         <is>
@@ -3104,58 +2930,58 @@
         <v>0.97</v>
       </c>
       <c r="I45" s="26" t="n">
-        <v>6.94</v>
+        <v>6.96</v>
       </c>
       <c r="J45" s="28">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K45" s="29">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/SUM(F15:I15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/SUM(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L45" s="30">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M45" s="30">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N45" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O45" s="29">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/SUM(F15:I15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/SUM(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P45" s="30">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q45" s="30">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R45" s="30">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S45" s="32">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/SUM(F15:I15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/SUM(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T45" s="33">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U45" s="33">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V45" s="33">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W45" s="33" t="n">
@@ -3165,20 +2991,20 @@
         <v>45806</v>
       </c>
       <c r="Y45" s="37">
-        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/SUM(F15:I15), "")</f>
+        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/SUM(F13:I13), "")</f>
         <v/>
       </c>
       <c r="Z45" s="38" t="n">
-        <v>-2765.4835</v>
+        <v>-5337.218</v>
       </c>
       <c r="AA45" s="38" t="n">
-        <v>2804.75</v>
+        <v>5413</v>
       </c>
       <c r="AB45" s="39" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AC45" s="30">
-        <f>IF(B15="DIV", F15,"")</f>
+        <f>IF(B13="DIV", F13,"")</f>
         <v/>
       </c>
       <c r="AD45" s="35" t="n"/>
@@ -3210,13 +3036,13 @@
         </is>
       </c>
       <c r="D46" s="26" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E46" s="27" t="n">
-        <v>490.95</v>
+        <v>485.42</v>
       </c>
       <c r="F46" s="27" t="n">
-        <v>13746.59</v>
+        <v>970.83</v>
       </c>
       <c r="G46" s="25" t="inlineStr">
         <is>
@@ -3224,61 +3050,61 @@
         </is>
       </c>
       <c r="H46" s="26" t="n">
-        <v>13.53</v>
+        <v>0.97</v>
       </c>
       <c r="I46" s="26" t="n">
-        <v>98.45999999999999</v>
+        <v>6.96</v>
       </c>
       <c r="J46" s="28">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K46" s="29">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/SUM(F16:I16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/SUM(F14:I14), "")</f>
         <v/>
       </c>
       <c r="L46" s="30">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="M46" s="30">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
         <v/>
       </c>
       <c r="N46" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O46" s="29">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/SUM(F16:I16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/SUM(F14:I14), "")</f>
         <v/>
       </c>
       <c r="P46" s="30">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="Q46" s="30">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
         <v/>
       </c>
       <c r="R46" s="30">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S46" s="32">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/SUM(F16:I16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/SUM(F14:I14), "")</f>
         <v/>
       </c>
       <c r="T46" s="33">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="U46" s="33">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
         <v/>
       </c>
       <c r="V46" s="33">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W46" s="33" t="n">
@@ -3288,20 +3114,20 @@
         <v>45806</v>
       </c>
       <c r="Y46" s="37">
-        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/SUM(F16:I16), "")</f>
+        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/SUM(F14:I14), "")</f>
         <v/>
       </c>
       <c r="Z46" s="38" t="n">
-        <v>-2765.73</v>
+        <v>-2701.147</v>
       </c>
       <c r="AA46" s="38" t="n">
-        <v>2805</v>
+        <v>2739.5</v>
       </c>
       <c r="AB46" s="39" t="n">
         <v>5</v>
       </c>
       <c r="AC46" s="30">
-        <f>IF(B16="DIV", F16,"")</f>
+        <f>IF(B14="DIV", F14,"")</f>
         <v/>
       </c>
       <c r="AD46" s="35" t="n"/>
@@ -3336,10 +3162,10 @@
         <v>2</v>
       </c>
       <c r="E47" s="27" t="n">
-        <v>484.9</v>
+        <v>484.15</v>
       </c>
       <c r="F47" s="27" t="n">
-        <v>969.8099999999999</v>
+        <v>968.3099999999999</v>
       </c>
       <c r="G47" s="25" t="inlineStr">
         <is>
@@ -3357,51 +3183,51 @@
         <v/>
       </c>
       <c r="K47" s="29">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/SUM(F15:I15), "")</f>
         <v/>
       </c>
       <c r="L47" s="30">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="M47" s="30">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
         <v/>
       </c>
       <c r="N47" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O47" s="29">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/SUM(F15:I15), "")</f>
         <v/>
       </c>
       <c r="P47" s="30">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="Q47" s="30">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
         <v/>
       </c>
       <c r="R47" s="30">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S47" s="32">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/SUM(F15:I15), "")</f>
         <v/>
       </c>
       <c r="T47" s="33">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="U47" s="33">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
         <v/>
       </c>
       <c r="V47" s="33">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W47" s="33" t="n">
@@ -3411,20 +3237,20 @@
         <v>45806</v>
       </c>
       <c r="Y47" s="37">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/SUM(F15:I15), "")</f>
         <v/>
       </c>
       <c r="Z47" s="38" t="n">
-        <v>-5659.147</v>
+        <v>-2765.4835</v>
       </c>
       <c r="AA47" s="38" t="n">
-        <v>5739.5</v>
+        <v>2804.75</v>
       </c>
       <c r="AB47" s="39" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AC47" s="30">
-        <f>IF(B17="DIV", F17,"")</f>
+        <f>IF(B15="DIV", F15,"")</f>
         <v/>
       </c>
       <c r="AD47" s="35" t="n"/>
@@ -3456,13 +3282,13 @@
         </is>
       </c>
       <c r="D48" s="26" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E48" s="27" t="n">
-        <v>485.67</v>
+        <v>490.95</v>
       </c>
       <c r="F48" s="27" t="n">
-        <v>971.33</v>
+        <v>13746.59</v>
       </c>
       <c r="G48" s="25" t="inlineStr">
         <is>
@@ -3470,61 +3296,61 @@
         </is>
       </c>
       <c r="H48" s="26" t="n">
-        <v>0.97</v>
+        <v>13.53</v>
       </c>
       <c r="I48" s="26" t="n">
-        <v>6.96</v>
+        <v>98.45999999999999</v>
       </c>
       <c r="J48" s="28">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K48" s="29">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L48" s="30">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M48" s="30">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N48" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O48" s="29">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P48" s="30">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q48" s="30">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R48" s="30">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S48" s="32">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T48" s="33">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U48" s="33">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V48" s="33">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W48" s="33" t="n">
@@ -3534,20 +3360,20 @@
         <v>45806</v>
       </c>
       <c r="Y48" s="37">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="Z48" s="38" t="n">
-        <v>-2893.6635</v>
+        <v>-2765.73</v>
       </c>
       <c r="AA48" s="38" t="n">
-        <v>2934.75</v>
+        <v>2805</v>
       </c>
       <c r="AB48" s="39" t="n">
         <v>5</v>
       </c>
       <c r="AC48" s="30">
-        <f>IF(B18="DIV", F18,"")</f>
+        <f>IF(B16="DIV", F16,"")</f>
         <v/>
       </c>
       <c r="AD48" s="35" t="n"/>
@@ -3582,10 +3408,10 @@
         <v>2</v>
       </c>
       <c r="E49" s="27" t="n">
-        <v>485.92</v>
+        <v>484.9</v>
       </c>
       <c r="F49" s="27" t="n">
-        <v>971.83</v>
+        <v>969.8099999999999</v>
       </c>
       <c r="G49" s="25" t="inlineStr">
         <is>
@@ -3596,58 +3422,58 @@
         <v>0.97</v>
       </c>
       <c r="I49" s="26" t="n">
-        <v>6.96</v>
+        <v>6.94</v>
       </c>
       <c r="J49" s="28">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K49" s="29">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="L49" s="30">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="M49" s="30">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
         <v/>
       </c>
       <c r="N49" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
         <v/>
       </c>
       <c r="O49" s="29">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="P49" s="30">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="Q49" s="30">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
         <v/>
       </c>
       <c r="R49" s="30">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="S49" s="32">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="T49" s="33">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="U49" s="33">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
         <v/>
       </c>
       <c r="V49" s="33">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="W49" s="33" t="n">
@@ -3657,20 +3483,20 @@
         <v>45806</v>
       </c>
       <c r="Y49" s="37">
-        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="Z49" s="38" t="n">
-        <v>-3061.53</v>
+        <v>-5659.147</v>
       </c>
       <c r="AA49" s="38" t="n">
-        <v>3105</v>
+        <v>5739.5</v>
       </c>
       <c r="AB49" s="39" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AC49" s="30">
-        <f>IF(B19="DIV", F19,"")</f>
+        <f>IF(B17="DIV", F17,"")</f>
         <v/>
       </c>
       <c r="AD49" s="35" t="n"/>
@@ -3705,10 +3531,10 @@
         <v>2</v>
       </c>
       <c r="E50" s="27" t="n">
-        <v>483.95</v>
+        <v>485.67</v>
       </c>
       <c r="F50" s="27" t="n">
-        <v>967.91</v>
+        <v>971.33</v>
       </c>
       <c r="G50" s="25" t="inlineStr">
         <is>
@@ -3719,58 +3545,58 @@
         <v>0.97</v>
       </c>
       <c r="I50" s="26" t="n">
-        <v>6.94</v>
+        <v>6.96</v>
       </c>
       <c r="J50" s="28">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K50" s="29">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="L50" s="30">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M50" s="30">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N50" s="31">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O50" s="29">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="P50" s="30">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q50" s="30">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R50" s="30">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S50" s="32">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="T50" s="33">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="U50" s="33">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V50" s="33">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="W50" s="33" t="n">
@@ -3780,20 +3606,20 @@
         <v>45806</v>
       </c>
       <c r="Y50" s="37">
-        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="Z50" s="38" t="n">
-        <v>-1232.4014</v>
+        <v>-2893.6635</v>
       </c>
       <c r="AA50" s="38" t="n">
-        <v>1249.9</v>
+        <v>2934.75</v>
       </c>
       <c r="AB50" s="39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AC50" s="30">
-        <f>IF(B20="DIV", F20,"")</f>
+        <f>IF(B18="DIV", F18,"")</f>
         <v/>
       </c>
       <c r="AD50" s="35" t="n"/>
@@ -3828,10 +3654,10 @@
         <v>2</v>
       </c>
       <c r="E51" s="27" t="n">
-        <v>484.65</v>
+        <v>485.92</v>
       </c>
       <c r="F51" s="27" t="n">
-        <v>969.3099999999999</v>
+        <v>971.83</v>
       </c>
       <c r="G51" s="25" t="inlineStr">
         <is>
@@ -3842,58 +3668,58 @@
         <v>0.97</v>
       </c>
       <c r="I51" s="26" t="n">
-        <v>6.94</v>
+        <v>6.96</v>
       </c>
       <c r="J51" s="28">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K51" s="29">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="L51" s="30">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M51" s="30">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N51" s="31">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O51" s="29">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="P51" s="30">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q51" s="30">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R51" s="30">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S51" s="32">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="T51" s="33">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="U51" s="33">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V51" s="33">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="W51" s="33" t="n">
@@ -3903,20 +3729,20 @@
         <v>45806</v>
       </c>
       <c r="Y51" s="37">
-        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="Z51" s="38" t="n">
-        <v>-1842.2424</v>
+        <v>-3061.53</v>
       </c>
       <c r="AA51" s="38" t="n">
-        <v>1868.4</v>
+        <v>3105</v>
       </c>
       <c r="AB51" s="39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AC51" s="30">
-        <f>IF(B21="DIV", F21,"")</f>
+        <f>IF(B19="DIV", F19,"")</f>
         <v/>
       </c>
       <c r="AD51" s="35" t="n"/>
@@ -3951,10 +3777,10 @@
         <v>2</v>
       </c>
       <c r="E52" s="27" t="n">
-        <v>486.17</v>
+        <v>483.95</v>
       </c>
       <c r="F52" s="27" t="n">
-        <v>972.33</v>
+        <v>967.91</v>
       </c>
       <c r="G52" s="25" t="inlineStr">
         <is>
@@ -3965,58 +3791,58 @@
         <v>0.97</v>
       </c>
       <c r="I52" s="26" t="n">
-        <v>6.96</v>
+        <v>6.94</v>
       </c>
       <c r="J52" s="28">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K52" s="29">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="L52" s="30">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M52" s="30">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N52" s="31">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O52" s="29">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="P52" s="30">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q52" s="30">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R52" s="30">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S52" s="32">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="T52" s="33">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="U52" s="33">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V52" s="33">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="W52" s="33" t="n">
@@ -4026,20 +3852,20 @@
         <v>45806</v>
       </c>
       <c r="Y52" s="37">
-        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="Z52" s="38" t="n">
-        <v>-648.788</v>
+        <v>-1232.4014</v>
       </c>
       <c r="AA52" s="38" t="n">
-        <v>658</v>
+        <v>1249.9</v>
       </c>
       <c r="AB52" s="39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC52" s="30">
-        <f>IF(B22="DIV", F22,"")</f>
+        <f>IF(B20="DIV", F20,"")</f>
         <v/>
       </c>
       <c r="AD52" s="35" t="n"/>
@@ -4058,7 +3884,7 @@
     </row>
     <row r="53" ht="15.75" customHeight="1" s="62">
       <c r="A53" s="36" t="n">
-        <v>45705</v>
+        <v>45712</v>
       </c>
       <c r="B53" s="25" t="inlineStr">
         <is>
@@ -4071,13 +3897,13 @@
         </is>
       </c>
       <c r="D53" s="26" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E53" s="27" t="n">
-        <v>445.69</v>
+        <v>484.65</v>
       </c>
       <c r="F53" s="27" t="n">
-        <v>8913.73</v>
+        <v>969.3099999999999</v>
       </c>
       <c r="G53" s="25" t="inlineStr">
         <is>
@@ -4085,61 +3911,61 @@
         </is>
       </c>
       <c r="H53" s="26" t="n">
-        <v>8.83</v>
+        <v>0.97</v>
       </c>
       <c r="I53" s="26" t="n">
-        <v>63.9</v>
+        <v>6.94</v>
       </c>
       <c r="J53" s="28">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K53" s="29">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="L53" s="30">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="M53" s="30">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
         <v/>
       </c>
       <c r="N53" s="31">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O53" s="29">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="P53" s="30">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="Q53" s="30">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
         <v/>
       </c>
       <c r="R53" s="30">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="S53" s="32">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="T53" s="33">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="U53" s="33">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
         <v/>
       </c>
       <c r="V53" s="33">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="W53" s="33" t="n">
@@ -4149,20 +3975,20 @@
         <v>45806</v>
       </c>
       <c r="Y53" s="37">
-        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="Z53" s="38" t="n">
-        <v>-1297.4774</v>
+        <v>-1842.2424</v>
       </c>
       <c r="AA53" s="38" t="n">
-        <v>1315.9</v>
+        <v>1868.4</v>
       </c>
       <c r="AB53" s="39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC53" s="30">
-        <f>IF(B23="DIV", F23,"")</f>
+        <f>IF(B21="DIV", F21,"")</f>
         <v/>
       </c>
       <c r="AD53" s="35" t="n"/>
@@ -4181,7 +4007,7 @@
     </row>
     <row r="54" ht="15.75" customHeight="1" s="62">
       <c r="A54" s="36" t="n">
-        <v>45699</v>
+        <v>45712</v>
       </c>
       <c r="B54" s="25" t="inlineStr">
         <is>
@@ -4194,13 +4020,13 @@
         </is>
       </c>
       <c r="D54" s="26" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E54" s="27" t="n">
-        <v>509.46</v>
+        <v>486.17</v>
       </c>
       <c r="F54" s="27" t="n">
-        <v>5094.65</v>
+        <v>972.33</v>
       </c>
       <c r="G54" s="25" t="inlineStr">
         <is>
@@ -4208,61 +4034,61 @@
         </is>
       </c>
       <c r="H54" s="26" t="n">
-        <v>5.05</v>
+        <v>0.97</v>
       </c>
       <c r="I54" s="26" t="n">
-        <v>36.6</v>
+        <v>6.96</v>
       </c>
       <c r="J54" s="28">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K54" s="29">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="L54" s="30">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="M54" s="30">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
         <v/>
       </c>
       <c r="N54" s="31">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
         <v/>
       </c>
       <c r="O54" s="29">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="P54" s="30">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="Q54" s="30">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
         <v/>
       </c>
       <c r="R54" s="30">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="S54" s="32">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="T54" s="33">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="U54" s="33">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
         <v/>
       </c>
       <c r="V54" s="33">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="W54" s="33" t="n">
@@ -4272,20 +4098,20 @@
         <v>45806</v>
       </c>
       <c r="Y54" s="37">
-        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="Z54" s="38" t="n">
-        <v>-1295.604</v>
+        <v>-648.788</v>
       </c>
       <c r="AA54" s="38" t="n">
-        <v>1314</v>
+        <v>658</v>
       </c>
       <c r="AB54" s="39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC54" s="30">
-        <f>IF(B24="DIV", F24,"")</f>
+        <f>IF(B22="DIV", F22,"")</f>
         <v/>
       </c>
       <c r="AD54" s="35" t="n"/>
@@ -4304,7 +4130,7 @@
     </row>
     <row r="55" ht="15.75" customHeight="1" s="62">
       <c r="A55" s="36" t="n">
-        <v>45694</v>
+        <v>45705</v>
       </c>
       <c r="B55" s="25" t="inlineStr">
         <is>
@@ -4320,10 +4146,10 @@
         <v>20</v>
       </c>
       <c r="E55" s="27" t="n">
-        <v>529.3200000000001</v>
+        <v>445.69</v>
       </c>
       <c r="F55" s="27" t="n">
-        <v>10586.46</v>
+        <v>8913.73</v>
       </c>
       <c r="G55" s="25" t="inlineStr">
         <is>
@@ -4331,61 +4157,61 @@
         </is>
       </c>
       <c r="H55" s="26" t="n">
-        <v>10.47</v>
+        <v>8.83</v>
       </c>
       <c r="I55" s="26" t="n">
-        <v>75.98999999999999</v>
+        <v>63.9</v>
       </c>
       <c r="J55" s="28">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K55" s="29">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="L55" s="30">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="M55" s="30">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
         <v/>
       </c>
       <c r="N55" s="31">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
         <v/>
       </c>
       <c r="O55" s="29">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="P55" s="30">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="Q55" s="30">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
         <v/>
       </c>
       <c r="R55" s="30">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="S55" s="32">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="T55" s="33">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="U55" s="33">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
         <v/>
       </c>
       <c r="V55" s="33">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="W55" s="33" t="n">
@@ -4395,20 +4221,20 @@
         <v>45806</v>
       </c>
       <c r="Y55" s="37">
-        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="Z55" s="38" t="n">
-        <v>-5624.637</v>
+        <v>-1297.4774</v>
       </c>
       <c r="AA55" s="38" t="n">
-        <v>5704.5</v>
+        <v>1315.9</v>
       </c>
       <c r="AB55" s="39" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AC55" s="30">
-        <f>IF(B25="DIV", F25,"")</f>
+        <f>IF(B23="DIV", F23,"")</f>
         <v/>
       </c>
       <c r="AD55" s="35" t="n"/>
@@ -4426,36 +4252,250 @@
       <c r="AP55" s="40" t="n"/>
     </row>
     <row r="56" ht="15.75" customHeight="1" s="62">
-      <c r="E56" s="41" t="n"/>
-      <c r="F56" s="41" t="n"/>
-      <c r="G56" s="42" t="n"/>
-      <c r="J56" s="41" t="n"/>
-      <c r="K56" s="41" t="n"/>
-      <c r="L56" s="41" t="n"/>
-      <c r="M56" s="1" t="n"/>
-      <c r="W56" s="41" t="n"/>
-      <c r="X56" s="41" t="n"/>
-      <c r="Y56" s="41" t="n"/>
-      <c r="Z56" s="41" t="n"/>
-      <c r="AA56" s="41" t="n"/>
-      <c r="AB56" s="41" t="n"/>
-      <c r="AC56" s="41" t="n"/>
+      <c r="A56" s="36" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B56" s="25" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C56" s="25" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D56" s="26" t="n">
+        <v>10</v>
+      </c>
+      <c r="E56" s="27" t="n">
+        <v>509.46</v>
+      </c>
+      <c r="F56" s="27" t="n">
+        <v>5094.65</v>
+      </c>
+      <c r="G56" s="25" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H56" s="26" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="I56" s="26" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="J56" s="28">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K56" s="29">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/SUM(F24:I24), "")</f>
+        <v/>
+      </c>
+      <c r="L56" s="30">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <v/>
+      </c>
+      <c r="M56" s="30">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <v/>
+      </c>
+      <c r="N56" s="31">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <v/>
+      </c>
+      <c r="O56" s="29">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/SUM(F24:I24), "")</f>
+        <v/>
+      </c>
+      <c r="P56" s="30">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <v/>
+      </c>
+      <c r="Q56" s="30">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <v/>
+      </c>
+      <c r="R56" s="30">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <v/>
+      </c>
+      <c r="S56" s="32">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/SUM(F24:I24), "")</f>
+        <v/>
+      </c>
+      <c r="T56" s="33">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <v/>
+      </c>
+      <c r="U56" s="33">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <v/>
+      </c>
+      <c r="V56" s="33">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <v/>
+      </c>
+      <c r="W56" s="33" t="n">
+        <v>703.9400000000001</v>
+      </c>
+      <c r="X56" s="36" t="n">
+        <v>45806</v>
+      </c>
+      <c r="Y56" s="37">
+        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/SUM(F24:I24), "")</f>
+        <v/>
+      </c>
+      <c r="Z56" s="38" t="n">
+        <v>-1295.604</v>
+      </c>
+      <c r="AA56" s="38" t="n">
+        <v>1314</v>
+      </c>
+      <c r="AB56" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC56" s="30">
+        <f>IF(B24="DIV", F24,"")</f>
+        <v/>
+      </c>
+      <c r="AD56" s="35" t="n"/>
+      <c r="AE56" s="40" t="n"/>
+      <c r="AF56" s="40" t="n"/>
+      <c r="AG56" s="40" t="n"/>
+      <c r="AH56" s="40" t="n"/>
+      <c r="AI56" s="40" t="n"/>
+      <c r="AJ56" s="40" t="n"/>
+      <c r="AK56" s="40" t="n"/>
+      <c r="AL56" s="40" t="n"/>
+      <c r="AM56" s="40" t="n"/>
+      <c r="AN56" s="40" t="n"/>
+      <c r="AO56" s="40" t="n"/>
+      <c r="AP56" s="40" t="n"/>
     </row>
     <row r="57" ht="15.75" customHeight="1" s="62">
-      <c r="E57" s="41" t="n"/>
-      <c r="F57" s="41" t="n"/>
-      <c r="G57" s="42" t="n"/>
-      <c r="J57" s="41" t="n"/>
-      <c r="K57" s="41" t="n"/>
-      <c r="L57" s="41" t="n"/>
-      <c r="M57" s="1" t="n"/>
-      <c r="W57" s="41" t="n"/>
-      <c r="X57" s="41" t="n"/>
-      <c r="Y57" s="41" t="n"/>
-      <c r="Z57" s="41" t="n"/>
-      <c r="AA57" s="41" t="n"/>
-      <c r="AB57" s="41" t="n"/>
-      <c r="AC57" s="41" t="n"/>
+      <c r="A57" s="36" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B57" s="25" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C57" s="25" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D57" s="26" t="n">
+        <v>20</v>
+      </c>
+      <c r="E57" s="27" t="n">
+        <v>529.3200000000001</v>
+      </c>
+      <c r="F57" s="27" t="n">
+        <v>10586.46</v>
+      </c>
+      <c r="G57" s="25" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H57" s="26" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="I57" s="26" t="n">
+        <v>75.98999999999999</v>
+      </c>
+      <c r="J57" s="28">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K57" s="29">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/SUM(F25:I25), "")</f>
+        <v/>
+      </c>
+      <c r="L57" s="30">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <v/>
+      </c>
+      <c r="M57" s="30">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
+        <v/>
+      </c>
+      <c r="N57" s="31">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
+        <v/>
+      </c>
+      <c r="O57" s="29">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/SUM(F25:I25), "")</f>
+        <v/>
+      </c>
+      <c r="P57" s="30">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <v/>
+      </c>
+      <c r="Q57" s="30">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
+        <v/>
+      </c>
+      <c r="R57" s="30">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
+        <v/>
+      </c>
+      <c r="S57" s="32">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/SUM(F25:I25), "")</f>
+        <v/>
+      </c>
+      <c r="T57" s="33">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <v/>
+      </c>
+      <c r="U57" s="33">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
+        <v/>
+      </c>
+      <c r="V57" s="33">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
+        <v/>
+      </c>
+      <c r="W57" s="33" t="n">
+        <v>703.9400000000001</v>
+      </c>
+      <c r="X57" s="36" t="n">
+        <v>45806</v>
+      </c>
+      <c r="Y57" s="37">
+        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/SUM(F25:I25), "")</f>
+        <v/>
+      </c>
+      <c r="Z57" s="38" t="n">
+        <v>-5624.637</v>
+      </c>
+      <c r="AA57" s="38" t="n">
+        <v>5704.5</v>
+      </c>
+      <c r="AB57" s="39" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC57" s="30">
+        <f>IF(B25="DIV", F25,"")</f>
+        <v/>
+      </c>
+      <c r="AD57" s="35" t="n"/>
+      <c r="AE57" s="40" t="n"/>
+      <c r="AF57" s="40" t="n"/>
+      <c r="AG57" s="40" t="n"/>
+      <c r="AH57" s="40" t="n"/>
+      <c r="AI57" s="40" t="n"/>
+      <c r="AJ57" s="40" t="n"/>
+      <c r="AK57" s="40" t="n"/>
+      <c r="AL57" s="40" t="n"/>
+      <c r="AM57" s="40" t="n"/>
+      <c r="AN57" s="40" t="n"/>
+      <c r="AO57" s="40" t="n"/>
+      <c r="AP57" s="40" t="n"/>
     </row>
     <row r="58" ht="15.75" customHeight="1" s="62">
       <c r="E58" s="41" t="n"/>
@@ -19408,6 +19448,7 @@
       <c r="J992" s="41" t="n"/>
       <c r="K992" s="41" t="n"/>
       <c r="L992" s="41" t="n"/>
+      <c r="M992" s="1" t="n"/>
       <c r="W992" s="41" t="n"/>
       <c r="X992" s="41" t="n"/>
       <c r="Y992" s="41" t="n"/>
@@ -19423,6 +19464,7 @@
       <c r="J993" s="41" t="n"/>
       <c r="K993" s="41" t="n"/>
       <c r="L993" s="41" t="n"/>
+      <c r="M993" s="1" t="n"/>
       <c r="W993" s="41" t="n"/>
       <c r="X993" s="41" t="n"/>
       <c r="Y993" s="41" t="n"/>
@@ -19655,6 +19697,36 @@
       <c r="AA1008" s="41" t="n"/>
       <c r="AB1008" s="41" t="n"/>
       <c r="AC1008" s="41" t="n"/>
+    </row>
+    <row r="1009">
+      <c r="E1009" s="41" t="n"/>
+      <c r="F1009" s="41" t="n"/>
+      <c r="G1009" s="42" t="n"/>
+      <c r="J1009" s="41" t="n"/>
+      <c r="K1009" s="41" t="n"/>
+      <c r="L1009" s="41" t="n"/>
+      <c r="W1009" s="41" t="n"/>
+      <c r="X1009" s="41" t="n"/>
+      <c r="Y1009" s="41" t="n"/>
+      <c r="Z1009" s="41" t="n"/>
+      <c r="AA1009" s="41" t="n"/>
+      <c r="AB1009" s="41" t="n"/>
+      <c r="AC1009" s="41" t="n"/>
+    </row>
+    <row r="1010">
+      <c r="E1010" s="41" t="n"/>
+      <c r="F1010" s="41" t="n"/>
+      <c r="G1010" s="42" t="n"/>
+      <c r="J1010" s="41" t="n"/>
+      <c r="K1010" s="41" t="n"/>
+      <c r="L1010" s="41" t="n"/>
+      <c r="W1010" s="41" t="n"/>
+      <c r="X1010" s="41" t="n"/>
+      <c r="Y1010" s="41" t="n"/>
+      <c r="Z1010" s="41" t="n"/>
+      <c r="AA1010" s="41" t="n"/>
+      <c r="AB1010" s="41" t="n"/>
+      <c r="AC1010" s="41" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:AO53"/>

--- a/dumps/Stocks/High Energy Batteries (India) Ltd.xlsx
+++ b/dumps/Stocks/High Energy Batteries (India) Ltd.xlsx
@@ -712,7 +712,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1010"/>
+  <dimension ref="A1:AP1023"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="177" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G19" activePane="bottomRight" state="frozen"/>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1" s="62">
       <c r="A5" s="73" t="n">
-        <v>45982</v>
+        <v>46063</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1075,21 +1075,21 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>621</v>
+        <v>589.75</v>
       </c>
       <c r="F5" t="n">
-        <v>3120.55</v>
+        <v>5927</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252608495287</t>
+          <t>CN#252611730667</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>15.55</v>
+        <v>29.5</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1" s="62">
       <c r="A6" s="73" t="n">
-        <v>45979</v>
+        <v>46050</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1111,21 +1111,21 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>623.66</v>
+        <v>530</v>
       </c>
       <c r="F6" t="n">
-        <v>3133.87</v>
+        <v>5326.5</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CN#252608322011</t>
+          <t>CN#252611091662</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>15.57</v>
+        <v>26.5</v>
       </c>
       <c r="J6">
         <f>Index!$C$2</f>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="7" ht="15.75" customHeight="1" s="62">
       <c r="A7" s="73" t="n">
-        <v>45978</v>
+        <v>46049</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1150,18 +1150,18 @@
         <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>657.58</v>
+        <v>534.7</v>
       </c>
       <c r="F7" t="n">
-        <v>3304.35</v>
+        <v>2686.85</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>CN#252608260909</t>
+          <t>CN#252611030591</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>16.45</v>
+        <v>13.35</v>
       </c>
       <c r="J7">
         <f>Index!$C$2</f>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1" s="62">
       <c r="A8" s="73" t="n">
-        <v>45967</v>
+        <v>46042</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1186,18 +1186,18 @@
         <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>570.45</v>
+        <v>541</v>
       </c>
       <c r="F8" t="n">
-        <v>5733</v>
+        <v>5437.1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>CN#252607785263</t>
+          <t>CN#252610779339</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>28.5</v>
+        <v>27.1</v>
       </c>
       <c r="J8">
         <f>Index!$C$2</f>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1" s="62">
       <c r="A9" s="73" t="n">
-        <v>45961</v>
+        <v>46030</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1219,21 +1219,21 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>596.15</v>
+        <v>563.85</v>
       </c>
       <c r="F9" t="n">
-        <v>2995.65</v>
+        <v>5666.7</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>CN#252607606298</t>
+          <t>CN#252610347614</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>14.9</v>
+        <v>28.2</v>
       </c>
       <c r="J9">
         <f>Index!$C$2</f>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="10" ht="15.75" customHeight="1" s="62">
       <c r="A10" s="73" t="n">
-        <v>45957</v>
+        <v>46017</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1258,18 +1258,18 @@
         <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>607.4</v>
+        <v>545.525</v>
       </c>
       <c r="F10" t="n">
-        <v>6104.4</v>
+        <v>5482.55</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>CN#252607382790</t>
+          <t>CN#252609810990</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>30.4</v>
+        <v>27.3</v>
       </c>
       <c r="J10">
         <f>Index!$C$2</f>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="11" ht="15.75" customHeight="1" s="62">
       <c r="A11" s="73" t="n">
-        <v>46063</v>
+        <v>46015</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1294,21 +1294,18 @@
         <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>589.75</v>
+        <v>545.25</v>
       </c>
       <c r="F11" t="n">
-        <v>5946.05</v>
+        <v>5479.8</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>CN#252611730667</t>
+          <t>CN#252609755521</t>
         </is>
       </c>
-      <c r="H11" t="n">
-        <v>5.89</v>
-      </c>
       <c r="I11" t="n">
-        <v>42.66</v>
+        <v>27.3</v>
       </c>
       <c r="J11">
         <f>Index!$C$2</f>
@@ -1316,8 +1313,8 @@
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1" s="62">
-      <c r="A12" s="60" t="n">
-        <v>46050</v>
+      <c r="A12" s="73" t="n">
+        <v>46014</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1333,26 +1330,27 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>530</v>
+        <v>548.9</v>
       </c>
       <c r="F12" t="n">
-        <v>5343.69</v>
+        <v>5516.4</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252609701573</t>
         </is>
       </c>
-      <c r="H12" t="n">
-        <v>5.33</v>
-      </c>
       <c r="I12" t="n">
-        <v>38.36</v>
+        <v>27.4</v>
+      </c>
+      <c r="J12">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" s="62">
-      <c r="A13" s="60" t="n">
-        <v>46049</v>
+      <c r="A13" s="73" t="n">
+        <v>46007</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1365,29 +1363,30 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>534.7</v>
+        <v>541.3</v>
       </c>
       <c r="F13" t="n">
-        <v>2695.48</v>
+        <v>5440.1</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252609425003</t>
         </is>
       </c>
-      <c r="H13" t="n">
-        <v>2.67</v>
-      </c>
       <c r="I13" t="n">
-        <v>19.31</v>
+        <v>27.1</v>
+      </c>
+      <c r="J13">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1" s="62">
-      <c r="A14" s="60" t="n">
-        <v>46042</v>
+      <c r="A14" s="73" t="n">
+        <v>46002</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1400,29 +1399,30 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>541</v>
+        <v>547.9</v>
       </c>
       <c r="F14" t="n">
-        <v>5454.64</v>
+        <v>2753.2</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252609267726</t>
         </is>
       </c>
-      <c r="H14" t="n">
-        <v>5.42</v>
-      </c>
       <c r="I14" t="n">
-        <v>39.22</v>
+        <v>13.7</v>
+      </c>
+      <c r="J14">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1" s="62">
-      <c r="A15" s="60" t="n">
-        <v>46030</v>
+      <c r="A15" s="73" t="n">
+        <v>46000</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1438,26 +1438,27 @@
         <v>10</v>
       </c>
       <c r="E15" t="n">
-        <v>563.85</v>
+        <v>560.975</v>
       </c>
       <c r="F15" t="n">
-        <v>5684.91</v>
+        <v>5637.8</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252609157599</t>
         </is>
       </c>
-      <c r="H15" t="n">
-        <v>5.62</v>
-      </c>
       <c r="I15" t="n">
-        <v>40.79</v>
+        <v>28.05</v>
+      </c>
+      <c r="J15">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1" s="62">
-      <c r="A16" s="60" t="n">
-        <v>46017</v>
+      <c r="A16" s="73" t="n">
+        <v>45996</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1470,29 +1471,30 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>545.55</v>
+        <v>573.95</v>
       </c>
       <c r="F16" t="n">
-        <v>2750.24</v>
+        <v>5768.2</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252609039305</t>
         </is>
       </c>
-      <c r="H16" t="n">
-        <v>2.74</v>
-      </c>
       <c r="I16" t="n">
-        <v>19.75</v>
+        <v>28.7</v>
+      </c>
+      <c r="J16">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" s="62">
-      <c r="A17" s="60" t="n">
-        <v>46017</v>
+      <c r="A17" s="73" t="n">
+        <v>45989</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1508,26 +1510,27 @@
         <v>5</v>
       </c>
       <c r="E17" t="n">
-        <v>545.5</v>
+        <v>586.95</v>
       </c>
       <c r="F17" t="n">
-        <v>2749.99</v>
+        <v>2949.4</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252608755594</t>
         </is>
       </c>
-      <c r="H17" t="n">
-        <v>2.74</v>
-      </c>
       <c r="I17" t="n">
-        <v>19.75</v>
+        <v>14.65</v>
+      </c>
+      <c r="J17">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1" s="62">
-      <c r="A18" s="60" t="n">
-        <v>46015</v>
+      <c r="A18" s="73" t="n">
+        <v>45982</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1540,29 +1543,30 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E18" t="n">
-        <v>545.25</v>
+        <v>621</v>
       </c>
       <c r="F18" t="n">
-        <v>5497.42</v>
+        <v>3120.55</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252608495287</t>
         </is>
       </c>
-      <c r="H18" t="n">
-        <v>5.42</v>
-      </c>
       <c r="I18" t="n">
-        <v>39.5</v>
+        <v>15.55</v>
+      </c>
+      <c r="J18">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1" s="62">
-      <c r="A19" s="60" t="n">
-        <v>46014</v>
+      <c r="A19" s="73" t="n">
+        <v>45979</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1575,29 +1579,30 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E19" t="n">
-        <v>548.9</v>
+        <v>623.66</v>
       </c>
       <c r="F19" t="n">
-        <v>5534.11</v>
+        <v>3133.87</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252608322011</t>
         </is>
       </c>
-      <c r="H19" t="n">
-        <v>5.47</v>
-      </c>
       <c r="I19" t="n">
-        <v>39.64</v>
+        <v>15.57</v>
+      </c>
+      <c r="J19">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1" s="62">
-      <c r="A20" s="60" t="n">
-        <v>46007</v>
+      <c r="A20" s="73" t="n">
+        <v>45978</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1610,29 +1615,30 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E20" t="n">
-        <v>541.3</v>
+        <v>657.58</v>
       </c>
       <c r="F20" t="n">
-        <v>5457.59</v>
+        <v>3304.35</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252608260909</t>
         </is>
       </c>
-      <c r="H20" t="n">
-        <v>5.39</v>
-      </c>
       <c r="I20" t="n">
-        <v>39.2</v>
+        <v>16.45</v>
+      </c>
+      <c r="J20">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="62">
-      <c r="A21" s="60" t="n">
-        <v>46002</v>
+      <c r="A21" s="73" t="n">
+        <v>45967</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1645,29 +1651,30 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>547.9</v>
+        <v>570.45</v>
       </c>
       <c r="F21" t="n">
-        <v>2762.01</v>
+        <v>5733</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252607785263</t>
         </is>
       </c>
-      <c r="H21" t="n">
-        <v>2.75</v>
-      </c>
       <c r="I21" t="n">
-        <v>19.76</v>
+        <v>28.5</v>
+      </c>
+      <c r="J21">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1" s="62">
-      <c r="A22" s="60" t="n">
-        <v>46000</v>
+      <c r="A22" s="73" t="n">
+        <v>45961</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1683,26 +1690,27 @@
         <v>5</v>
       </c>
       <c r="E22" t="n">
-        <v>560.95</v>
+        <v>596.15</v>
       </c>
       <c r="F22" t="n">
-        <v>2827.8</v>
+        <v>2995.65</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252607606298</t>
         </is>
       </c>
-      <c r="H22" t="n">
-        <v>2.8</v>
-      </c>
       <c r="I22" t="n">
-        <v>20.25</v>
+        <v>14.9</v>
+      </c>
+      <c r="J22">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1" s="62">
-      <c r="A23" s="60" t="n">
-        <v>46000</v>
+      <c r="A23" s="73" t="n">
+        <v>45957</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1715,29 +1723,30 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>561</v>
+        <v>607.4</v>
       </c>
       <c r="F23" t="n">
-        <v>2828.11</v>
+        <v>6104.4</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252607382790</t>
         </is>
       </c>
-      <c r="H23" t="n">
-        <v>2.8</v>
-      </c>
       <c r="I23" t="n">
-        <v>20.31</v>
+        <v>30.4</v>
+      </c>
+      <c r="J23">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1" s="62">
-      <c r="A24" s="60" t="n">
-        <v>45996</v>
+      <c r="A24" s="73" t="n">
+        <v>46063</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1753,26 +1762,30 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>573.95</v>
+        <v>589.75</v>
       </c>
       <c r="F24" t="n">
-        <v>5786.76</v>
+        <v>5946.05</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611730667</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>5.72</v>
+        <v>5.89</v>
       </c>
       <c r="I24" t="n">
-        <v>41.54</v>
+        <v>42.66</v>
+      </c>
+      <c r="J24">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1" s="62">
       <c r="A25" s="60" t="n">
-        <v>45989</v>
+        <v>46050</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1785,13 +1798,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>586.95</v>
+        <v>530</v>
       </c>
       <c r="F25" t="n">
-        <v>2958.88</v>
+        <v>5343.69</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1799,15 +1812,15 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>2.93</v>
+        <v>5.33</v>
       </c>
       <c r="I25" t="n">
-        <v>21.2</v>
+        <v>38.36</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1" s="62">
       <c r="A26" s="60" t="n">
-        <v>45982</v>
+        <v>46049</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1823,10 +1836,10 @@
         <v>5</v>
       </c>
       <c r="E26" t="n">
-        <v>621</v>
+        <v>534.7</v>
       </c>
       <c r="F26" t="n">
-        <v>3130.59</v>
+        <v>2695.48</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1834,15 +1847,15 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>3.11</v>
+        <v>2.67</v>
       </c>
       <c r="I26" t="n">
-        <v>22.48</v>
+        <v>19.31</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1" s="62">
       <c r="A27" s="60" t="n">
-        <v>45979</v>
+        <v>46042</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1855,13 +1868,13 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E27" t="n">
-        <v>624.95</v>
+        <v>541</v>
       </c>
       <c r="F27" t="n">
-        <v>1260.17</v>
+        <v>5454.64</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1869,15 +1882,15 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>1.25</v>
+        <v>5.42</v>
       </c>
       <c r="I27" t="n">
-        <v>9.02</v>
+        <v>39.22</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1" s="62">
       <c r="A28" s="60" t="n">
-        <v>45979</v>
+        <v>46030</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1890,13 +1903,13 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>622.8</v>
+        <v>563.85</v>
       </c>
       <c r="F28" t="n">
-        <v>1883.78</v>
+        <v>5684.91</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1904,15 +1917,15 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1.88</v>
+        <v>5.62</v>
       </c>
       <c r="I28" t="n">
-        <v>13.5</v>
+        <v>40.79</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1" s="62">
       <c r="A29" s="60" t="n">
-        <v>45978</v>
+        <v>46017</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1925,13 +1938,13 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E29" t="n">
-        <v>658</v>
+        <v>545.55</v>
       </c>
       <c r="F29" t="n">
-        <v>663.4299999999999</v>
+        <v>2750.24</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1939,15 +1952,15 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.66</v>
+        <v>2.74</v>
       </c>
       <c r="I29" t="n">
-        <v>4.77</v>
+        <v>19.75</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1" s="62">
       <c r="A30" s="60" t="n">
-        <v>45978</v>
+        <v>46017</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1960,13 +1973,13 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E30" t="n">
-        <v>657.95</v>
+        <v>545.5</v>
       </c>
       <c r="F30" t="n">
-        <v>1326.73</v>
+        <v>2749.99</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1974,15 +1987,15 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>1.32</v>
+        <v>2.74</v>
       </c>
       <c r="I30" t="n">
-        <v>9.51</v>
+        <v>19.75</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1" s="62">
       <c r="A31" s="60" t="n">
-        <v>45978</v>
+        <v>46015</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1995,13 +2008,13 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>657</v>
+        <v>545.25</v>
       </c>
       <c r="F31" t="n">
-        <v>1324.82</v>
+        <v>5497.42</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2009,15 +2022,15 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1.32</v>
+        <v>5.42</v>
       </c>
       <c r="I31" t="n">
-        <v>9.5</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1" s="62">
       <c r="A32" s="60" t="n">
-        <v>45967</v>
+        <v>46014</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2033,10 +2046,10 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>570.45</v>
+        <v>548.9</v>
       </c>
       <c r="F32" t="n">
-        <v>5751.49</v>
+        <v>5534.11</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2044,15 +2057,15 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>5.74</v>
+        <v>5.47</v>
       </c>
       <c r="I32" t="n">
-        <v>41.25</v>
+        <v>39.64</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1" s="62">
       <c r="A33" s="60" t="n">
-        <v>45961</v>
+        <v>46007</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2065,13 +2078,13 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>596.15</v>
+        <v>541.3</v>
       </c>
       <c r="F33" t="n">
-        <v>3005.27</v>
+        <v>5457.59</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2079,15 +2092,15 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>2.97</v>
+        <v>5.39</v>
       </c>
       <c r="I33" t="n">
-        <v>21.55</v>
+        <v>39.2</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1" s="62">
       <c r="A34" s="60" t="n">
-        <v>45957</v>
+        <v>46002</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2100,13 +2113,13 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E34" t="n">
-        <v>607.4</v>
+        <v>547.9</v>
       </c>
       <c r="F34" t="n">
-        <v>6124.02</v>
+        <v>2762.01</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2114,15 +2127,15 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>6.08</v>
+        <v>2.75</v>
       </c>
       <c r="I34" t="n">
-        <v>43.94</v>
+        <v>19.76</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1" s="62">
       <c r="A35" s="60" t="n">
-        <v>45954</v>
+        <v>46000</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2138,10 +2151,10 @@
         <v>5</v>
       </c>
       <c r="E35" t="n">
-        <v>647.9</v>
+        <v>560.95</v>
       </c>
       <c r="F35" t="n">
-        <v>3266.17</v>
+        <v>2827.8</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2149,15 +2162,15 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>3.24</v>
+        <v>2.8</v>
       </c>
       <c r="I35" t="n">
-        <v>23.43</v>
+        <v>20.25</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1" s="62">
       <c r="A36" s="60" t="n">
-        <v>45953</v>
+        <v>46000</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2170,13 +2183,13 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E36" t="n">
-        <v>651.4</v>
+        <v>561</v>
       </c>
       <c r="F36" t="n">
-        <v>6567.59</v>
+        <v>2828.11</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2184,15 +2197,15 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>6.49</v>
+        <v>2.8</v>
       </c>
       <c r="I36" t="n">
-        <v>47.1</v>
+        <v>20.31</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1" s="62">
       <c r="A37" s="60" t="n">
-        <v>45950</v>
+        <v>45996</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2208,10 +2221,10 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>640.95</v>
+        <v>573.95</v>
       </c>
       <c r="F37" t="n">
-        <v>6462.21</v>
+        <v>5786.76</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2219,15 +2232,15 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>6.4</v>
+        <v>5.72</v>
       </c>
       <c r="I37" t="n">
-        <v>46.31</v>
+        <v>41.54</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1" s="62">
       <c r="A38" s="60" t="n">
-        <v>45947</v>
+        <v>45989</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2240,13 +2253,13 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E38" t="n">
-        <v>610.5</v>
+        <v>586.95</v>
       </c>
       <c r="F38" t="n">
-        <v>6155.25</v>
+        <v>2958.88</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2254,1514 +2267,470 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>6.12</v>
+        <v>2.93</v>
       </c>
       <c r="I38" t="n">
-        <v>44.13</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1" s="62">
-      <c r="A39" s="36" t="n">
-        <v>45807</v>
-      </c>
-      <c r="B39" s="25" t="inlineStr">
+      <c r="A39" s="60" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>BSE</t>
         </is>
       </c>
-      <c r="C39" s="25" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
-      <c r="D39" s="26" t="n">
-        <v>50</v>
-      </c>
-      <c r="E39" s="27" t="n">
-        <v>714.28</v>
-      </c>
-      <c r="F39" s="27">
-        <f>D7*E7</f>
-        <v/>
-      </c>
-      <c r="G39" s="25" t="inlineStr">
+      <c r="D39" t="n">
+        <v>5</v>
+      </c>
+      <c r="E39" t="n">
+        <v>621</v>
+      </c>
+      <c r="F39" t="n">
+        <v>3130.59</v>
+      </c>
+      <c r="G39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H39" s="26" t="n"/>
-      <c r="I39" s="26" t="n"/>
-      <c r="J39" s="28">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K39" s="29">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/SUM(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="L39" s="30">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v/>
-      </c>
-      <c r="M39" s="30">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
-        <v/>
-      </c>
-      <c r="N39" s="31">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
-        <v/>
-      </c>
-      <c r="O39" s="29">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/SUM(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="P39" s="30">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v/>
-      </c>
-      <c r="Q39" s="30">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
-        <v/>
-      </c>
-      <c r="R39" s="30">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
-        <v/>
-      </c>
-      <c r="S39" s="32">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/SUM(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="T39" s="33">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v/>
-      </c>
-      <c r="U39" s="33">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
-        <v/>
-      </c>
-      <c r="V39" s="33">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
-        <v/>
-      </c>
-      <c r="W39" s="33" t="n"/>
-      <c r="X39" s="33" t="n"/>
-      <c r="Y39" s="32">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/SUM(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="Z39" s="33" t="n"/>
-      <c r="AA39" s="33" t="n"/>
-      <c r="AB39" s="34" t="n"/>
-      <c r="AC39" s="30">
-        <f>IF(B7="DIV", F7,"")</f>
-        <v/>
-      </c>
-      <c r="AD39" s="35" t="n"/>
+      <c r="H39" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="I39" t="n">
+        <v>22.48</v>
+      </c>
     </row>
     <row r="40" ht="15.75" customHeight="1" s="62">
-      <c r="A40" s="36" t="n">
-        <v>45806</v>
-      </c>
-      <c r="B40" s="25" t="inlineStr">
+      <c r="A40" s="60" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>BSE</t>
         </is>
       </c>
-      <c r="C40" s="25" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
-      <c r="D40" s="26" t="n">
-        <v>6</v>
-      </c>
-      <c r="E40" s="27" t="n">
-        <v>699.39</v>
-      </c>
-      <c r="F40" s="27">
-        <f>D8*E8</f>
-        <v/>
-      </c>
-      <c r="G40" s="25" t="inlineStr">
+      <c r="D40" t="n">
+        <v>2</v>
+      </c>
+      <c r="E40" t="n">
+        <v>624.95</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1260.17</v>
+      </c>
+      <c r="G40" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H40" s="26" t="n"/>
-      <c r="I40" s="26" t="n"/>
-      <c r="J40" s="28">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K40" s="29">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/SUM(F8:I8), "")</f>
-        <v/>
-      </c>
-      <c r="L40" s="30">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
-        <v/>
-      </c>
-      <c r="M40" s="30">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
-        <v/>
-      </c>
-      <c r="N40" s="31">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
-        <v/>
-      </c>
-      <c r="O40" s="29">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/SUM(F8:I8), "")</f>
-        <v/>
-      </c>
-      <c r="P40" s="30">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
-        <v/>
-      </c>
-      <c r="Q40" s="30">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
-        <v/>
-      </c>
-      <c r="R40" s="30">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
-        <v/>
-      </c>
-      <c r="S40" s="32">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/SUM(F8:I8), "")</f>
-        <v/>
-      </c>
-      <c r="T40" s="33">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
-        <v/>
-      </c>
-      <c r="U40" s="33">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
-        <v/>
-      </c>
-      <c r="V40" s="33">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
-        <v/>
-      </c>
-      <c r="W40" s="33" t="n"/>
-      <c r="X40" s="33" t="n"/>
-      <c r="Y40" s="32">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/SUM(F8:I8), "")</f>
-        <v/>
-      </c>
-      <c r="Z40" s="33" t="n"/>
-      <c r="AA40" s="33" t="n"/>
-      <c r="AB40" s="34" t="n"/>
-      <c r="AC40" s="30">
-        <f>IF(B8="DIV", F8,"")</f>
-        <v/>
-      </c>
-      <c r="AD40" s="35" t="n"/>
+      <c r="H40" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I40" t="n">
+        <v>9.02</v>
+      </c>
     </row>
     <row r="41" ht="15.75" customHeight="1" s="62">
-      <c r="A41" s="36" t="n">
-        <v>45806</v>
-      </c>
-      <c r="B41" s="25" t="inlineStr">
+      <c r="A41" s="60" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>BSE</t>
         </is>
       </c>
-      <c r="C41" s="25" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
-      <c r="D41" s="26" t="n">
-        <v>19</v>
-      </c>
-      <c r="E41" s="27" t="n">
-        <v>702.78</v>
-      </c>
-      <c r="F41" s="27">
-        <f>D9*E9</f>
-        <v/>
-      </c>
-      <c r="G41" s="25" t="inlineStr">
+      <c r="D41" t="n">
+        <v>3</v>
+      </c>
+      <c r="E41" t="n">
+        <v>622.8</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1883.78</v>
+      </c>
+      <c r="G41" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H41" s="26" t="n"/>
-      <c r="I41" s="26" t="n"/>
-      <c r="J41" s="28">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K41" s="29">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/SUM(F9:I9), "")</f>
-        <v/>
-      </c>
-      <c r="L41" s="30">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
-        <v/>
-      </c>
-      <c r="M41" s="30">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
-        <v/>
-      </c>
-      <c r="N41" s="31">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
-        <v/>
-      </c>
-      <c r="O41" s="29">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/SUM(F9:I9), "")</f>
-        <v/>
-      </c>
-      <c r="P41" s="30">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
-        <v/>
-      </c>
-      <c r="Q41" s="30">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
-        <v/>
-      </c>
-      <c r="R41" s="30">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
-        <v/>
-      </c>
-      <c r="S41" s="32">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/SUM(F9:I9), "")</f>
-        <v/>
-      </c>
-      <c r="T41" s="33">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
-        <v/>
-      </c>
-      <c r="U41" s="33">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
-        <v/>
-      </c>
-      <c r="V41" s="33">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
-        <v/>
-      </c>
-      <c r="W41" s="33" t="n"/>
-      <c r="X41" s="33" t="n"/>
-      <c r="Y41" s="32">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/SUM(F9:I9), "")</f>
-        <v/>
-      </c>
-      <c r="Z41" s="33" t="n"/>
-      <c r="AA41" s="33" t="n"/>
-      <c r="AB41" s="34" t="n"/>
-      <c r="AC41" s="30">
-        <f>IF(B9="DIV", F9,"")</f>
-        <v/>
-      </c>
-      <c r="AD41" s="35" t="n"/>
+      <c r="H41" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="I41" t="n">
+        <v>13.5</v>
+      </c>
     </row>
     <row r="42" ht="15.75" customHeight="1" s="62">
-      <c r="A42" s="36" t="n">
-        <v>45806</v>
-      </c>
-      <c r="B42" s="25" t="inlineStr">
+      <c r="A42" s="60" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>BSE</t>
         </is>
       </c>
-      <c r="C42" s="25" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
-      <c r="D42" s="26" t="n">
-        <v>25</v>
-      </c>
-      <c r="E42" s="27" t="n">
-        <v>699.29</v>
-      </c>
-      <c r="F42" s="27">
-        <f>D10*E10</f>
-        <v/>
-      </c>
-      <c r="G42" s="25" t="inlineStr">
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>658</v>
+      </c>
+      <c r="F42" t="n">
+        <v>663.4299999999999</v>
+      </c>
+      <c r="G42" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H42" s="26" t="n"/>
-      <c r="I42" s="26" t="n"/>
-      <c r="J42" s="28">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K42" s="29">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/SUM(F10:I10), "")</f>
-        <v/>
-      </c>
-      <c r="L42" s="30">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
-        <v/>
-      </c>
-      <c r="M42" s="30">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
-        <v/>
-      </c>
-      <c r="N42" s="31">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
-        <v/>
-      </c>
-      <c r="O42" s="29">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/SUM(F10:I10), "")</f>
-        <v/>
-      </c>
-      <c r="P42" s="30">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
-        <v/>
-      </c>
-      <c r="Q42" s="30">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
-        <v/>
-      </c>
-      <c r="R42" s="30">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
-        <v/>
-      </c>
-      <c r="S42" s="32">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/SUM(F10:I10), "")</f>
-        <v/>
-      </c>
-      <c r="T42" s="33">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
-        <v/>
-      </c>
-      <c r="U42" s="33">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
-        <v/>
-      </c>
-      <c r="V42" s="33">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
-        <v/>
-      </c>
-      <c r="W42" s="33" t="n"/>
-      <c r="X42" s="33" t="n"/>
-      <c r="Y42" s="32">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/SUM(F10:I10), "")</f>
-        <v/>
-      </c>
-      <c r="Z42" s="33" t="n"/>
-      <c r="AA42" s="33" t="n"/>
-      <c r="AB42" s="34" t="n"/>
-      <c r="AC42" s="30">
-        <f>IF(B10="DIV", F10,"")</f>
-        <v/>
-      </c>
-      <c r="AD42" s="35" t="n"/>
+      <c r="H42" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I42" t="n">
+        <v>4.77</v>
+      </c>
     </row>
     <row r="43" ht="15.75" customHeight="1" s="62">
-      <c r="A43" s="36" t="n">
-        <v>45712</v>
-      </c>
-      <c r="B43" s="25" t="inlineStr">
+      <c r="A43" s="60" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>BSE</t>
         </is>
       </c>
-      <c r="C43" s="25" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D43" s="26" t="n">
+      <c r="D43" t="n">
         <v>2</v>
       </c>
-      <c r="E43" s="27" t="n">
-        <v>484.4</v>
-      </c>
-      <c r="F43" s="27" t="n">
-        <v>968.8099999999999</v>
-      </c>
-      <c r="G43" s="25" t="inlineStr">
+      <c r="E43" t="n">
+        <v>657.95</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1326.73</v>
+      </c>
+      <c r="G43" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H43" s="26" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="I43" s="26" t="n">
-        <v>6.94</v>
-      </c>
-      <c r="J43" s="28">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K43" s="29">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/SUM(F11:I11), "")</f>
-        <v/>
-      </c>
-      <c r="L43" s="30">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
-        <v/>
-      </c>
-      <c r="M43" s="30">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
-        <v/>
-      </c>
-      <c r="N43" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
-        <v/>
-      </c>
-      <c r="O43" s="29">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/SUM(F11:I11), "")</f>
-        <v/>
-      </c>
-      <c r="P43" s="30">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
-        <v/>
-      </c>
-      <c r="Q43" s="30">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
-        <v/>
-      </c>
-      <c r="R43" s="30">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
-        <v/>
-      </c>
-      <c r="S43" s="32">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/SUM(F11:I11), "")</f>
-        <v/>
-      </c>
-      <c r="T43" s="33">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
-        <v/>
-      </c>
-      <c r="U43" s="33">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
-        <v/>
-      </c>
-      <c r="V43" s="33">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
-        <v/>
-      </c>
-      <c r="W43" s="33" t="n">
-        <v>703.9400000000001</v>
-      </c>
-      <c r="X43" s="36" t="n">
-        <v>45806</v>
-      </c>
-      <c r="Y43" s="37">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/SUM(F11:I11), "")</f>
-        <v/>
-      </c>
-      <c r="Z43" s="38" t="n">
-        <v>-5376.165</v>
-      </c>
-      <c r="AA43" s="38" t="n">
-        <v>5452.5</v>
-      </c>
-      <c r="AB43" s="39" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC43" s="30">
-        <f>IF(B11="DIV", F11,"")</f>
-        <v/>
-      </c>
-      <c r="AD43" s="35" t="n"/>
-      <c r="AE43" s="40" t="n"/>
-      <c r="AF43" s="40" t="n"/>
-      <c r="AG43" s="40" t="n"/>
-      <c r="AH43" s="40" t="n"/>
-      <c r="AI43" s="40" t="n"/>
-      <c r="AJ43" s="40" t="n"/>
-      <c r="AK43" s="40" t="n"/>
-      <c r="AL43" s="40" t="n"/>
-      <c r="AM43" s="40" t="n"/>
-      <c r="AN43" s="40" t="n"/>
-      <c r="AO43" s="40" t="n"/>
-      <c r="AP43" s="40" t="n"/>
+      <c r="H43" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="I43" t="n">
+        <v>9.51</v>
+      </c>
     </row>
     <row r="44" ht="15.75" customHeight="1" s="62">
-      <c r="A44" s="36" t="n">
-        <v>45712</v>
-      </c>
-      <c r="B44" s="25" t="inlineStr">
+      <c r="A44" s="60" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>BSE</t>
         </is>
       </c>
-      <c r="C44" s="25" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D44" s="26" t="n">
+      <c r="D44" t="n">
         <v>2</v>
       </c>
-      <c r="E44" s="27" t="n">
-        <v>486.42</v>
-      </c>
-      <c r="F44" s="27" t="n">
-        <v>972.83</v>
-      </c>
-      <c r="G44" s="25" t="inlineStr">
+      <c r="E44" t="n">
+        <v>657</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1324.82</v>
+      </c>
+      <c r="G44" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H44" s="26" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="I44" s="26" t="n">
-        <v>6.96</v>
-      </c>
-      <c r="J44" s="28">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K44" s="29">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/SUM(F12:I12), "")</f>
-        <v/>
-      </c>
-      <c r="L44" s="30">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
-        <v/>
-      </c>
-      <c r="M44" s="30">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
-        <v/>
-      </c>
-      <c r="N44" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
-        <v/>
-      </c>
-      <c r="O44" s="29">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/SUM(F12:I12), "")</f>
-        <v/>
-      </c>
-      <c r="P44" s="30">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
-        <v/>
-      </c>
-      <c r="Q44" s="30">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
-        <v/>
-      </c>
-      <c r="R44" s="30">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
-        <v/>
-      </c>
-      <c r="S44" s="32">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/SUM(F12:I12), "")</f>
-        <v/>
-      </c>
-      <c r="T44" s="33">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
-        <v/>
-      </c>
-      <c r="U44" s="33">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
-        <v/>
-      </c>
-      <c r="V44" s="33">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
-        <v/>
-      </c>
-      <c r="W44" s="33" t="n">
-        <v>703.9400000000001</v>
-      </c>
-      <c r="X44" s="36" t="n">
-        <v>45806</v>
-      </c>
-      <c r="Y44" s="37">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/SUM(F12:I12), "")</f>
-        <v/>
-      </c>
-      <c r="Z44" s="38" t="n">
-        <v>-5412.154</v>
-      </c>
-      <c r="AA44" s="38" t="n">
-        <v>5489</v>
-      </c>
-      <c r="AB44" s="39" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC44" s="30">
-        <f>IF(B12="DIV", F12,"")</f>
-        <v/>
-      </c>
-      <c r="AD44" s="35" t="n"/>
-      <c r="AE44" s="40" t="n"/>
-      <c r="AF44" s="40" t="n"/>
-      <c r="AG44" s="40" t="n"/>
-      <c r="AH44" s="40" t="n"/>
-      <c r="AI44" s="40" t="n"/>
-      <c r="AJ44" s="40" t="n"/>
-      <c r="AK44" s="40" t="n"/>
-      <c r="AL44" s="40" t="n"/>
-      <c r="AM44" s="40" t="n"/>
-      <c r="AN44" s="40" t="n"/>
-      <c r="AO44" s="40" t="n"/>
-      <c r="AP44" s="40" t="n"/>
+      <c r="H44" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="I44" t="n">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="45" ht="15.75" customHeight="1" s="62">
-      <c r="A45" s="36" t="n">
-        <v>45712</v>
-      </c>
-      <c r="B45" s="25" t="inlineStr">
+      <c r="A45" s="60" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>BSE</t>
         </is>
       </c>
-      <c r="C45" s="25" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D45" s="26" t="n">
-        <v>2</v>
-      </c>
-      <c r="E45" s="27" t="n">
-        <v>485.17</v>
-      </c>
-      <c r="F45" s="27" t="n">
-        <v>970.33</v>
-      </c>
-      <c r="G45" s="25" t="inlineStr">
+      <c r="D45" t="n">
+        <v>10</v>
+      </c>
+      <c r="E45" t="n">
+        <v>570.45</v>
+      </c>
+      <c r="F45" t="n">
+        <v>5751.49</v>
+      </c>
+      <c r="G45" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H45" s="26" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="I45" s="26" t="n">
-        <v>6.96</v>
-      </c>
-      <c r="J45" s="28">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K45" s="29">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/SUM(F13:I13), "")</f>
-        <v/>
-      </c>
-      <c r="L45" s="30">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
-        <v/>
-      </c>
-      <c r="M45" s="30">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
-        <v/>
-      </c>
-      <c r="N45" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
-        <v/>
-      </c>
-      <c r="O45" s="29">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/SUM(F13:I13), "")</f>
-        <v/>
-      </c>
-      <c r="P45" s="30">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
-        <v/>
-      </c>
-      <c r="Q45" s="30">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
-        <v/>
-      </c>
-      <c r="R45" s="30">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
-        <v/>
-      </c>
-      <c r="S45" s="32">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/SUM(F13:I13), "")</f>
-        <v/>
-      </c>
-      <c r="T45" s="33">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
-        <v/>
-      </c>
-      <c r="U45" s="33">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
-        <v/>
-      </c>
-      <c r="V45" s="33">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
-        <v/>
-      </c>
-      <c r="W45" s="33" t="n">
-        <v>703.9400000000001</v>
-      </c>
-      <c r="X45" s="36" t="n">
-        <v>45806</v>
-      </c>
-      <c r="Y45" s="37">
-        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/SUM(F13:I13), "")</f>
-        <v/>
-      </c>
-      <c r="Z45" s="38" t="n">
-        <v>-5337.218</v>
-      </c>
-      <c r="AA45" s="38" t="n">
-        <v>5413</v>
-      </c>
-      <c r="AB45" s="39" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC45" s="30">
-        <f>IF(B13="DIV", F13,"")</f>
-        <v/>
-      </c>
-      <c r="AD45" s="35" t="n"/>
-      <c r="AE45" s="40" t="n"/>
-      <c r="AF45" s="40" t="n"/>
-      <c r="AG45" s="40" t="n"/>
-      <c r="AH45" s="40" t="n"/>
-      <c r="AI45" s="40" t="n"/>
-      <c r="AJ45" s="40" t="n"/>
-      <c r="AK45" s="40" t="n"/>
-      <c r="AL45" s="40" t="n"/>
-      <c r="AM45" s="40" t="n"/>
-      <c r="AN45" s="40" t="n"/>
-      <c r="AO45" s="40" t="n"/>
-      <c r="AP45" s="40" t="n"/>
+      <c r="H45" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="I45" t="n">
+        <v>41.25</v>
+      </c>
     </row>
     <row r="46" ht="15.75" customHeight="1" s="62">
-      <c r="A46" s="36" t="n">
-        <v>45712</v>
-      </c>
-      <c r="B46" s="25" t="inlineStr">
+      <c r="A46" s="60" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>BSE</t>
         </is>
       </c>
-      <c r="C46" s="25" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D46" s="26" t="n">
-        <v>2</v>
-      </c>
-      <c r="E46" s="27" t="n">
-        <v>485.42</v>
-      </c>
-      <c r="F46" s="27" t="n">
-        <v>970.83</v>
-      </c>
-      <c r="G46" s="25" t="inlineStr">
+      <c r="D46" t="n">
+        <v>5</v>
+      </c>
+      <c r="E46" t="n">
+        <v>596.15</v>
+      </c>
+      <c r="F46" t="n">
+        <v>3005.27</v>
+      </c>
+      <c r="G46" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H46" s="26" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="I46" s="26" t="n">
-        <v>6.96</v>
-      </c>
-      <c r="J46" s="28">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K46" s="29">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/SUM(F14:I14), "")</f>
-        <v/>
-      </c>
-      <c r="L46" s="30">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
-        <v/>
-      </c>
-      <c r="M46" s="30">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
-        <v/>
-      </c>
-      <c r="N46" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
-        <v/>
-      </c>
-      <c r="O46" s="29">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/SUM(F14:I14), "")</f>
-        <v/>
-      </c>
-      <c r="P46" s="30">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
-        <v/>
-      </c>
-      <c r="Q46" s="30">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
-        <v/>
-      </c>
-      <c r="R46" s="30">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
-        <v/>
-      </c>
-      <c r="S46" s="32">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/SUM(F14:I14), "")</f>
-        <v/>
-      </c>
-      <c r="T46" s="33">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
-        <v/>
-      </c>
-      <c r="U46" s="33">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
-        <v/>
-      </c>
-      <c r="V46" s="33">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
-        <v/>
-      </c>
-      <c r="W46" s="33" t="n">
-        <v>703.9400000000001</v>
-      </c>
-      <c r="X46" s="36" t="n">
-        <v>45806</v>
-      </c>
-      <c r="Y46" s="37">
-        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/SUM(F14:I14), "")</f>
-        <v/>
-      </c>
-      <c r="Z46" s="38" t="n">
-        <v>-2701.147</v>
-      </c>
-      <c r="AA46" s="38" t="n">
-        <v>2739.5</v>
-      </c>
-      <c r="AB46" s="39" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC46" s="30">
-        <f>IF(B14="DIV", F14,"")</f>
-        <v/>
-      </c>
-      <c r="AD46" s="35" t="n"/>
-      <c r="AE46" s="40" t="n"/>
-      <c r="AF46" s="40" t="n"/>
-      <c r="AG46" s="40" t="n"/>
-      <c r="AH46" s="40" t="n"/>
-      <c r="AI46" s="40" t="n"/>
-      <c r="AJ46" s="40" t="n"/>
-      <c r="AK46" s="40" t="n"/>
-      <c r="AL46" s="40" t="n"/>
-      <c r="AM46" s="40" t="n"/>
-      <c r="AN46" s="40" t="n"/>
-      <c r="AO46" s="40" t="n"/>
-      <c r="AP46" s="40" t="n"/>
+      <c r="H46" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="I46" t="n">
+        <v>21.55</v>
+      </c>
     </row>
     <row r="47" ht="15.75" customHeight="1" s="62">
-      <c r="A47" s="36" t="n">
-        <v>45712</v>
-      </c>
-      <c r="B47" s="25" t="inlineStr">
+      <c r="A47" s="60" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>BSE</t>
         </is>
       </c>
-      <c r="C47" s="25" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D47" s="26" t="n">
-        <v>2</v>
-      </c>
-      <c r="E47" s="27" t="n">
-        <v>484.15</v>
-      </c>
-      <c r="F47" s="27" t="n">
-        <v>968.3099999999999</v>
-      </c>
-      <c r="G47" s="25" t="inlineStr">
+      <c r="D47" t="n">
+        <v>10</v>
+      </c>
+      <c r="E47" t="n">
+        <v>607.4</v>
+      </c>
+      <c r="F47" t="n">
+        <v>6124.02</v>
+      </c>
+      <c r="G47" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H47" s="26" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="I47" s="26" t="n">
-        <v>6.94</v>
-      </c>
-      <c r="J47" s="28">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K47" s="29">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/SUM(F15:I15), "")</f>
-        <v/>
-      </c>
-      <c r="L47" s="30">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
-        <v/>
-      </c>
-      <c r="M47" s="30">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
-        <v/>
-      </c>
-      <c r="N47" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
-        <v/>
-      </c>
-      <c r="O47" s="29">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/SUM(F15:I15), "")</f>
-        <v/>
-      </c>
-      <c r="P47" s="30">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
-        <v/>
-      </c>
-      <c r="Q47" s="30">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
-        <v/>
-      </c>
-      <c r="R47" s="30">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
-        <v/>
-      </c>
-      <c r="S47" s="32">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/SUM(F15:I15), "")</f>
-        <v/>
-      </c>
-      <c r="T47" s="33">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
-        <v/>
-      </c>
-      <c r="U47" s="33">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
-        <v/>
-      </c>
-      <c r="V47" s="33">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
-        <v/>
-      </c>
-      <c r="W47" s="33" t="n">
-        <v>703.9400000000001</v>
-      </c>
-      <c r="X47" s="36" t="n">
-        <v>45806</v>
-      </c>
-      <c r="Y47" s="37">
-        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/SUM(F15:I15), "")</f>
-        <v/>
-      </c>
-      <c r="Z47" s="38" t="n">
-        <v>-2765.4835</v>
-      </c>
-      <c r="AA47" s="38" t="n">
-        <v>2804.75</v>
-      </c>
-      <c r="AB47" s="39" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC47" s="30">
-        <f>IF(B15="DIV", F15,"")</f>
-        <v/>
-      </c>
-      <c r="AD47" s="35" t="n"/>
-      <c r="AE47" s="40" t="n"/>
-      <c r="AF47" s="40" t="n"/>
-      <c r="AG47" s="40" t="n"/>
-      <c r="AH47" s="40" t="n"/>
-      <c r="AI47" s="40" t="n"/>
-      <c r="AJ47" s="40" t="n"/>
-      <c r="AK47" s="40" t="n"/>
-      <c r="AL47" s="40" t="n"/>
-      <c r="AM47" s="40" t="n"/>
-      <c r="AN47" s="40" t="n"/>
-      <c r="AO47" s="40" t="n"/>
-      <c r="AP47" s="40" t="n"/>
+      <c r="H47" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="I47" t="n">
+        <v>43.94</v>
+      </c>
     </row>
     <row r="48" ht="15.75" customHeight="1" s="62">
-      <c r="A48" s="36" t="n">
-        <v>45712</v>
-      </c>
-      <c r="B48" s="25" t="inlineStr">
+      <c r="A48" s="60" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>BSE</t>
         </is>
       </c>
-      <c r="C48" s="25" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D48" s="26" t="n">
-        <v>28</v>
-      </c>
-      <c r="E48" s="27" t="n">
-        <v>490.95</v>
-      </c>
-      <c r="F48" s="27" t="n">
-        <v>13746.59</v>
-      </c>
-      <c r="G48" s="25" t="inlineStr">
+      <c r="D48" t="n">
+        <v>5</v>
+      </c>
+      <c r="E48" t="n">
+        <v>647.9</v>
+      </c>
+      <c r="F48" t="n">
+        <v>3266.17</v>
+      </c>
+      <c r="G48" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H48" s="26" t="n">
-        <v>13.53</v>
-      </c>
-      <c r="I48" s="26" t="n">
-        <v>98.45999999999999</v>
-      </c>
-      <c r="J48" s="28">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K48" s="29">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/SUM(F16:I16), "")</f>
-        <v/>
-      </c>
-      <c r="L48" s="30">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
-        <v/>
-      </c>
-      <c r="M48" s="30">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
-        <v/>
-      </c>
-      <c r="N48" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
-        <v/>
-      </c>
-      <c r="O48" s="29">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/SUM(F16:I16), "")</f>
-        <v/>
-      </c>
-      <c r="P48" s="30">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
-        <v/>
-      </c>
-      <c r="Q48" s="30">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
-        <v/>
-      </c>
-      <c r="R48" s="30">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
-        <v/>
-      </c>
-      <c r="S48" s="32">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/SUM(F16:I16), "")</f>
-        <v/>
-      </c>
-      <c r="T48" s="33">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
-        <v/>
-      </c>
-      <c r="U48" s="33">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
-        <v/>
-      </c>
-      <c r="V48" s="33">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
-        <v/>
-      </c>
-      <c r="W48" s="33" t="n">
-        <v>703.9400000000001</v>
-      </c>
-      <c r="X48" s="36" t="n">
-        <v>45806</v>
-      </c>
-      <c r="Y48" s="37">
-        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/SUM(F16:I16), "")</f>
-        <v/>
-      </c>
-      <c r="Z48" s="38" t="n">
-        <v>-2765.73</v>
-      </c>
-      <c r="AA48" s="38" t="n">
-        <v>2805</v>
-      </c>
-      <c r="AB48" s="39" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC48" s="30">
-        <f>IF(B16="DIV", F16,"")</f>
-        <v/>
-      </c>
-      <c r="AD48" s="35" t="n"/>
-      <c r="AE48" s="40" t="n"/>
-      <c r="AF48" s="40" t="n"/>
-      <c r="AG48" s="40" t="n"/>
-      <c r="AH48" s="40" t="n"/>
-      <c r="AI48" s="40" t="n"/>
-      <c r="AJ48" s="40" t="n"/>
-      <c r="AK48" s="40" t="n"/>
-      <c r="AL48" s="40" t="n"/>
-      <c r="AM48" s="40" t="n"/>
-      <c r="AN48" s="40" t="n"/>
-      <c r="AO48" s="40" t="n"/>
-      <c r="AP48" s="40" t="n"/>
+      <c r="H48" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="I48" t="n">
+        <v>23.43</v>
+      </c>
     </row>
     <row r="49" ht="15.75" customHeight="1" s="62">
-      <c r="A49" s="36" t="n">
-        <v>45712</v>
-      </c>
-      <c r="B49" s="25" t="inlineStr">
+      <c r="A49" s="60" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>BSE</t>
         </is>
       </c>
-      <c r="C49" s="25" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D49" s="26" t="n">
-        <v>2</v>
-      </c>
-      <c r="E49" s="27" t="n">
-        <v>484.9</v>
-      </c>
-      <c r="F49" s="27" t="n">
-        <v>969.8099999999999</v>
-      </c>
-      <c r="G49" s="25" t="inlineStr">
+      <c r="D49" t="n">
+        <v>10</v>
+      </c>
+      <c r="E49" t="n">
+        <v>651.4</v>
+      </c>
+      <c r="F49" t="n">
+        <v>6567.59</v>
+      </c>
+      <c r="G49" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H49" s="26" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="I49" s="26" t="n">
-        <v>6.94</v>
-      </c>
-      <c r="J49" s="28">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K49" s="29">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/SUM(F17:I17), "")</f>
-        <v/>
-      </c>
-      <c r="L49" s="30">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
-        <v/>
-      </c>
-      <c r="M49" s="30">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
-        <v/>
-      </c>
-      <c r="N49" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
-        <v/>
-      </c>
-      <c r="O49" s="29">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/SUM(F17:I17), "")</f>
-        <v/>
-      </c>
-      <c r="P49" s="30">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
-        <v/>
-      </c>
-      <c r="Q49" s="30">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
-        <v/>
-      </c>
-      <c r="R49" s="30">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
-        <v/>
-      </c>
-      <c r="S49" s="32">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/SUM(F17:I17), "")</f>
-        <v/>
-      </c>
-      <c r="T49" s="33">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
-        <v/>
-      </c>
-      <c r="U49" s="33">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
-        <v/>
-      </c>
-      <c r="V49" s="33">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
-        <v/>
-      </c>
-      <c r="W49" s="33" t="n">
-        <v>703.9400000000001</v>
-      </c>
-      <c r="X49" s="36" t="n">
-        <v>45806</v>
-      </c>
-      <c r="Y49" s="37">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/SUM(F17:I17), "")</f>
-        <v/>
-      </c>
-      <c r="Z49" s="38" t="n">
-        <v>-5659.147</v>
-      </c>
-      <c r="AA49" s="38" t="n">
-        <v>5739.5</v>
-      </c>
-      <c r="AB49" s="39" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC49" s="30">
-        <f>IF(B17="DIV", F17,"")</f>
-        <v/>
-      </c>
-      <c r="AD49" s="35" t="n"/>
-      <c r="AE49" s="40" t="n"/>
-      <c r="AF49" s="40" t="n"/>
-      <c r="AG49" s="40" t="n"/>
-      <c r="AH49" s="40" t="n"/>
-      <c r="AI49" s="40" t="n"/>
-      <c r="AJ49" s="40" t="n"/>
-      <c r="AK49" s="40" t="n"/>
-      <c r="AL49" s="40" t="n"/>
-      <c r="AM49" s="40" t="n"/>
-      <c r="AN49" s="40" t="n"/>
-      <c r="AO49" s="40" t="n"/>
-      <c r="AP49" s="40" t="n"/>
+      <c r="H49" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="I49" t="n">
+        <v>47.1</v>
+      </c>
     </row>
     <row r="50" ht="15.75" customHeight="1" s="62">
-      <c r="A50" s="36" t="n">
-        <v>45712</v>
-      </c>
-      <c r="B50" s="25" t="inlineStr">
+      <c r="A50" s="60" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>BSE</t>
         </is>
       </c>
-      <c r="C50" s="25" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D50" s="26" t="n">
-        <v>2</v>
-      </c>
-      <c r="E50" s="27" t="n">
-        <v>485.67</v>
-      </c>
-      <c r="F50" s="27" t="n">
-        <v>971.33</v>
-      </c>
-      <c r="G50" s="25" t="inlineStr">
+      <c r="D50" t="n">
+        <v>10</v>
+      </c>
+      <c r="E50" t="n">
+        <v>640.95</v>
+      </c>
+      <c r="F50" t="n">
+        <v>6462.21</v>
+      </c>
+      <c r="G50" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H50" s="26" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="I50" s="26" t="n">
-        <v>6.96</v>
-      </c>
-      <c r="J50" s="28">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K50" s="29">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/SUM(F18:I18), "")</f>
-        <v/>
-      </c>
-      <c r="L50" s="30">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
-        <v/>
-      </c>
-      <c r="M50" s="30">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
-        <v/>
-      </c>
-      <c r="N50" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
-        <v/>
-      </c>
-      <c r="O50" s="29">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/SUM(F18:I18), "")</f>
-        <v/>
-      </c>
-      <c r="P50" s="30">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
-        <v/>
-      </c>
-      <c r="Q50" s="30">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
-        <v/>
-      </c>
-      <c r="R50" s="30">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
-        <v/>
-      </c>
-      <c r="S50" s="32">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/SUM(F18:I18), "")</f>
-        <v/>
-      </c>
-      <c r="T50" s="33">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
-        <v/>
-      </c>
-      <c r="U50" s="33">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
-        <v/>
-      </c>
-      <c r="V50" s="33">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
-        <v/>
-      </c>
-      <c r="W50" s="33" t="n">
-        <v>703.9400000000001</v>
-      </c>
-      <c r="X50" s="36" t="n">
-        <v>45806</v>
-      </c>
-      <c r="Y50" s="37">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/SUM(F18:I18), "")</f>
-        <v/>
-      </c>
-      <c r="Z50" s="38" t="n">
-        <v>-2893.6635</v>
-      </c>
-      <c r="AA50" s="38" t="n">
-        <v>2934.75</v>
-      </c>
-      <c r="AB50" s="39" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC50" s="30">
-        <f>IF(B18="DIV", F18,"")</f>
-        <v/>
-      </c>
-      <c r="AD50" s="35" t="n"/>
-      <c r="AE50" s="40" t="n"/>
-      <c r="AF50" s="40" t="n"/>
-      <c r="AG50" s="40" t="n"/>
-      <c r="AH50" s="40" t="n"/>
-      <c r="AI50" s="40" t="n"/>
-      <c r="AJ50" s="40" t="n"/>
-      <c r="AK50" s="40" t="n"/>
-      <c r="AL50" s="40" t="n"/>
-      <c r="AM50" s="40" t="n"/>
-      <c r="AN50" s="40" t="n"/>
-      <c r="AO50" s="40" t="n"/>
-      <c r="AP50" s="40" t="n"/>
+      <c r="H50" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I50" t="n">
+        <v>46.31</v>
+      </c>
     </row>
     <row r="51" ht="15.75" customHeight="1" s="62">
-      <c r="A51" s="36" t="n">
-        <v>45712</v>
-      </c>
-      <c r="B51" s="25" t="inlineStr">
+      <c r="A51" s="60" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>BSE</t>
         </is>
       </c>
-      <c r="C51" s="25" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D51" s="26" t="n">
-        <v>2</v>
-      </c>
-      <c r="E51" s="27" t="n">
-        <v>485.92</v>
-      </c>
-      <c r="F51" s="27" t="n">
-        <v>971.83</v>
-      </c>
-      <c r="G51" s="25" t="inlineStr">
+      <c r="D51" t="n">
+        <v>10</v>
+      </c>
+      <c r="E51" t="n">
+        <v>610.5</v>
+      </c>
+      <c r="F51" t="n">
+        <v>6155.25</v>
+      </c>
+      <c r="G51" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H51" s="26" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="I51" s="26" t="n">
-        <v>6.96</v>
-      </c>
-      <c r="J51" s="28">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K51" s="29">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/SUM(F19:I19), "")</f>
-        <v/>
-      </c>
-      <c r="L51" s="30">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
-        <v/>
-      </c>
-      <c r="M51" s="30">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
-        <v/>
-      </c>
-      <c r="N51" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
-        <v/>
-      </c>
-      <c r="O51" s="29">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/SUM(F19:I19), "")</f>
-        <v/>
-      </c>
-      <c r="P51" s="30">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
-        <v/>
-      </c>
-      <c r="Q51" s="30">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
-        <v/>
-      </c>
-      <c r="R51" s="30">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
-        <v/>
-      </c>
-      <c r="S51" s="32">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/SUM(F19:I19), "")</f>
-        <v/>
-      </c>
-      <c r="T51" s="33">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
-        <v/>
-      </c>
-      <c r="U51" s="33">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
-        <v/>
-      </c>
-      <c r="V51" s="33">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
-        <v/>
-      </c>
-      <c r="W51" s="33" t="n">
-        <v>703.9400000000001</v>
-      </c>
-      <c r="X51" s="36" t="n">
-        <v>45806</v>
-      </c>
-      <c r="Y51" s="37">
-        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/SUM(F19:I19), "")</f>
-        <v/>
-      </c>
-      <c r="Z51" s="38" t="n">
-        <v>-3061.53</v>
-      </c>
-      <c r="AA51" s="38" t="n">
-        <v>3105</v>
-      </c>
-      <c r="AB51" s="39" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC51" s="30">
-        <f>IF(B19="DIV", F19,"")</f>
-        <v/>
-      </c>
-      <c r="AD51" s="35" t="n"/>
-      <c r="AE51" s="40" t="n"/>
-      <c r="AF51" s="40" t="n"/>
-      <c r="AG51" s="40" t="n"/>
-      <c r="AH51" s="40" t="n"/>
-      <c r="AI51" s="40" t="n"/>
-      <c r="AJ51" s="40" t="n"/>
-      <c r="AK51" s="40" t="n"/>
-      <c r="AL51" s="40" t="n"/>
-      <c r="AM51" s="40" t="n"/>
-      <c r="AN51" s="40" t="n"/>
-      <c r="AO51" s="40" t="n"/>
-      <c r="AP51" s="40" t="n"/>
+      <c r="H51" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="I51" t="n">
+        <v>44.13</v>
+      </c>
     </row>
     <row r="52" ht="15.75" customHeight="1" s="62">
       <c r="A52" s="36" t="n">
-        <v>45712</v>
+        <v>45807</v>
       </c>
       <c r="B52" s="25" t="inlineStr">
         <is>
@@ -3770,121 +2739,96 @@
       </c>
       <c r="C52" s="25" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D52" s="26" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="E52" s="27" t="n">
-        <v>483.95</v>
-      </c>
-      <c r="F52" s="27" t="n">
-        <v>967.91</v>
+        <v>714.28</v>
+      </c>
+      <c r="F52" s="27">
+        <f>D7*E7</f>
+        <v/>
       </c>
       <c r="G52" s="25" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H52" s="26" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="I52" s="26" t="n">
-        <v>6.94</v>
-      </c>
+      <c r="H52" s="26" t="n"/>
+      <c r="I52" s="26" t="n"/>
       <c r="J52" s="28">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K52" s="29">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/SUM(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L52" s="30">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M52" s="30">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N52" s="31">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O52" s="29">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/SUM(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P52" s="30">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q52" s="30">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R52" s="30">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S52" s="32">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/SUM(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T52" s="33">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U52" s="33">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V52" s="33">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
-        <v/>
-      </c>
-      <c r="W52" s="33" t="n">
-        <v>703.9400000000001</v>
-      </c>
-      <c r="X52" s="36" t="n">
-        <v>45806</v>
-      </c>
-      <c r="Y52" s="37">
-        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/SUM(F20:I20), "")</f>
-        <v/>
-      </c>
-      <c r="Z52" s="38" t="n">
-        <v>-1232.4014</v>
-      </c>
-      <c r="AA52" s="38" t="n">
-        <v>1249.9</v>
-      </c>
-      <c r="AB52" s="39" t="n">
-        <v>2</v>
-      </c>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <v/>
+      </c>
+      <c r="W52" s="33" t="n"/>
+      <c r="X52" s="33" t="n"/>
+      <c r="Y52" s="32">
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/SUM(F7:I7), "")</f>
+        <v/>
+      </c>
+      <c r="Z52" s="33" t="n"/>
+      <c r="AA52" s="33" t="n"/>
+      <c r="AB52" s="34" t="n"/>
       <c r="AC52" s="30">
-        <f>IF(B20="DIV", F20,"")</f>
+        <f>IF(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD52" s="35" t="n"/>
-      <c r="AE52" s="40" t="n"/>
-      <c r="AF52" s="40" t="n"/>
-      <c r="AG52" s="40" t="n"/>
-      <c r="AH52" s="40" t="n"/>
-      <c r="AI52" s="40" t="n"/>
-      <c r="AJ52" s="40" t="n"/>
-      <c r="AK52" s="40" t="n"/>
-      <c r="AL52" s="40" t="n"/>
-      <c r="AM52" s="40" t="n"/>
-      <c r="AN52" s="40" t="n"/>
-      <c r="AO52" s="40" t="n"/>
-      <c r="AP52" s="40" t="n"/>
     </row>
     <row r="53" ht="15.75" customHeight="1" s="62">
       <c r="A53" s="36" t="n">
-        <v>45712</v>
+        <v>45806</v>
       </c>
       <c r="B53" s="25" t="inlineStr">
         <is>
@@ -3893,121 +2837,96 @@
       </c>
       <c r="C53" s="25" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D53" s="26" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E53" s="27" t="n">
-        <v>484.65</v>
-      </c>
-      <c r="F53" s="27" t="n">
-        <v>969.3099999999999</v>
+        <v>699.39</v>
+      </c>
+      <c r="F53" s="27">
+        <f>D8*E8</f>
+        <v/>
       </c>
       <c r="G53" s="25" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H53" s="26" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="I53" s="26" t="n">
-        <v>6.94</v>
-      </c>
+      <c r="H53" s="26" t="n"/>
+      <c r="I53" s="26" t="n"/>
       <c r="J53" s="28">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K53" s="29">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/SUM(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L53" s="30">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M53" s="30">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N53" s="31">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O53" s="29">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/SUM(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P53" s="30">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q53" s="30">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R53" s="30">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S53" s="32">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/SUM(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T53" s="33">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U53" s="33">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V53" s="33">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
-        <v/>
-      </c>
-      <c r="W53" s="33" t="n">
-        <v>703.9400000000001</v>
-      </c>
-      <c r="X53" s="36" t="n">
-        <v>45806</v>
-      </c>
-      <c r="Y53" s="37">
-        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/SUM(F21:I21), "")</f>
-        <v/>
-      </c>
-      <c r="Z53" s="38" t="n">
-        <v>-1842.2424</v>
-      </c>
-      <c r="AA53" s="38" t="n">
-        <v>1868.4</v>
-      </c>
-      <c r="AB53" s="39" t="n">
-        <v>3</v>
-      </c>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <v/>
+      </c>
+      <c r="W53" s="33" t="n"/>
+      <c r="X53" s="33" t="n"/>
+      <c r="Y53" s="32">
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/SUM(F8:I8), "")</f>
+        <v/>
+      </c>
+      <c r="Z53" s="33" t="n"/>
+      <c r="AA53" s="33" t="n"/>
+      <c r="AB53" s="34" t="n"/>
       <c r="AC53" s="30">
-        <f>IF(B21="DIV", F21,"")</f>
+        <f>IF(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD53" s="35" t="n"/>
-      <c r="AE53" s="40" t="n"/>
-      <c r="AF53" s="40" t="n"/>
-      <c r="AG53" s="40" t="n"/>
-      <c r="AH53" s="40" t="n"/>
-      <c r="AI53" s="40" t="n"/>
-      <c r="AJ53" s="40" t="n"/>
-      <c r="AK53" s="40" t="n"/>
-      <c r="AL53" s="40" t="n"/>
-      <c r="AM53" s="40" t="n"/>
-      <c r="AN53" s="40" t="n"/>
-      <c r="AO53" s="40" t="n"/>
-      <c r="AP53" s="40" t="n"/>
     </row>
     <row r="54" ht="15.75" customHeight="1" s="62">
       <c r="A54" s="36" t="n">
-        <v>45712</v>
+        <v>45806</v>
       </c>
       <c r="B54" s="25" t="inlineStr">
         <is>
@@ -4016,121 +2935,96 @@
       </c>
       <c r="C54" s="25" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D54" s="26" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E54" s="27" t="n">
-        <v>486.17</v>
-      </c>
-      <c r="F54" s="27" t="n">
-        <v>972.33</v>
+        <v>702.78</v>
+      </c>
+      <c r="F54" s="27">
+        <f>D9*E9</f>
+        <v/>
       </c>
       <c r="G54" s="25" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H54" s="26" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="I54" s="26" t="n">
-        <v>6.96</v>
-      </c>
+      <c r="H54" s="26" t="n"/>
+      <c r="I54" s="26" t="n"/>
       <c r="J54" s="28">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K54" s="29">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/SUM(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L54" s="30">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M54" s="30">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N54" s="31">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O54" s="29">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/SUM(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P54" s="30">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q54" s="30">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R54" s="30">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S54" s="32">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/SUM(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T54" s="33">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U54" s="33">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V54" s="33">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
-        <v/>
-      </c>
-      <c r="W54" s="33" t="n">
-        <v>703.9400000000001</v>
-      </c>
-      <c r="X54" s="36" t="n">
-        <v>45806</v>
-      </c>
-      <c r="Y54" s="37">
-        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/SUM(F22:I22), "")</f>
-        <v/>
-      </c>
-      <c r="Z54" s="38" t="n">
-        <v>-648.788</v>
-      </c>
-      <c r="AA54" s="38" t="n">
-        <v>658</v>
-      </c>
-      <c r="AB54" s="39" t="n">
-        <v>1</v>
-      </c>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <v/>
+      </c>
+      <c r="W54" s="33" t="n"/>
+      <c r="X54" s="33" t="n"/>
+      <c r="Y54" s="32">
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/SUM(F9:I9), "")</f>
+        <v/>
+      </c>
+      <c r="Z54" s="33" t="n"/>
+      <c r="AA54" s="33" t="n"/>
+      <c r="AB54" s="34" t="n"/>
       <c r="AC54" s="30">
-        <f>IF(B22="DIV", F22,"")</f>
+        <f>IF(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD54" s="35" t="n"/>
-      <c r="AE54" s="40" t="n"/>
-      <c r="AF54" s="40" t="n"/>
-      <c r="AG54" s="40" t="n"/>
-      <c r="AH54" s="40" t="n"/>
-      <c r="AI54" s="40" t="n"/>
-      <c r="AJ54" s="40" t="n"/>
-      <c r="AK54" s="40" t="n"/>
-      <c r="AL54" s="40" t="n"/>
-      <c r="AM54" s="40" t="n"/>
-      <c r="AN54" s="40" t="n"/>
-      <c r="AO54" s="40" t="n"/>
-      <c r="AP54" s="40" t="n"/>
     </row>
     <row r="55" ht="15.75" customHeight="1" s="62">
       <c r="A55" s="36" t="n">
-        <v>45705</v>
+        <v>45806</v>
       </c>
       <c r="B55" s="25" t="inlineStr">
         <is>
@@ -4139,121 +3033,96 @@
       </c>
       <c r="C55" s="25" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D55" s="26" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E55" s="27" t="n">
-        <v>445.69</v>
-      </c>
-      <c r="F55" s="27" t="n">
-        <v>8913.73</v>
+        <v>699.29</v>
+      </c>
+      <c r="F55" s="27">
+        <f>D10*E10</f>
+        <v/>
       </c>
       <c r="G55" s="25" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H55" s="26" t="n">
-        <v>8.83</v>
-      </c>
-      <c r="I55" s="26" t="n">
-        <v>63.9</v>
-      </c>
+      <c r="H55" s="26" t="n"/>
+      <c r="I55" s="26" t="n"/>
       <c r="J55" s="28">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K55" s="29">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/SUM(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L55" s="30">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M55" s="30">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N55" s="31">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O55" s="29">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/SUM(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P55" s="30">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q55" s="30">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R55" s="30">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S55" s="32">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/SUM(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T55" s="33">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U55" s="33">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V55" s="33">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
-        <v/>
-      </c>
-      <c r="W55" s="33" t="n">
-        <v>703.9400000000001</v>
-      </c>
-      <c r="X55" s="36" t="n">
-        <v>45806</v>
-      </c>
-      <c r="Y55" s="37">
-        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/SUM(F23:I23), "")</f>
-        <v/>
-      </c>
-      <c r="Z55" s="38" t="n">
-        <v>-1297.4774</v>
-      </c>
-      <c r="AA55" s="38" t="n">
-        <v>1315.9</v>
-      </c>
-      <c r="AB55" s="39" t="n">
-        <v>2</v>
-      </c>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <v/>
+      </c>
+      <c r="W55" s="33" t="n"/>
+      <c r="X55" s="33" t="n"/>
+      <c r="Y55" s="32">
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/SUM(F10:I10), "")</f>
+        <v/>
+      </c>
+      <c r="Z55" s="33" t="n"/>
+      <c r="AA55" s="33" t="n"/>
+      <c r="AB55" s="34" t="n"/>
       <c r="AC55" s="30">
-        <f>IF(B23="DIV", F23,"")</f>
+        <f>IF(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD55" s="35" t="n"/>
-      <c r="AE55" s="40" t="n"/>
-      <c r="AF55" s="40" t="n"/>
-      <c r="AG55" s="40" t="n"/>
-      <c r="AH55" s="40" t="n"/>
-      <c r="AI55" s="40" t="n"/>
-      <c r="AJ55" s="40" t="n"/>
-      <c r="AK55" s="40" t="n"/>
-      <c r="AL55" s="40" t="n"/>
-      <c r="AM55" s="40" t="n"/>
-      <c r="AN55" s="40" t="n"/>
-      <c r="AO55" s="40" t="n"/>
-      <c r="AP55" s="40" t="n"/>
     </row>
     <row r="56" ht="15.75" customHeight="1" s="62">
       <c r="A56" s="36" t="n">
-        <v>45699</v>
+        <v>45712</v>
       </c>
       <c r="B56" s="25" t="inlineStr">
         <is>
@@ -4266,13 +3135,13 @@
         </is>
       </c>
       <c r="D56" s="26" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E56" s="27" t="n">
-        <v>509.46</v>
+        <v>484.4</v>
       </c>
       <c r="F56" s="27" t="n">
-        <v>5094.65</v>
+        <v>968.8099999999999</v>
       </c>
       <c r="G56" s="25" t="inlineStr">
         <is>
@@ -4280,61 +3149,61 @@
         </is>
       </c>
       <c r="H56" s="26" t="n">
-        <v>5.05</v>
+        <v>0.97</v>
       </c>
       <c r="I56" s="26" t="n">
-        <v>36.6</v>
+        <v>6.94</v>
       </c>
       <c r="J56" s="28">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K56" s="29">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/SUM(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L56" s="30">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M56" s="30">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N56" s="31">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O56" s="29">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/SUM(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P56" s="30">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q56" s="30">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R56" s="30">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S56" s="32">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/SUM(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T56" s="33">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U56" s="33">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V56" s="33">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W56" s="33" t="n">
@@ -4344,20 +3213,20 @@
         <v>45806</v>
       </c>
       <c r="Y56" s="37">
-        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/SUM(F11:I11), "")</f>
         <v/>
       </c>
       <c r="Z56" s="38" t="n">
-        <v>-1295.604</v>
+        <v>-5376.165</v>
       </c>
       <c r="AA56" s="38" t="n">
-        <v>1314</v>
+        <v>5452.5</v>
       </c>
       <c r="AB56" s="39" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AC56" s="30">
-        <f>IF(B24="DIV", F24,"")</f>
+        <f>IF(B11="DIV", F11,"")</f>
         <v/>
       </c>
       <c r="AD56" s="35" t="n"/>
@@ -4376,7 +3245,7 @@
     </row>
     <row r="57" ht="15.75" customHeight="1" s="62">
       <c r="A57" s="36" t="n">
-        <v>45694</v>
+        <v>45712</v>
       </c>
       <c r="B57" s="25" t="inlineStr">
         <is>
@@ -4389,13 +3258,13 @@
         </is>
       </c>
       <c r="D57" s="26" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E57" s="27" t="n">
-        <v>529.3200000000001</v>
+        <v>486.42</v>
       </c>
       <c r="F57" s="27" t="n">
-        <v>10586.46</v>
+        <v>972.83</v>
       </c>
       <c r="G57" s="25" t="inlineStr">
         <is>
@@ -4403,61 +3272,61 @@
         </is>
       </c>
       <c r="H57" s="26" t="n">
-        <v>10.47</v>
+        <v>0.97</v>
       </c>
       <c r="I57" s="26" t="n">
-        <v>75.98999999999999</v>
+        <v>6.96</v>
       </c>
       <c r="J57" s="28">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K57" s="29">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/SUM(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L57" s="30">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M57" s="30">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N57" s="31">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O57" s="29">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/SUM(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P57" s="30">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q57" s="30">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R57" s="30">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S57" s="32">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/SUM(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T57" s="33">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U57" s="33">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V57" s="33">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W57" s="33" t="n">
@@ -4467,20 +3336,20 @@
         <v>45806</v>
       </c>
       <c r="Y57" s="37">
-        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/SUM(F12:I12), "")</f>
         <v/>
       </c>
       <c r="Z57" s="38" t="n">
-        <v>-5624.637</v>
+        <v>-5412.154</v>
       </c>
       <c r="AA57" s="38" t="n">
-        <v>5704.5</v>
+        <v>5489</v>
       </c>
       <c r="AB57" s="39" t="n">
         <v>10</v>
       </c>
       <c r="AC57" s="30">
-        <f>IF(B25="DIV", F25,"")</f>
+        <f>IF(B12="DIV", F12,"")</f>
         <v/>
       </c>
       <c r="AD57" s="35" t="n"/>
@@ -4498,212 +3367,1603 @@
       <c r="AP57" s="40" t="n"/>
     </row>
     <row r="58" ht="15.75" customHeight="1" s="62">
-      <c r="E58" s="41" t="n"/>
-      <c r="F58" s="41" t="n"/>
-      <c r="G58" s="42" t="n"/>
-      <c r="J58" s="41" t="n"/>
-      <c r="K58" s="41" t="n"/>
-      <c r="L58" s="41" t="n"/>
-      <c r="M58" s="1" t="n"/>
-      <c r="W58" s="41" t="n"/>
-      <c r="X58" s="41" t="n"/>
-      <c r="Y58" s="41" t="n"/>
-      <c r="Z58" s="41" t="n"/>
-      <c r="AA58" s="41" t="n"/>
-      <c r="AB58" s="41" t="n"/>
-      <c r="AC58" s="41" t="n"/>
+      <c r="A58" s="36" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B58" s="25" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C58" s="25" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D58" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="E58" s="27" t="n">
+        <v>485.17</v>
+      </c>
+      <c r="F58" s="27" t="n">
+        <v>970.33</v>
+      </c>
+      <c r="G58" s="25" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H58" s="26" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I58" s="26" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="J58" s="28">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K58" s="29">
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/SUM(F13:I13), "")</f>
+        <v/>
+      </c>
+      <c r="L58" s="30">
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <v/>
+      </c>
+      <c r="M58" s="30">
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <v/>
+      </c>
+      <c r="N58" s="31">
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <v/>
+      </c>
+      <c r="O58" s="29">
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/SUM(F13:I13), "")</f>
+        <v/>
+      </c>
+      <c r="P58" s="30">
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <v/>
+      </c>
+      <c r="Q58" s="30">
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <v/>
+      </c>
+      <c r="R58" s="30">
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <v/>
+      </c>
+      <c r="S58" s="32">
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/SUM(F13:I13), "")</f>
+        <v/>
+      </c>
+      <c r="T58" s="33">
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <v/>
+      </c>
+      <c r="U58" s="33">
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <v/>
+      </c>
+      <c r="V58" s="33">
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
+        <v/>
+      </c>
+      <c r="W58" s="33" t="n">
+        <v>703.9400000000001</v>
+      </c>
+      <c r="X58" s="36" t="n">
+        <v>45806</v>
+      </c>
+      <c r="Y58" s="37">
+        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/SUM(F13:I13), "")</f>
+        <v/>
+      </c>
+      <c r="Z58" s="38" t="n">
+        <v>-5337.218</v>
+      </c>
+      <c r="AA58" s="38" t="n">
+        <v>5413</v>
+      </c>
+      <c r="AB58" s="39" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC58" s="30">
+        <f>IF(B13="DIV", F13,"")</f>
+        <v/>
+      </c>
+      <c r="AD58" s="35" t="n"/>
+      <c r="AE58" s="40" t="n"/>
+      <c r="AF58" s="40" t="n"/>
+      <c r="AG58" s="40" t="n"/>
+      <c r="AH58" s="40" t="n"/>
+      <c r="AI58" s="40" t="n"/>
+      <c r="AJ58" s="40" t="n"/>
+      <c r="AK58" s="40" t="n"/>
+      <c r="AL58" s="40" t="n"/>
+      <c r="AM58" s="40" t="n"/>
+      <c r="AN58" s="40" t="n"/>
+      <c r="AO58" s="40" t="n"/>
+      <c r="AP58" s="40" t="n"/>
     </row>
     <row r="59" ht="15.75" customHeight="1" s="62">
-      <c r="E59" s="41" t="n"/>
-      <c r="F59" s="41" t="n"/>
-      <c r="G59" s="42" t="n"/>
-      <c r="J59" s="41" t="n"/>
-      <c r="K59" s="41" t="n"/>
-      <c r="L59" s="41" t="n"/>
-      <c r="M59" s="1" t="n"/>
-      <c r="W59" s="41" t="n"/>
-      <c r="X59" s="41" t="n"/>
-      <c r="Y59" s="41" t="n"/>
-      <c r="Z59" s="41" t="n"/>
-      <c r="AA59" s="41" t="n"/>
-      <c r="AB59" s="41" t="n"/>
-      <c r="AC59" s="41" t="n"/>
+      <c r="A59" s="36" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B59" s="25" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C59" s="25" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D59" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="E59" s="27" t="n">
+        <v>485.42</v>
+      </c>
+      <c r="F59" s="27" t="n">
+        <v>970.83</v>
+      </c>
+      <c r="G59" s="25" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H59" s="26" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I59" s="26" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="J59" s="28">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K59" s="29">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/SUM(F14:I14), "")</f>
+        <v/>
+      </c>
+      <c r="L59" s="30">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <v/>
+      </c>
+      <c r="M59" s="30">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <v/>
+      </c>
+      <c r="N59" s="31">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <v/>
+      </c>
+      <c r="O59" s="29">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/SUM(F14:I14), "")</f>
+        <v/>
+      </c>
+      <c r="P59" s="30">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <v/>
+      </c>
+      <c r="Q59" s="30">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <v/>
+      </c>
+      <c r="R59" s="30">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <v/>
+      </c>
+      <c r="S59" s="32">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/SUM(F14:I14), "")</f>
+        <v/>
+      </c>
+      <c r="T59" s="33">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <v/>
+      </c>
+      <c r="U59" s="33">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <v/>
+      </c>
+      <c r="V59" s="33">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <v/>
+      </c>
+      <c r="W59" s="33" t="n">
+        <v>703.9400000000001</v>
+      </c>
+      <c r="X59" s="36" t="n">
+        <v>45806</v>
+      </c>
+      <c r="Y59" s="37">
+        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/SUM(F14:I14), "")</f>
+        <v/>
+      </c>
+      <c r="Z59" s="38" t="n">
+        <v>-2701.147</v>
+      </c>
+      <c r="AA59" s="38" t="n">
+        <v>2739.5</v>
+      </c>
+      <c r="AB59" s="39" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC59" s="30">
+        <f>IF(B14="DIV", F14,"")</f>
+        <v/>
+      </c>
+      <c r="AD59" s="35" t="n"/>
+      <c r="AE59" s="40" t="n"/>
+      <c r="AF59" s="40" t="n"/>
+      <c r="AG59" s="40" t="n"/>
+      <c r="AH59" s="40" t="n"/>
+      <c r="AI59" s="40" t="n"/>
+      <c r="AJ59" s="40" t="n"/>
+      <c r="AK59" s="40" t="n"/>
+      <c r="AL59" s="40" t="n"/>
+      <c r="AM59" s="40" t="n"/>
+      <c r="AN59" s="40" t="n"/>
+      <c r="AO59" s="40" t="n"/>
+      <c r="AP59" s="40" t="n"/>
     </row>
     <row r="60" ht="15.75" customHeight="1" s="62">
-      <c r="E60" s="41" t="n"/>
-      <c r="F60" s="41" t="n"/>
-      <c r="G60" s="42" t="n"/>
-      <c r="J60" s="41" t="n"/>
-      <c r="K60" s="41" t="n"/>
-      <c r="L60" s="41" t="n"/>
-      <c r="M60" s="1" t="n"/>
-      <c r="W60" s="41" t="n"/>
-      <c r="X60" s="41" t="n"/>
-      <c r="Y60" s="41" t="n"/>
-      <c r="Z60" s="41" t="n"/>
-      <c r="AA60" s="41" t="n"/>
-      <c r="AB60" s="41" t="n"/>
-      <c r="AC60" s="41" t="n"/>
+      <c r="A60" s="36" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B60" s="25" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C60" s="25" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D60" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="E60" s="27" t="n">
+        <v>484.15</v>
+      </c>
+      <c r="F60" s="27" t="n">
+        <v>968.3099999999999</v>
+      </c>
+      <c r="G60" s="25" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H60" s="26" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I60" s="26" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="J60" s="28">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K60" s="29">
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/SUM(F15:I15), "")</f>
+        <v/>
+      </c>
+      <c r="L60" s="30">
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <v/>
+      </c>
+      <c r="M60" s="30">
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <v/>
+      </c>
+      <c r="N60" s="31">
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <v/>
+      </c>
+      <c r="O60" s="29">
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/SUM(F15:I15), "")</f>
+        <v/>
+      </c>
+      <c r="P60" s="30">
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <v/>
+      </c>
+      <c r="Q60" s="30">
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <v/>
+      </c>
+      <c r="R60" s="30">
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <v/>
+      </c>
+      <c r="S60" s="32">
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/SUM(F15:I15), "")</f>
+        <v/>
+      </c>
+      <c r="T60" s="33">
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <v/>
+      </c>
+      <c r="U60" s="33">
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <v/>
+      </c>
+      <c r="V60" s="33">
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <v/>
+      </c>
+      <c r="W60" s="33" t="n">
+        <v>703.9400000000001</v>
+      </c>
+      <c r="X60" s="36" t="n">
+        <v>45806</v>
+      </c>
+      <c r="Y60" s="37">
+        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/SUM(F15:I15), "")</f>
+        <v/>
+      </c>
+      <c r="Z60" s="38" t="n">
+        <v>-2765.4835</v>
+      </c>
+      <c r="AA60" s="38" t="n">
+        <v>2804.75</v>
+      </c>
+      <c r="AB60" s="39" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC60" s="30">
+        <f>IF(B15="DIV", F15,"")</f>
+        <v/>
+      </c>
+      <c r="AD60" s="35" t="n"/>
+      <c r="AE60" s="40" t="n"/>
+      <c r="AF60" s="40" t="n"/>
+      <c r="AG60" s="40" t="n"/>
+      <c r="AH60" s="40" t="n"/>
+      <c r="AI60" s="40" t="n"/>
+      <c r="AJ60" s="40" t="n"/>
+      <c r="AK60" s="40" t="n"/>
+      <c r="AL60" s="40" t="n"/>
+      <c r="AM60" s="40" t="n"/>
+      <c r="AN60" s="40" t="n"/>
+      <c r="AO60" s="40" t="n"/>
+      <c r="AP60" s="40" t="n"/>
     </row>
     <row r="61" ht="15.75" customHeight="1" s="62">
-      <c r="E61" s="41" t="n"/>
-      <c r="F61" s="41" t="n"/>
-      <c r="G61" s="42" t="n"/>
-      <c r="J61" s="41" t="n"/>
-      <c r="K61" s="41" t="n"/>
-      <c r="L61" s="41" t="n"/>
-      <c r="M61" s="1" t="n"/>
-      <c r="W61" s="41" t="n"/>
-      <c r="X61" s="41" t="n"/>
-      <c r="Y61" s="41" t="n"/>
-      <c r="Z61" s="41" t="n"/>
-      <c r="AA61" s="41" t="n"/>
-      <c r="AB61" s="41" t="n"/>
-      <c r="AC61" s="41" t="n"/>
+      <c r="A61" s="36" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B61" s="25" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C61" s="25" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D61" s="26" t="n">
+        <v>28</v>
+      </c>
+      <c r="E61" s="27" t="n">
+        <v>490.95</v>
+      </c>
+      <c r="F61" s="27" t="n">
+        <v>13746.59</v>
+      </c>
+      <c r="G61" s="25" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H61" s="26" t="n">
+        <v>13.53</v>
+      </c>
+      <c r="I61" s="26" t="n">
+        <v>98.45999999999999</v>
+      </c>
+      <c r="J61" s="28">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K61" s="29">
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/SUM(F16:I16), "")</f>
+        <v/>
+      </c>
+      <c r="L61" s="30">
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <v/>
+      </c>
+      <c r="M61" s="30">
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <v/>
+      </c>
+      <c r="N61" s="31">
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <v/>
+      </c>
+      <c r="O61" s="29">
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/SUM(F16:I16), "")</f>
+        <v/>
+      </c>
+      <c r="P61" s="30">
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <v/>
+      </c>
+      <c r="Q61" s="30">
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <v/>
+      </c>
+      <c r="R61" s="30">
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <v/>
+      </c>
+      <c r="S61" s="32">
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/SUM(F16:I16), "")</f>
+        <v/>
+      </c>
+      <c r="T61" s="33">
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <v/>
+      </c>
+      <c r="U61" s="33">
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <v/>
+      </c>
+      <c r="V61" s="33">
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <v/>
+      </c>
+      <c r="W61" s="33" t="n">
+        <v>703.9400000000001</v>
+      </c>
+      <c r="X61" s="36" t="n">
+        <v>45806</v>
+      </c>
+      <c r="Y61" s="37">
+        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/SUM(F16:I16), "")</f>
+        <v/>
+      </c>
+      <c r="Z61" s="38" t="n">
+        <v>-2765.73</v>
+      </c>
+      <c r="AA61" s="38" t="n">
+        <v>2805</v>
+      </c>
+      <c r="AB61" s="39" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC61" s="30">
+        <f>IF(B16="DIV", F16,"")</f>
+        <v/>
+      </c>
+      <c r="AD61" s="35" t="n"/>
+      <c r="AE61" s="40" t="n"/>
+      <c r="AF61" s="40" t="n"/>
+      <c r="AG61" s="40" t="n"/>
+      <c r="AH61" s="40" t="n"/>
+      <c r="AI61" s="40" t="n"/>
+      <c r="AJ61" s="40" t="n"/>
+      <c r="AK61" s="40" t="n"/>
+      <c r="AL61" s="40" t="n"/>
+      <c r="AM61" s="40" t="n"/>
+      <c r="AN61" s="40" t="n"/>
+      <c r="AO61" s="40" t="n"/>
+      <c r="AP61" s="40" t="n"/>
     </row>
     <row r="62" ht="13" customHeight="1" s="62">
-      <c r="E62" s="41" t="n"/>
-      <c r="F62" s="41" t="n"/>
-      <c r="G62" s="42" t="n"/>
-      <c r="J62" s="41" t="n"/>
-      <c r="K62" s="41" t="n"/>
-      <c r="L62" s="41" t="n"/>
-      <c r="M62" s="1" t="n"/>
-      <c r="W62" s="41" t="n"/>
-      <c r="X62" s="41" t="n"/>
-      <c r="Y62" s="41" t="n"/>
-      <c r="Z62" s="41" t="n"/>
-      <c r="AA62" s="41" t="n"/>
-      <c r="AB62" s="41" t="n"/>
-      <c r="AC62" s="41" t="n"/>
+      <c r="A62" s="36" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B62" s="25" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C62" s="25" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D62" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="E62" s="27" t="n">
+        <v>484.9</v>
+      </c>
+      <c r="F62" s="27" t="n">
+        <v>969.8099999999999</v>
+      </c>
+      <c r="G62" s="25" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H62" s="26" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I62" s="26" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="J62" s="28">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K62" s="29">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/SUM(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="L62" s="30">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <v/>
+      </c>
+      <c r="M62" s="30">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <v/>
+      </c>
+      <c r="N62" s="31">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <v/>
+      </c>
+      <c r="O62" s="29">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/SUM(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="P62" s="30">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <v/>
+      </c>
+      <c r="Q62" s="30">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <v/>
+      </c>
+      <c r="R62" s="30">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <v/>
+      </c>
+      <c r="S62" s="32">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/SUM(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="T62" s="33">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <v/>
+      </c>
+      <c r="U62" s="33">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <v/>
+      </c>
+      <c r="V62" s="33">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <v/>
+      </c>
+      <c r="W62" s="33" t="n">
+        <v>703.9400000000001</v>
+      </c>
+      <c r="X62" s="36" t="n">
+        <v>45806</v>
+      </c>
+      <c r="Y62" s="37">
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/SUM(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="Z62" s="38" t="n">
+        <v>-5659.147</v>
+      </c>
+      <c r="AA62" s="38" t="n">
+        <v>5739.5</v>
+      </c>
+      <c r="AB62" s="39" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC62" s="30">
+        <f>IF(B17="DIV", F17,"")</f>
+        <v/>
+      </c>
+      <c r="AD62" s="35" t="n"/>
+      <c r="AE62" s="40" t="n"/>
+      <c r="AF62" s="40" t="n"/>
+      <c r="AG62" s="40" t="n"/>
+      <c r="AH62" s="40" t="n"/>
+      <c r="AI62" s="40" t="n"/>
+      <c r="AJ62" s="40" t="n"/>
+      <c r="AK62" s="40" t="n"/>
+      <c r="AL62" s="40" t="n"/>
+      <c r="AM62" s="40" t="n"/>
+      <c r="AN62" s="40" t="n"/>
+      <c r="AO62" s="40" t="n"/>
+      <c r="AP62" s="40" t="n"/>
     </row>
     <row r="63" ht="13" customHeight="1" s="62">
-      <c r="E63" s="41" t="n"/>
-      <c r="F63" s="41" t="n"/>
-      <c r="G63" s="42" t="n"/>
-      <c r="J63" s="41" t="n"/>
-      <c r="K63" s="41" t="n"/>
-      <c r="L63" s="41" t="n"/>
-      <c r="M63" s="1" t="n"/>
-      <c r="W63" s="41" t="n"/>
-      <c r="X63" s="41" t="n"/>
-      <c r="Y63" s="41" t="n"/>
-      <c r="Z63" s="41" t="n"/>
-      <c r="AA63" s="41" t="n"/>
-      <c r="AB63" s="41" t="n"/>
-      <c r="AC63" s="41" t="n"/>
+      <c r="A63" s="36" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B63" s="25" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C63" s="25" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D63" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="E63" s="27" t="n">
+        <v>485.67</v>
+      </c>
+      <c r="F63" s="27" t="n">
+        <v>971.33</v>
+      </c>
+      <c r="G63" s="25" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H63" s="26" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I63" s="26" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="J63" s="28">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K63" s="29">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/SUM(F18:I18), "")</f>
+        <v/>
+      </c>
+      <c r="L63" s="30">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <v/>
+      </c>
+      <c r="M63" s="30">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <v/>
+      </c>
+      <c r="N63" s="31">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <v/>
+      </c>
+      <c r="O63" s="29">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/SUM(F18:I18), "")</f>
+        <v/>
+      </c>
+      <c r="P63" s="30">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <v/>
+      </c>
+      <c r="Q63" s="30">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <v/>
+      </c>
+      <c r="R63" s="30">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <v/>
+      </c>
+      <c r="S63" s="32">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/SUM(F18:I18), "")</f>
+        <v/>
+      </c>
+      <c r="T63" s="33">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <v/>
+      </c>
+      <c r="U63" s="33">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <v/>
+      </c>
+      <c r="V63" s="33">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <v/>
+      </c>
+      <c r="W63" s="33" t="n">
+        <v>703.9400000000001</v>
+      </c>
+      <c r="X63" s="36" t="n">
+        <v>45806</v>
+      </c>
+      <c r="Y63" s="37">
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/SUM(F18:I18), "")</f>
+        <v/>
+      </c>
+      <c r="Z63" s="38" t="n">
+        <v>-2893.6635</v>
+      </c>
+      <c r="AA63" s="38" t="n">
+        <v>2934.75</v>
+      </c>
+      <c r="AB63" s="39" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC63" s="30">
+        <f>IF(B18="DIV", F18,"")</f>
+        <v/>
+      </c>
+      <c r="AD63" s="35" t="n"/>
+      <c r="AE63" s="40" t="n"/>
+      <c r="AF63" s="40" t="n"/>
+      <c r="AG63" s="40" t="n"/>
+      <c r="AH63" s="40" t="n"/>
+      <c r="AI63" s="40" t="n"/>
+      <c r="AJ63" s="40" t="n"/>
+      <c r="AK63" s="40" t="n"/>
+      <c r="AL63" s="40" t="n"/>
+      <c r="AM63" s="40" t="n"/>
+      <c r="AN63" s="40" t="n"/>
+      <c r="AO63" s="40" t="n"/>
+      <c r="AP63" s="40" t="n"/>
     </row>
     <row r="64" ht="13" customHeight="1" s="62">
-      <c r="E64" s="41" t="n"/>
-      <c r="F64" s="41" t="n"/>
-      <c r="G64" s="42" t="n"/>
-      <c r="J64" s="41" t="n"/>
-      <c r="K64" s="41" t="n"/>
-      <c r="L64" s="41" t="n"/>
-      <c r="M64" s="1" t="n"/>
-      <c r="W64" s="41" t="n"/>
-      <c r="X64" s="41" t="n"/>
-      <c r="Y64" s="41" t="n"/>
-      <c r="Z64" s="41" t="n"/>
-      <c r="AA64" s="41" t="n"/>
-      <c r="AB64" s="41" t="n"/>
-      <c r="AC64" s="41" t="n"/>
+      <c r="A64" s="36" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B64" s="25" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C64" s="25" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D64" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="E64" s="27" t="n">
+        <v>485.92</v>
+      </c>
+      <c r="F64" s="27" t="n">
+        <v>971.83</v>
+      </c>
+      <c r="G64" s="25" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H64" s="26" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I64" s="26" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="J64" s="28">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K64" s="29">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/SUM(F19:I19), "")</f>
+        <v/>
+      </c>
+      <c r="L64" s="30">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <v/>
+      </c>
+      <c r="M64" s="30">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <v/>
+      </c>
+      <c r="N64" s="31">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <v/>
+      </c>
+      <c r="O64" s="29">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/SUM(F19:I19), "")</f>
+        <v/>
+      </c>
+      <c r="P64" s="30">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <v/>
+      </c>
+      <c r="Q64" s="30">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <v/>
+      </c>
+      <c r="R64" s="30">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <v/>
+      </c>
+      <c r="S64" s="32">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/SUM(F19:I19), "")</f>
+        <v/>
+      </c>
+      <c r="T64" s="33">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <v/>
+      </c>
+      <c r="U64" s="33">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <v/>
+      </c>
+      <c r="V64" s="33">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <v/>
+      </c>
+      <c r="W64" s="33" t="n">
+        <v>703.9400000000001</v>
+      </c>
+      <c r="X64" s="36" t="n">
+        <v>45806</v>
+      </c>
+      <c r="Y64" s="37">
+        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/SUM(F19:I19), "")</f>
+        <v/>
+      </c>
+      <c r="Z64" s="38" t="n">
+        <v>-3061.53</v>
+      </c>
+      <c r="AA64" s="38" t="n">
+        <v>3105</v>
+      </c>
+      <c r="AB64" s="39" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC64" s="30">
+        <f>IF(B19="DIV", F19,"")</f>
+        <v/>
+      </c>
+      <c r="AD64" s="35" t="n"/>
+      <c r="AE64" s="40" t="n"/>
+      <c r="AF64" s="40" t="n"/>
+      <c r="AG64" s="40" t="n"/>
+      <c r="AH64" s="40" t="n"/>
+      <c r="AI64" s="40" t="n"/>
+      <c r="AJ64" s="40" t="n"/>
+      <c r="AK64" s="40" t="n"/>
+      <c r="AL64" s="40" t="n"/>
+      <c r="AM64" s="40" t="n"/>
+      <c r="AN64" s="40" t="n"/>
+      <c r="AO64" s="40" t="n"/>
+      <c r="AP64" s="40" t="n"/>
     </row>
     <row r="65" ht="13" customHeight="1" s="62">
-      <c r="E65" s="41" t="n"/>
-      <c r="F65" s="41" t="n"/>
-      <c r="G65" s="42" t="n"/>
-      <c r="J65" s="41" t="n"/>
-      <c r="K65" s="41" t="n"/>
-      <c r="L65" s="41" t="n"/>
-      <c r="M65" s="1" t="n"/>
-      <c r="W65" s="41" t="n"/>
-      <c r="X65" s="41" t="n"/>
-      <c r="Y65" s="41" t="n"/>
-      <c r="Z65" s="41" t="n"/>
-      <c r="AA65" s="41" t="n"/>
-      <c r="AB65" s="41" t="n"/>
-      <c r="AC65" s="41" t="n"/>
+      <c r="A65" s="36" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B65" s="25" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C65" s="25" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D65" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="E65" s="27" t="n">
+        <v>483.95</v>
+      </c>
+      <c r="F65" s="27" t="n">
+        <v>967.91</v>
+      </c>
+      <c r="G65" s="25" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H65" s="26" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I65" s="26" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="J65" s="28">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K65" s="29">
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/SUM(F20:I20), "")</f>
+        <v/>
+      </c>
+      <c r="L65" s="30">
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <v/>
+      </c>
+      <c r="M65" s="30">
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <v/>
+      </c>
+      <c r="N65" s="31">
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <v/>
+      </c>
+      <c r="O65" s="29">
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/SUM(F20:I20), "")</f>
+        <v/>
+      </c>
+      <c r="P65" s="30">
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <v/>
+      </c>
+      <c r="Q65" s="30">
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <v/>
+      </c>
+      <c r="R65" s="30">
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <v/>
+      </c>
+      <c r="S65" s="32">
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/SUM(F20:I20), "")</f>
+        <v/>
+      </c>
+      <c r="T65" s="33">
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <v/>
+      </c>
+      <c r="U65" s="33">
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <v/>
+      </c>
+      <c r="V65" s="33">
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <v/>
+      </c>
+      <c r="W65" s="33" t="n">
+        <v>703.9400000000001</v>
+      </c>
+      <c r="X65" s="36" t="n">
+        <v>45806</v>
+      </c>
+      <c r="Y65" s="37">
+        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/SUM(F20:I20), "")</f>
+        <v/>
+      </c>
+      <c r="Z65" s="38" t="n">
+        <v>-1232.4014</v>
+      </c>
+      <c r="AA65" s="38" t="n">
+        <v>1249.9</v>
+      </c>
+      <c r="AB65" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC65" s="30">
+        <f>IF(B20="DIV", F20,"")</f>
+        <v/>
+      </c>
+      <c r="AD65" s="35" t="n"/>
+      <c r="AE65" s="40" t="n"/>
+      <c r="AF65" s="40" t="n"/>
+      <c r="AG65" s="40" t="n"/>
+      <c r="AH65" s="40" t="n"/>
+      <c r="AI65" s="40" t="n"/>
+      <c r="AJ65" s="40" t="n"/>
+      <c r="AK65" s="40" t="n"/>
+      <c r="AL65" s="40" t="n"/>
+      <c r="AM65" s="40" t="n"/>
+      <c r="AN65" s="40" t="n"/>
+      <c r="AO65" s="40" t="n"/>
+      <c r="AP65" s="40" t="n"/>
     </row>
     <row r="66" ht="13" customHeight="1" s="62">
-      <c r="E66" s="41" t="n"/>
-      <c r="F66" s="41" t="n"/>
-      <c r="G66" s="42" t="n"/>
-      <c r="J66" s="41" t="n"/>
-      <c r="K66" s="41" t="n"/>
-      <c r="L66" s="41" t="n"/>
-      <c r="M66" s="1" t="n"/>
-      <c r="W66" s="41" t="n"/>
-      <c r="X66" s="41" t="n"/>
-      <c r="Y66" s="41" t="n"/>
-      <c r="Z66" s="41" t="n"/>
-      <c r="AA66" s="41" t="n"/>
-      <c r="AB66" s="41" t="n"/>
-      <c r="AC66" s="41" t="n"/>
+      <c r="A66" s="36" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B66" s="25" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C66" s="25" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D66" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="E66" s="27" t="n">
+        <v>484.65</v>
+      </c>
+      <c r="F66" s="27" t="n">
+        <v>969.3099999999999</v>
+      </c>
+      <c r="G66" s="25" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H66" s="26" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I66" s="26" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="J66" s="28">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K66" s="29">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/SUM(F21:I21), "")</f>
+        <v/>
+      </c>
+      <c r="L66" s="30">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <v/>
+      </c>
+      <c r="M66" s="30">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <v/>
+      </c>
+      <c r="N66" s="31">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <v/>
+      </c>
+      <c r="O66" s="29">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/SUM(F21:I21), "")</f>
+        <v/>
+      </c>
+      <c r="P66" s="30">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <v/>
+      </c>
+      <c r="Q66" s="30">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <v/>
+      </c>
+      <c r="R66" s="30">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <v/>
+      </c>
+      <c r="S66" s="32">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/SUM(F21:I21), "")</f>
+        <v/>
+      </c>
+      <c r="T66" s="33">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <v/>
+      </c>
+      <c r="U66" s="33">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <v/>
+      </c>
+      <c r="V66" s="33">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
+        <v/>
+      </c>
+      <c r="W66" s="33" t="n">
+        <v>703.9400000000001</v>
+      </c>
+      <c r="X66" s="36" t="n">
+        <v>45806</v>
+      </c>
+      <c r="Y66" s="37">
+        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/SUM(F21:I21), "")</f>
+        <v/>
+      </c>
+      <c r="Z66" s="38" t="n">
+        <v>-1842.2424</v>
+      </c>
+      <c r="AA66" s="38" t="n">
+        <v>1868.4</v>
+      </c>
+      <c r="AB66" s="39" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC66" s="30">
+        <f>IF(B21="DIV", F21,"")</f>
+        <v/>
+      </c>
+      <c r="AD66" s="35" t="n"/>
+      <c r="AE66" s="40" t="n"/>
+      <c r="AF66" s="40" t="n"/>
+      <c r="AG66" s="40" t="n"/>
+      <c r="AH66" s="40" t="n"/>
+      <c r="AI66" s="40" t="n"/>
+      <c r="AJ66" s="40" t="n"/>
+      <c r="AK66" s="40" t="n"/>
+      <c r="AL66" s="40" t="n"/>
+      <c r="AM66" s="40" t="n"/>
+      <c r="AN66" s="40" t="n"/>
+      <c r="AO66" s="40" t="n"/>
+      <c r="AP66" s="40" t="n"/>
     </row>
     <row r="67" ht="13" customHeight="1" s="62">
-      <c r="E67" s="41" t="n"/>
-      <c r="F67" s="41" t="n"/>
-      <c r="G67" s="42" t="n"/>
-      <c r="J67" s="41" t="n"/>
-      <c r="K67" s="41" t="n"/>
-      <c r="L67" s="41" t="n"/>
-      <c r="M67" s="1" t="n"/>
-      <c r="W67" s="41" t="n"/>
-      <c r="X67" s="41" t="n"/>
-      <c r="Y67" s="41" t="n"/>
-      <c r="Z67" s="41" t="n"/>
-      <c r="AA67" s="41" t="n"/>
-      <c r="AB67" s="41" t="n"/>
-      <c r="AC67" s="41" t="n"/>
+      <c r="A67" s="36" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B67" s="25" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C67" s="25" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D67" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="E67" s="27" t="n">
+        <v>486.17</v>
+      </c>
+      <c r="F67" s="27" t="n">
+        <v>972.33</v>
+      </c>
+      <c r="G67" s="25" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H67" s="26" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I67" s="26" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="J67" s="28">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K67" s="29">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/SUM(F22:I22), "")</f>
+        <v/>
+      </c>
+      <c r="L67" s="30">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <v/>
+      </c>
+      <c r="M67" s="30">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <v/>
+      </c>
+      <c r="N67" s="31">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <v/>
+      </c>
+      <c r="O67" s="29">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/SUM(F22:I22), "")</f>
+        <v/>
+      </c>
+      <c r="P67" s="30">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <v/>
+      </c>
+      <c r="Q67" s="30">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <v/>
+      </c>
+      <c r="R67" s="30">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <v/>
+      </c>
+      <c r="S67" s="32">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/SUM(F22:I22), "")</f>
+        <v/>
+      </c>
+      <c r="T67" s="33">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <v/>
+      </c>
+      <c r="U67" s="33">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <v/>
+      </c>
+      <c r="V67" s="33">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <v/>
+      </c>
+      <c r="W67" s="33" t="n">
+        <v>703.9400000000001</v>
+      </c>
+      <c r="X67" s="36" t="n">
+        <v>45806</v>
+      </c>
+      <c r="Y67" s="37">
+        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/SUM(F22:I22), "")</f>
+        <v/>
+      </c>
+      <c r="Z67" s="38" t="n">
+        <v>-648.788</v>
+      </c>
+      <c r="AA67" s="38" t="n">
+        <v>658</v>
+      </c>
+      <c r="AB67" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC67" s="30">
+        <f>IF(B22="DIV", F22,"")</f>
+        <v/>
+      </c>
+      <c r="AD67" s="35" t="n"/>
+      <c r="AE67" s="40" t="n"/>
+      <c r="AF67" s="40" t="n"/>
+      <c r="AG67" s="40" t="n"/>
+      <c r="AH67" s="40" t="n"/>
+      <c r="AI67" s="40" t="n"/>
+      <c r="AJ67" s="40" t="n"/>
+      <c r="AK67" s="40" t="n"/>
+      <c r="AL67" s="40" t="n"/>
+      <c r="AM67" s="40" t="n"/>
+      <c r="AN67" s="40" t="n"/>
+      <c r="AO67" s="40" t="n"/>
+      <c r="AP67" s="40" t="n"/>
     </row>
     <row r="68" ht="13" customHeight="1" s="62">
-      <c r="E68" s="41" t="n"/>
-      <c r="F68" s="41" t="n"/>
-      <c r="G68" s="42" t="n"/>
-      <c r="J68" s="41" t="n"/>
-      <c r="K68" s="41" t="n"/>
-      <c r="L68" s="41" t="n"/>
-      <c r="M68" s="1" t="n"/>
-      <c r="W68" s="41" t="n"/>
-      <c r="X68" s="41" t="n"/>
-      <c r="Y68" s="41" t="n"/>
-      <c r="Z68" s="41" t="n"/>
-      <c r="AA68" s="41" t="n"/>
-      <c r="AB68" s="41" t="n"/>
-      <c r="AC68" s="41" t="n"/>
+      <c r="A68" s="36" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B68" s="25" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C68" s="25" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D68" s="26" t="n">
+        <v>20</v>
+      </c>
+      <c r="E68" s="27" t="n">
+        <v>445.69</v>
+      </c>
+      <c r="F68" s="27" t="n">
+        <v>8913.73</v>
+      </c>
+      <c r="G68" s="25" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H68" s="26" t="n">
+        <v>8.83</v>
+      </c>
+      <c r="I68" s="26" t="n">
+        <v>63.9</v>
+      </c>
+      <c r="J68" s="28">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K68" s="29">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/SUM(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="L68" s="30">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <v/>
+      </c>
+      <c r="M68" s="30">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <v/>
+      </c>
+      <c r="N68" s="31">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <v/>
+      </c>
+      <c r="O68" s="29">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/SUM(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="P68" s="30">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <v/>
+      </c>
+      <c r="Q68" s="30">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <v/>
+      </c>
+      <c r="R68" s="30">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <v/>
+      </c>
+      <c r="S68" s="32">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/SUM(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="T68" s="33">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <v/>
+      </c>
+      <c r="U68" s="33">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <v/>
+      </c>
+      <c r="V68" s="33">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <v/>
+      </c>
+      <c r="W68" s="33" t="n">
+        <v>703.9400000000001</v>
+      </c>
+      <c r="X68" s="36" t="n">
+        <v>45806</v>
+      </c>
+      <c r="Y68" s="37">
+        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/SUM(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="Z68" s="38" t="n">
+        <v>-1297.4774</v>
+      </c>
+      <c r="AA68" s="38" t="n">
+        <v>1315.9</v>
+      </c>
+      <c r="AB68" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC68" s="30">
+        <f>IF(B23="DIV", F23,"")</f>
+        <v/>
+      </c>
+      <c r="AD68" s="35" t="n"/>
+      <c r="AE68" s="40" t="n"/>
+      <c r="AF68" s="40" t="n"/>
+      <c r="AG68" s="40" t="n"/>
+      <c r="AH68" s="40" t="n"/>
+      <c r="AI68" s="40" t="n"/>
+      <c r="AJ68" s="40" t="n"/>
+      <c r="AK68" s="40" t="n"/>
+      <c r="AL68" s="40" t="n"/>
+      <c r="AM68" s="40" t="n"/>
+      <c r="AN68" s="40" t="n"/>
+      <c r="AO68" s="40" t="n"/>
+      <c r="AP68" s="40" t="n"/>
     </row>
     <row r="69" ht="13" customHeight="1" s="62">
-      <c r="E69" s="41" t="n"/>
-      <c r="F69" s="41" t="n"/>
-      <c r="G69" s="42" t="n"/>
-      <c r="J69" s="41" t="n"/>
-      <c r="K69" s="41" t="n"/>
-      <c r="L69" s="41" t="n"/>
-      <c r="M69" s="1" t="n"/>
-      <c r="W69" s="41" t="n"/>
-      <c r="X69" s="41" t="n"/>
-      <c r="Y69" s="41" t="n"/>
-      <c r="Z69" s="41" t="n"/>
-      <c r="AA69" s="41" t="n"/>
-      <c r="AB69" s="41" t="n"/>
-      <c r="AC69" s="41" t="n"/>
+      <c r="A69" s="36" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B69" s="25" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C69" s="25" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D69" s="26" t="n">
+        <v>10</v>
+      </c>
+      <c r="E69" s="27" t="n">
+        <v>509.46</v>
+      </c>
+      <c r="F69" s="27" t="n">
+        <v>5094.65</v>
+      </c>
+      <c r="G69" s="25" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H69" s="26" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="I69" s="26" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="J69" s="28">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K69" s="29">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/SUM(F24:I24), "")</f>
+        <v/>
+      </c>
+      <c r="L69" s="30">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <v/>
+      </c>
+      <c r="M69" s="30">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <v/>
+      </c>
+      <c r="N69" s="31">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <v/>
+      </c>
+      <c r="O69" s="29">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/SUM(F24:I24), "")</f>
+        <v/>
+      </c>
+      <c r="P69" s="30">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <v/>
+      </c>
+      <c r="Q69" s="30">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <v/>
+      </c>
+      <c r="R69" s="30">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <v/>
+      </c>
+      <c r="S69" s="32">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/SUM(F24:I24), "")</f>
+        <v/>
+      </c>
+      <c r="T69" s="33">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <v/>
+      </c>
+      <c r="U69" s="33">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <v/>
+      </c>
+      <c r="V69" s="33">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <v/>
+      </c>
+      <c r="W69" s="33" t="n">
+        <v>703.9400000000001</v>
+      </c>
+      <c r="X69" s="36" t="n">
+        <v>45806</v>
+      </c>
+      <c r="Y69" s="37">
+        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/SUM(F24:I24), "")</f>
+        <v/>
+      </c>
+      <c r="Z69" s="38" t="n">
+        <v>-1295.604</v>
+      </c>
+      <c r="AA69" s="38" t="n">
+        <v>1314</v>
+      </c>
+      <c r="AB69" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC69" s="30">
+        <f>IF(B24="DIV", F24,"")</f>
+        <v/>
+      </c>
+      <c r="AD69" s="35" t="n"/>
+      <c r="AE69" s="40" t="n"/>
+      <c r="AF69" s="40" t="n"/>
+      <c r="AG69" s="40" t="n"/>
+      <c r="AH69" s="40" t="n"/>
+      <c r="AI69" s="40" t="n"/>
+      <c r="AJ69" s="40" t="n"/>
+      <c r="AK69" s="40" t="n"/>
+      <c r="AL69" s="40" t="n"/>
+      <c r="AM69" s="40" t="n"/>
+      <c r="AN69" s="40" t="n"/>
+      <c r="AO69" s="40" t="n"/>
+      <c r="AP69" s="40" t="n"/>
     </row>
     <row r="70" ht="13" customHeight="1" s="62">
-      <c r="E70" s="41" t="n"/>
-      <c r="F70" s="41" t="n"/>
-      <c r="G70" s="42" t="n"/>
-      <c r="J70" s="41" t="n"/>
-      <c r="K70" s="41" t="n"/>
-      <c r="L70" s="41" t="n"/>
-      <c r="M70" s="1" t="n"/>
-      <c r="W70" s="41" t="n"/>
-      <c r="X70" s="41" t="n"/>
-      <c r="Y70" s="41" t="n"/>
-      <c r="Z70" s="41" t="n"/>
-      <c r="AA70" s="41" t="n"/>
-      <c r="AB70" s="41" t="n"/>
-      <c r="AC70" s="41" t="n"/>
+      <c r="A70" s="36" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B70" s="25" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C70" s="25" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D70" s="26" t="n">
+        <v>20</v>
+      </c>
+      <c r="E70" s="27" t="n">
+        <v>529.3200000000001</v>
+      </c>
+      <c r="F70" s="27" t="n">
+        <v>10586.46</v>
+      </c>
+      <c r="G70" s="25" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H70" s="26" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="I70" s="26" t="n">
+        <v>75.98999999999999</v>
+      </c>
+      <c r="J70" s="28">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K70" s="29">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/SUM(F25:I25), "")</f>
+        <v/>
+      </c>
+      <c r="L70" s="30">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <v/>
+      </c>
+      <c r="M70" s="30">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
+        <v/>
+      </c>
+      <c r="N70" s="31">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
+        <v/>
+      </c>
+      <c r="O70" s="29">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/SUM(F25:I25), "")</f>
+        <v/>
+      </c>
+      <c r="P70" s="30">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <v/>
+      </c>
+      <c r="Q70" s="30">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
+        <v/>
+      </c>
+      <c r="R70" s="30">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
+        <v/>
+      </c>
+      <c r="S70" s="32">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/SUM(F25:I25), "")</f>
+        <v/>
+      </c>
+      <c r="T70" s="33">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <v/>
+      </c>
+      <c r="U70" s="33">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
+        <v/>
+      </c>
+      <c r="V70" s="33">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
+        <v/>
+      </c>
+      <c r="W70" s="33" t="n">
+        <v>703.9400000000001</v>
+      </c>
+      <c r="X70" s="36" t="n">
+        <v>45806</v>
+      </c>
+      <c r="Y70" s="37">
+        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/SUM(F25:I25), "")</f>
+        <v/>
+      </c>
+      <c r="Z70" s="38" t="n">
+        <v>-5624.637</v>
+      </c>
+      <c r="AA70" s="38" t="n">
+        <v>5704.5</v>
+      </c>
+      <c r="AB70" s="39" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC70" s="30">
+        <f>IF(B25="DIV", F25,"")</f>
+        <v/>
+      </c>
+      <c r="AD70" s="35" t="n"/>
+      <c r="AE70" s="40" t="n"/>
+      <c r="AF70" s="40" t="n"/>
+      <c r="AG70" s="40" t="n"/>
+      <c r="AH70" s="40" t="n"/>
+      <c r="AI70" s="40" t="n"/>
+      <c r="AJ70" s="40" t="n"/>
+      <c r="AK70" s="40" t="n"/>
+      <c r="AL70" s="40" t="n"/>
+      <c r="AM70" s="40" t="n"/>
+      <c r="AN70" s="40" t="n"/>
+      <c r="AO70" s="40" t="n"/>
+      <c r="AP70" s="40" t="n"/>
     </row>
     <row r="71" ht="13" customHeight="1" s="62">
       <c r="E71" s="41" t="n"/>
@@ -19480,6 +19740,7 @@
       <c r="J994" s="41" t="n"/>
       <c r="K994" s="41" t="n"/>
       <c r="L994" s="41" t="n"/>
+      <c r="M994" s="1" t="n"/>
       <c r="W994" s="41" t="n"/>
       <c r="X994" s="41" t="n"/>
       <c r="Y994" s="41" t="n"/>
@@ -19495,6 +19756,7 @@
       <c r="J995" s="41" t="n"/>
       <c r="K995" s="41" t="n"/>
       <c r="L995" s="41" t="n"/>
+      <c r="M995" s="1" t="n"/>
       <c r="W995" s="41" t="n"/>
       <c r="X995" s="41" t="n"/>
       <c r="Y995" s="41" t="n"/>
@@ -19510,6 +19772,7 @@
       <c r="J996" s="41" t="n"/>
       <c r="K996" s="41" t="n"/>
       <c r="L996" s="41" t="n"/>
+      <c r="M996" s="1" t="n"/>
       <c r="W996" s="41" t="n"/>
       <c r="X996" s="41" t="n"/>
       <c r="Y996" s="41" t="n"/>
@@ -19525,6 +19788,7 @@
       <c r="J997" s="41" t="n"/>
       <c r="K997" s="41" t="n"/>
       <c r="L997" s="41" t="n"/>
+      <c r="M997" s="1" t="n"/>
       <c r="W997" s="41" t="n"/>
       <c r="X997" s="41" t="n"/>
       <c r="Y997" s="41" t="n"/>
@@ -19540,6 +19804,7 @@
       <c r="J998" s="41" t="n"/>
       <c r="K998" s="41" t="n"/>
       <c r="L998" s="41" t="n"/>
+      <c r="M998" s="1" t="n"/>
       <c r="W998" s="41" t="n"/>
       <c r="X998" s="41" t="n"/>
       <c r="Y998" s="41" t="n"/>
@@ -19555,6 +19820,7 @@
       <c r="J999" s="41" t="n"/>
       <c r="K999" s="41" t="n"/>
       <c r="L999" s="41" t="n"/>
+      <c r="M999" s="1" t="n"/>
       <c r="W999" s="41" t="n"/>
       <c r="X999" s="41" t="n"/>
       <c r="Y999" s="41" t="n"/>
@@ -19570,6 +19836,7 @@
       <c r="J1000" s="41" t="n"/>
       <c r="K1000" s="41" t="n"/>
       <c r="L1000" s="41" t="n"/>
+      <c r="M1000" s="1" t="n"/>
       <c r="W1000" s="41" t="n"/>
       <c r="X1000" s="41" t="n"/>
       <c r="Y1000" s="41" t="n"/>
@@ -19585,6 +19852,7 @@
       <c r="J1001" s="41" t="n"/>
       <c r="K1001" s="41" t="n"/>
       <c r="L1001" s="41" t="n"/>
+      <c r="M1001" s="1" t="n"/>
       <c r="W1001" s="41" t="n"/>
       <c r="X1001" s="41" t="n"/>
       <c r="Y1001" s="41" t="n"/>
@@ -19600,6 +19868,7 @@
       <c r="J1002" s="41" t="n"/>
       <c r="K1002" s="41" t="n"/>
       <c r="L1002" s="41" t="n"/>
+      <c r="M1002" s="1" t="n"/>
       <c r="W1002" s="41" t="n"/>
       <c r="X1002" s="41" t="n"/>
       <c r="Y1002" s="41" t="n"/>
@@ -19615,6 +19884,7 @@
       <c r="J1003" s="41" t="n"/>
       <c r="K1003" s="41" t="n"/>
       <c r="L1003" s="41" t="n"/>
+      <c r="M1003" s="1" t="n"/>
       <c r="W1003" s="41" t="n"/>
       <c r="X1003" s="41" t="n"/>
       <c r="Y1003" s="41" t="n"/>
@@ -19630,6 +19900,7 @@
       <c r="J1004" s="41" t="n"/>
       <c r="K1004" s="41" t="n"/>
       <c r="L1004" s="41" t="n"/>
+      <c r="M1004" s="1" t="n"/>
       <c r="W1004" s="41" t="n"/>
       <c r="X1004" s="41" t="n"/>
       <c r="Y1004" s="41" t="n"/>
@@ -19645,6 +19916,7 @@
       <c r="J1005" s="41" t="n"/>
       <c r="K1005" s="41" t="n"/>
       <c r="L1005" s="41" t="n"/>
+      <c r="M1005" s="1" t="n"/>
       <c r="W1005" s="41" t="n"/>
       <c r="X1005" s="41" t="n"/>
       <c r="Y1005" s="41" t="n"/>
@@ -19660,6 +19932,7 @@
       <c r="J1006" s="41" t="n"/>
       <c r="K1006" s="41" t="n"/>
       <c r="L1006" s="41" t="n"/>
+      <c r="M1006" s="1" t="n"/>
       <c r="W1006" s="41" t="n"/>
       <c r="X1006" s="41" t="n"/>
       <c r="Y1006" s="41" t="n"/>
@@ -19727,6 +20000,201 @@
       <c r="AA1010" s="41" t="n"/>
       <c r="AB1010" s="41" t="n"/>
       <c r="AC1010" s="41" t="n"/>
+    </row>
+    <row r="1011">
+      <c r="E1011" s="41" t="n"/>
+      <c r="F1011" s="41" t="n"/>
+      <c r="G1011" s="42" t="n"/>
+      <c r="J1011" s="41" t="n"/>
+      <c r="K1011" s="41" t="n"/>
+      <c r="L1011" s="41" t="n"/>
+      <c r="W1011" s="41" t="n"/>
+      <c r="X1011" s="41" t="n"/>
+      <c r="Y1011" s="41" t="n"/>
+      <c r="Z1011" s="41" t="n"/>
+      <c r="AA1011" s="41" t="n"/>
+      <c r="AB1011" s="41" t="n"/>
+      <c r="AC1011" s="41" t="n"/>
+    </row>
+    <row r="1012">
+      <c r="E1012" s="41" t="n"/>
+      <c r="F1012" s="41" t="n"/>
+      <c r="G1012" s="42" t="n"/>
+      <c r="J1012" s="41" t="n"/>
+      <c r="K1012" s="41" t="n"/>
+      <c r="L1012" s="41" t="n"/>
+      <c r="W1012" s="41" t="n"/>
+      <c r="X1012" s="41" t="n"/>
+      <c r="Y1012" s="41" t="n"/>
+      <c r="Z1012" s="41" t="n"/>
+      <c r="AA1012" s="41" t="n"/>
+      <c r="AB1012" s="41" t="n"/>
+      <c r="AC1012" s="41" t="n"/>
+    </row>
+    <row r="1013">
+      <c r="E1013" s="41" t="n"/>
+      <c r="F1013" s="41" t="n"/>
+      <c r="G1013" s="42" t="n"/>
+      <c r="J1013" s="41" t="n"/>
+      <c r="K1013" s="41" t="n"/>
+      <c r="L1013" s="41" t="n"/>
+      <c r="W1013" s="41" t="n"/>
+      <c r="X1013" s="41" t="n"/>
+      <c r="Y1013" s="41" t="n"/>
+      <c r="Z1013" s="41" t="n"/>
+      <c r="AA1013" s="41" t="n"/>
+      <c r="AB1013" s="41" t="n"/>
+      <c r="AC1013" s="41" t="n"/>
+    </row>
+    <row r="1014">
+      <c r="E1014" s="41" t="n"/>
+      <c r="F1014" s="41" t="n"/>
+      <c r="G1014" s="42" t="n"/>
+      <c r="J1014" s="41" t="n"/>
+      <c r="K1014" s="41" t="n"/>
+      <c r="L1014" s="41" t="n"/>
+      <c r="W1014" s="41" t="n"/>
+      <c r="X1014" s="41" t="n"/>
+      <c r="Y1014" s="41" t="n"/>
+      <c r="Z1014" s="41" t="n"/>
+      <c r="AA1014" s="41" t="n"/>
+      <c r="AB1014" s="41" t="n"/>
+      <c r="AC1014" s="41" t="n"/>
+    </row>
+    <row r="1015">
+      <c r="E1015" s="41" t="n"/>
+      <c r="F1015" s="41" t="n"/>
+      <c r="G1015" s="42" t="n"/>
+      <c r="J1015" s="41" t="n"/>
+      <c r="K1015" s="41" t="n"/>
+      <c r="L1015" s="41" t="n"/>
+      <c r="W1015" s="41" t="n"/>
+      <c r="X1015" s="41" t="n"/>
+      <c r="Y1015" s="41" t="n"/>
+      <c r="Z1015" s="41" t="n"/>
+      <c r="AA1015" s="41" t="n"/>
+      <c r="AB1015" s="41" t="n"/>
+      <c r="AC1015" s="41" t="n"/>
+    </row>
+    <row r="1016">
+      <c r="E1016" s="41" t="n"/>
+      <c r="F1016" s="41" t="n"/>
+      <c r="G1016" s="42" t="n"/>
+      <c r="J1016" s="41" t="n"/>
+      <c r="K1016" s="41" t="n"/>
+      <c r="L1016" s="41" t="n"/>
+      <c r="W1016" s="41" t="n"/>
+      <c r="X1016" s="41" t="n"/>
+      <c r="Y1016" s="41" t="n"/>
+      <c r="Z1016" s="41" t="n"/>
+      <c r="AA1016" s="41" t="n"/>
+      <c r="AB1016" s="41" t="n"/>
+      <c r="AC1016" s="41" t="n"/>
+    </row>
+    <row r="1017">
+      <c r="E1017" s="41" t="n"/>
+      <c r="F1017" s="41" t="n"/>
+      <c r="G1017" s="42" t="n"/>
+      <c r="J1017" s="41" t="n"/>
+      <c r="K1017" s="41" t="n"/>
+      <c r="L1017" s="41" t="n"/>
+      <c r="W1017" s="41" t="n"/>
+      <c r="X1017" s="41" t="n"/>
+      <c r="Y1017" s="41" t="n"/>
+      <c r="Z1017" s="41" t="n"/>
+      <c r="AA1017" s="41" t="n"/>
+      <c r="AB1017" s="41" t="n"/>
+      <c r="AC1017" s="41" t="n"/>
+    </row>
+    <row r="1018">
+      <c r="E1018" s="41" t="n"/>
+      <c r="F1018" s="41" t="n"/>
+      <c r="G1018" s="42" t="n"/>
+      <c r="J1018" s="41" t="n"/>
+      <c r="K1018" s="41" t="n"/>
+      <c r="L1018" s="41" t="n"/>
+      <c r="W1018" s="41" t="n"/>
+      <c r="X1018" s="41" t="n"/>
+      <c r="Y1018" s="41" t="n"/>
+      <c r="Z1018" s="41" t="n"/>
+      <c r="AA1018" s="41" t="n"/>
+      <c r="AB1018" s="41" t="n"/>
+      <c r="AC1018" s="41" t="n"/>
+    </row>
+    <row r="1019">
+      <c r="E1019" s="41" t="n"/>
+      <c r="F1019" s="41" t="n"/>
+      <c r="G1019" s="42" t="n"/>
+      <c r="J1019" s="41" t="n"/>
+      <c r="K1019" s="41" t="n"/>
+      <c r="L1019" s="41" t="n"/>
+      <c r="W1019" s="41" t="n"/>
+      <c r="X1019" s="41" t="n"/>
+      <c r="Y1019" s="41" t="n"/>
+      <c r="Z1019" s="41" t="n"/>
+      <c r="AA1019" s="41" t="n"/>
+      <c r="AB1019" s="41" t="n"/>
+      <c r="AC1019" s="41" t="n"/>
+    </row>
+    <row r="1020">
+      <c r="E1020" s="41" t="n"/>
+      <c r="F1020" s="41" t="n"/>
+      <c r="G1020" s="42" t="n"/>
+      <c r="J1020" s="41" t="n"/>
+      <c r="K1020" s="41" t="n"/>
+      <c r="L1020" s="41" t="n"/>
+      <c r="W1020" s="41" t="n"/>
+      <c r="X1020" s="41" t="n"/>
+      <c r="Y1020" s="41" t="n"/>
+      <c r="Z1020" s="41" t="n"/>
+      <c r="AA1020" s="41" t="n"/>
+      <c r="AB1020" s="41" t="n"/>
+      <c r="AC1020" s="41" t="n"/>
+    </row>
+    <row r="1021">
+      <c r="E1021" s="41" t="n"/>
+      <c r="F1021" s="41" t="n"/>
+      <c r="G1021" s="42" t="n"/>
+      <c r="J1021" s="41" t="n"/>
+      <c r="K1021" s="41" t="n"/>
+      <c r="L1021" s="41" t="n"/>
+      <c r="W1021" s="41" t="n"/>
+      <c r="X1021" s="41" t="n"/>
+      <c r="Y1021" s="41" t="n"/>
+      <c r="Z1021" s="41" t="n"/>
+      <c r="AA1021" s="41" t="n"/>
+      <c r="AB1021" s="41" t="n"/>
+      <c r="AC1021" s="41" t="n"/>
+    </row>
+    <row r="1022">
+      <c r="E1022" s="41" t="n"/>
+      <c r="F1022" s="41" t="n"/>
+      <c r="G1022" s="42" t="n"/>
+      <c r="J1022" s="41" t="n"/>
+      <c r="K1022" s="41" t="n"/>
+      <c r="L1022" s="41" t="n"/>
+      <c r="W1022" s="41" t="n"/>
+      <c r="X1022" s="41" t="n"/>
+      <c r="Y1022" s="41" t="n"/>
+      <c r="Z1022" s="41" t="n"/>
+      <c r="AA1022" s="41" t="n"/>
+      <c r="AB1022" s="41" t="n"/>
+      <c r="AC1022" s="41" t="n"/>
+    </row>
+    <row r="1023">
+      <c r="E1023" s="41" t="n"/>
+      <c r="F1023" s="41" t="n"/>
+      <c r="G1023" s="42" t="n"/>
+      <c r="J1023" s="41" t="n"/>
+      <c r="K1023" s="41" t="n"/>
+      <c r="L1023" s="41" t="n"/>
+      <c r="W1023" s="41" t="n"/>
+      <c r="X1023" s="41" t="n"/>
+      <c r="Y1023" s="41" t="n"/>
+      <c r="Z1023" s="41" t="n"/>
+      <c r="AA1023" s="41" t="n"/>
+      <c r="AB1023" s="41" t="n"/>
+      <c r="AC1023" s="41" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:AO53"/>

--- a/dumps/Stocks/High Energy Batteries (India) Ltd.xlsx
+++ b/dumps/Stocks/High Energy Batteries (India) Ltd.xlsx
@@ -720,7 +720,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP999"/>
+  <dimension ref="A1:AP1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1" s="63">
       <c r="A5" s="74" t="n">
-        <v>46066</v>
+        <v>46069</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1086,21 +1086,21 @@
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>547.25</v>
+        <v>558.55</v>
       </c>
       <c r="F5" t="n">
-        <v>2755.55</v>
+        <v>2812.45</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611910666</t>
+          <t>CN#252611972212</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2.764</v>
+        <v>2.8097</v>
       </c>
       <c r="I5" t="n">
-        <v>16.5341</v>
+        <v>16.8855</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1108,8 +1108,8 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" s="63">
-      <c r="A6" s="61" t="n">
-        <v>46063</v>
+      <c r="A6" s="74" t="n">
+        <v>46066</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1122,21 +1122,24 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>589.75</v>
+        <v>547.25</v>
       </c>
       <c r="F6" t="n">
-        <v>5927</v>
+        <v>2755.55</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CN#252611730667</t>
+          <t>CN#252611910666</t>
         </is>
       </c>
+      <c r="H6" t="n">
+        <v>2.764</v>
+      </c>
       <c r="I6" t="n">
-        <v>29.5</v>
+        <v>16.5341</v>
       </c>
       <c r="J6">
         <f>Index!$C$2</f>
@@ -1145,7 +1148,7 @@
     </row>
     <row r="7" ht="15.75" customHeight="1" s="63">
       <c r="A7" s="61" t="n">
-        <v>46050</v>
+        <v>46063</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1161,18 +1164,18 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>530</v>
+        <v>589.75</v>
       </c>
       <c r="F7" t="n">
-        <v>5326.5</v>
+        <v>5927</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>CN#252611091662</t>
+          <t>CN#252611730667</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>26.5</v>
+        <v>29.5</v>
       </c>
       <c r="J7">
         <f>Index!$C$2</f>
@@ -1181,7 +1184,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1" s="63">
       <c r="A8" s="61" t="n">
-        <v>46049</v>
+        <v>46050</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1194,21 +1197,21 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>534.7</v>
+        <v>530</v>
       </c>
       <c r="F8" t="n">
-        <v>2686.85</v>
+        <v>5326.5</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>CN#252611030591</t>
+          <t>CN#252611091662</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>13.35</v>
+        <v>26.5</v>
       </c>
       <c r="J8">
         <f>Index!$C$2</f>
@@ -1217,7 +1220,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1" s="63">
       <c r="A9" s="61" t="n">
-        <v>46042</v>
+        <v>46049</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1230,21 +1233,21 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>541</v>
+        <v>534.7</v>
       </c>
       <c r="F9" t="n">
-        <v>5437.1</v>
+        <v>2686.85</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>CN#252610779339</t>
+          <t>CN#252611030591</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>27.1</v>
+        <v>13.35</v>
       </c>
       <c r="J9">
         <f>Index!$C$2</f>
@@ -1253,7 +1256,7 @@
     </row>
     <row r="10" ht="15.75" customHeight="1" s="63">
       <c r="A10" s="61" t="n">
-        <v>46030</v>
+        <v>46042</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1269,18 +1272,18 @@
         <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>563.85</v>
+        <v>541</v>
       </c>
       <c r="F10" t="n">
-        <v>5666.7</v>
+        <v>5437.1</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>CN#252610347614</t>
+          <t>CN#252610779339</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>28.2</v>
+        <v>27.1</v>
       </c>
       <c r="J10">
         <f>Index!$C$2</f>
@@ -1289,7 +1292,7 @@
     </row>
     <row r="11" ht="15.75" customHeight="1" s="63">
       <c r="A11" s="61" t="n">
-        <v>46017</v>
+        <v>46030</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1305,18 +1308,18 @@
         <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>545.525</v>
+        <v>563.85</v>
       </c>
       <c r="F11" t="n">
-        <v>5482.55</v>
+        <v>5666.7</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>CN#252609810990</t>
+          <t>CN#252610347614</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>27.3</v>
+        <v>28.2</v>
       </c>
       <c r="J11">
         <f>Index!$C$2</f>
@@ -1325,7 +1328,7 @@
     </row>
     <row r="12" ht="15.75" customHeight="1" s="63">
       <c r="A12" s="61" t="n">
-        <v>46015</v>
+        <v>46017</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1341,14 +1344,14 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>545.25</v>
+        <v>545.525</v>
       </c>
       <c r="F12" t="n">
-        <v>5479.8</v>
+        <v>5482.55</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>CN#252609755521</t>
+          <t>CN#252609810990</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1361,7 +1364,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1" s="63">
       <c r="A13" s="61" t="n">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1377,18 +1380,18 @@
         <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>548.9</v>
+        <v>545.25</v>
       </c>
       <c r="F13" t="n">
-        <v>5516.4</v>
+        <v>5479.8</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>CN#252609701573</t>
+          <t>CN#252609755521</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="J13">
         <f>Index!$C$2</f>
@@ -1397,7 +1400,7 @@
     </row>
     <row r="14" ht="15.75" customHeight="1" s="63">
       <c r="A14" s="61" t="n">
-        <v>46007</v>
+        <v>46014</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1413,18 +1416,18 @@
         <v>10</v>
       </c>
       <c r="E14" t="n">
-        <v>541.3</v>
+        <v>548.9</v>
       </c>
       <c r="F14" t="n">
-        <v>5440.1</v>
+        <v>5516.4</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>CN#252609425003</t>
+          <t>CN#252609701573</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="J14">
         <f>Index!$C$2</f>
@@ -1433,7 +1436,7 @@
     </row>
     <row r="15" ht="15.75" customHeight="1" s="63">
       <c r="A15" s="61" t="n">
-        <v>46002</v>
+        <v>46007</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1446,21 +1449,21 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E15" t="n">
-        <v>547.9</v>
+        <v>541.3</v>
       </c>
       <c r="F15" t="n">
-        <v>2753.2</v>
+        <v>5440.1</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>CN#252609267726</t>
+          <t>CN#252609425003</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>13.7</v>
+        <v>27.1</v>
       </c>
       <c r="J15">
         <f>Index!$C$2</f>
@@ -1469,7 +1472,7 @@
     </row>
     <row r="16" ht="15.75" customHeight="1" s="63">
       <c r="A16" s="61" t="n">
-        <v>46000</v>
+        <v>46002</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1482,21 +1485,21 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E16" t="n">
-        <v>560.975</v>
+        <v>547.9</v>
       </c>
       <c r="F16" t="n">
-        <v>5637.8</v>
+        <v>2753.2</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>CN#252609157599</t>
+          <t>CN#252609267726</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>28.05</v>
+        <v>13.7</v>
       </c>
       <c r="J16">
         <f>Index!$C$2</f>
@@ -1505,7 +1508,7 @@
     </row>
     <row r="17" ht="15.75" customHeight="1" s="63">
       <c r="A17" s="61" t="n">
-        <v>45996</v>
+        <v>46000</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1521,18 +1524,18 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>573.95</v>
+        <v>560.975</v>
       </c>
       <c r="F17" t="n">
-        <v>5768.2</v>
+        <v>5637.8</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>CN#252609039305</t>
+          <t>CN#252609157599</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>28.7</v>
+        <v>28.05</v>
       </c>
       <c r="J17">
         <f>Index!$C$2</f>
@@ -1541,7 +1544,7 @@
     </row>
     <row r="18" ht="15.75" customHeight="1" s="63">
       <c r="A18" s="61" t="n">
-        <v>45989</v>
+        <v>45996</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1554,21 +1557,21 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>586.95</v>
+        <v>573.95</v>
       </c>
       <c r="F18" t="n">
-        <v>2949.4</v>
+        <v>5768.2</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>CN#252608755594</t>
+          <t>CN#252609039305</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>14.65</v>
+        <v>28.7</v>
       </c>
       <c r="J18">
         <f>Index!$C$2</f>
@@ -1577,7 +1580,7 @@
     </row>
     <row r="19" ht="15.75" customHeight="1" s="63">
       <c r="A19" s="61" t="n">
-        <v>45982</v>
+        <v>45989</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1593,18 +1596,18 @@
         <v>5</v>
       </c>
       <c r="E19" t="n">
-        <v>621</v>
+        <v>586.95</v>
       </c>
       <c r="F19" t="n">
-        <v>3120.55</v>
+        <v>2949.4</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>CN#252608495287</t>
+          <t>CN#252608755594</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>15.55</v>
+        <v>14.65</v>
       </c>
       <c r="J19">
         <f>Index!$C$2</f>
@@ -1613,7 +1616,7 @@
     </row>
     <row r="20" ht="15.75" customHeight="1" s="63">
       <c r="A20" s="61" t="n">
-        <v>45979</v>
+        <v>45982</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1629,18 +1632,18 @@
         <v>5</v>
       </c>
       <c r="E20" t="n">
-        <v>623.66</v>
+        <v>621</v>
       </c>
       <c r="F20" t="n">
-        <v>3133.87</v>
+        <v>3120.55</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>CN#252608322011</t>
+          <t>CN#252608495287</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>15.57</v>
+        <v>15.55</v>
       </c>
       <c r="J20">
         <f>Index!$C$2</f>
@@ -1649,7 +1652,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1" s="63">
       <c r="A21" s="61" t="n">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1665,18 +1668,18 @@
         <v>5</v>
       </c>
       <c r="E21" t="n">
-        <v>657.58</v>
+        <v>623.66</v>
       </c>
       <c r="F21" t="n">
-        <v>3304.35</v>
+        <v>3133.87</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>CN#252608260909</t>
+          <t>CN#252608322011</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>16.45</v>
+        <v>15.57</v>
       </c>
       <c r="J21">
         <f>Index!$C$2</f>
@@ -1685,7 +1688,7 @@
     </row>
     <row r="22" ht="15.75" customHeight="1" s="63">
       <c r="A22" s="61" t="n">
-        <v>45961</v>
+        <v>45978</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1701,18 +1704,18 @@
         <v>5</v>
       </c>
       <c r="E22" t="n">
-        <v>596.15</v>
+        <v>657.58</v>
       </c>
       <c r="F22" t="n">
-        <v>2995.65</v>
+        <v>3304.35</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>CN#252607606298</t>
+          <t>CN#252608260909</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>14.9</v>
+        <v>16.45</v>
       </c>
       <c r="J22">
         <f>Index!$C$2</f>
@@ -1721,7 +1724,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1" s="63">
       <c r="A23" s="61" t="n">
-        <v>45960</v>
+        <v>45961</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1734,14 +1737,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E23" t="n">
         <v>596.15</v>
       </c>
-      <c r="F23">
-        <f>D22*E22</f>
-        <v/>
+      <c r="F23" t="n">
+        <v>2995.65</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1758,7 +1760,7 @@
     </row>
     <row r="24" ht="15.75" customHeight="1" s="63">
       <c r="A24" s="61" t="n">
-        <v>45957</v>
+        <v>45960</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1771,21 +1773,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E24" t="n">
-        <v>607.4</v>
-      </c>
-      <c r="F24" t="n">
-        <v>6104.4</v>
+        <v>596.15</v>
+      </c>
+      <c r="F24">
+        <f>D22*E22</f>
+        <v/>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>CN#252607382790</t>
+          <t>CN#252607606298</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>30.4</v>
+        <v>14.9</v>
       </c>
       <c r="J24">
         <f>Index!$C$2</f>
@@ -1794,7 +1797,7 @@
     </row>
     <row r="25" ht="15.75" customHeight="1" s="63">
       <c r="A25" s="61" t="n">
-        <v>45967</v>
+        <v>45957</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1810,125 +1813,63 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
+        <v>607.4</v>
+      </c>
+      <c r="F25" t="n">
+        <v>6104.4</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>CN#252607382790</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J25">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1" s="63">
+      <c r="A26" s="61" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>10</v>
+      </c>
+      <c r="E26" t="n">
         <v>570.45</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F26" t="n">
         <v>5733</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>CN#252607785263</t>
         </is>
       </c>
-      <c r="I25" t="n">
+      <c r="I26" t="n">
         <v>28.5</v>
       </c>
-      <c r="J25">
+      <c r="J26">
         <f>Index!$C$2</f>
         <v/>
       </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1" s="63">
-      <c r="A26" s="25" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B26" s="26" t="inlineStr">
-        <is>
-          <t>BSE</t>
-        </is>
-      </c>
-      <c r="C26" s="26" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D26" s="27" t="n">
-        <v>10</v>
-      </c>
-      <c r="E26" s="28" t="n">
-        <v>646.22</v>
-      </c>
-      <c r="F26" s="28">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G26" s="26" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H26" s="27" t="n"/>
-      <c r="I26" s="27" t="n"/>
-      <c r="J26" s="29">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K26" s="30">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/SUM(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L26" s="31">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M26" s="31">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N26" s="32">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O26" s="30">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/SUM(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P26" s="31">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q26" s="31">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R26" s="31">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S26" s="33">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/SUM(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T26" s="34">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U26" s="34">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V26" s="34">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W26" s="34" t="n"/>
-      <c r="X26" s="34" t="n"/>
-      <c r="Y26" s="33">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/SUM(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z26" s="34" t="n"/>
-      <c r="AA26" s="34" t="n"/>
-      <c r="AB26" s="35" t="n"/>
-      <c r="AC26" s="31">
-        <f>IF(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD26" s="36" t="n"/>
     </row>
     <row r="27" ht="15.75" customHeight="1" s="63">
       <c r="A27" s="25" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B27" s="26" t="inlineStr">
         <is>
@@ -1944,10 +1885,10 @@
         <v>10</v>
       </c>
       <c r="E27" s="28" t="n">
-        <v>615.52</v>
+        <v>646.22</v>
       </c>
       <c r="F27" s="28">
-        <f>D6*E6</f>
+        <f>D5*E5</f>
         <v/>
       </c>
       <c r="G27" s="26" t="inlineStr">
@@ -1962,71 +1903,71 @@
         <v/>
       </c>
       <c r="K27" s="30">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/SUM(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/SUM(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L27" s="31">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M27" s="31">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N27" s="32">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O27" s="30">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/SUM(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/SUM(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P27" s="31">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q27" s="31">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R27" s="31">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S27" s="33">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/SUM(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/SUM(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T27" s="34">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U27" s="34">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V27" s="34">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W27" s="34" t="n"/>
       <c r="X27" s="34" t="n"/>
       <c r="Y27" s="33">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/SUM(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/SUM(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z27" s="34" t="n"/>
       <c r="AA27" s="34" t="n"/>
       <c r="AB27" s="35" t="n"/>
       <c r="AC27" s="31">
-        <f>IF(B6="DIV", F6,"")</f>
+        <f>IF(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD27" s="36" t="n"/>
     </row>
     <row r="28" ht="15.75" customHeight="1" s="63">
-      <c r="A28" s="37" t="n">
-        <v>45807</v>
+      <c r="A28" s="25" t="n">
+        <v>45947</v>
       </c>
       <c r="B28" s="26" t="inlineStr">
         <is>
@@ -2035,17 +1976,17 @@
       </c>
       <c r="C28" s="26" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D28" s="27" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E28" s="28" t="n">
-        <v>714.28</v>
+        <v>615.52</v>
       </c>
       <c r="F28" s="28">
-        <f>D7*E7</f>
+        <f>D6*E6</f>
         <v/>
       </c>
       <c r="G28" s="26" t="inlineStr">
@@ -2060,71 +2001,71 @@
         <v/>
       </c>
       <c r="K28" s="30">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/SUM(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/SUM(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L28" s="31">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M28" s="31">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N28" s="32">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O28" s="30">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/SUM(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/SUM(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P28" s="31">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q28" s="31">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R28" s="31">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S28" s="33">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/SUM(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/SUM(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T28" s="34">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U28" s="34">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V28" s="34">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W28" s="34" t="n"/>
       <c r="X28" s="34" t="n"/>
       <c r="Y28" s="33">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/SUM(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/SUM(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z28" s="34" t="n"/>
       <c r="AA28" s="34" t="n"/>
       <c r="AB28" s="35" t="n"/>
       <c r="AC28" s="31">
-        <f>IF(B7="DIV", F7,"")</f>
+        <f>IF(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD28" s="36" t="n"/>
     </row>
     <row r="29" ht="15.75" customHeight="1" s="63">
       <c r="A29" s="37" t="n">
-        <v>45806</v>
+        <v>45807</v>
       </c>
       <c r="B29" s="26" t="inlineStr">
         <is>
@@ -2137,13 +2078,13 @@
         </is>
       </c>
       <c r="D29" s="27" t="n">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="E29" s="28" t="n">
-        <v>699.39</v>
+        <v>714.28</v>
       </c>
       <c r="F29" s="28">
-        <f>D8*E8</f>
+        <f>D7*E7</f>
         <v/>
       </c>
       <c r="G29" s="26" t="inlineStr">
@@ -2158,64 +2099,64 @@
         <v/>
       </c>
       <c r="K29" s="30">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/SUM(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/SUM(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L29" s="31">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M29" s="31">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N29" s="32">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O29" s="30">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/SUM(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/SUM(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P29" s="31">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q29" s="31">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R29" s="31">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S29" s="33">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/SUM(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/SUM(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T29" s="34">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U29" s="34">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V29" s="34">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W29" s="34" t="n"/>
       <c r="X29" s="34" t="n"/>
       <c r="Y29" s="33">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/SUM(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/SUM(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z29" s="34" t="n"/>
       <c r="AA29" s="34" t="n"/>
       <c r="AB29" s="35" t="n"/>
       <c r="AC29" s="31">
-        <f>IF(B8="DIV", F8,"")</f>
+        <f>IF(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD29" s="36" t="n"/>
@@ -2235,13 +2176,13 @@
         </is>
       </c>
       <c r="D30" s="27" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E30" s="28" t="n">
-        <v>702.78</v>
+        <v>699.39</v>
       </c>
       <c r="F30" s="28">
-        <f>D9*E9</f>
+        <f>D8*E8</f>
         <v/>
       </c>
       <c r="G30" s="26" t="inlineStr">
@@ -2256,64 +2197,64 @@
         <v/>
       </c>
       <c r="K30" s="30">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/SUM(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/SUM(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L30" s="31">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M30" s="31">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N30" s="32">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O30" s="30">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/SUM(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/SUM(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P30" s="31">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q30" s="31">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R30" s="31">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S30" s="33">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/SUM(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/SUM(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T30" s="34">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U30" s="34">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V30" s="34">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W30" s="34" t="n"/>
       <c r="X30" s="34" t="n"/>
       <c r="Y30" s="33">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/SUM(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/SUM(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z30" s="34" t="n"/>
       <c r="AA30" s="34" t="n"/>
       <c r="AB30" s="35" t="n"/>
       <c r="AC30" s="31">
-        <f>IF(B9="DIV", F9,"")</f>
+        <f>IF(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD30" s="36" t="n"/>
@@ -2333,13 +2274,13 @@
         </is>
       </c>
       <c r="D31" s="27" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E31" s="28" t="n">
-        <v>699.29</v>
+        <v>702.78</v>
       </c>
       <c r="F31" s="28">
-        <f>D10*E10</f>
+        <f>D9*E9</f>
         <v/>
       </c>
       <c r="G31" s="26" t="inlineStr">
@@ -2354,71 +2295,71 @@
         <v/>
       </c>
       <c r="K31" s="30">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/SUM(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/SUM(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L31" s="31">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M31" s="31">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N31" s="32">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O31" s="30">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/SUM(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/SUM(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P31" s="31">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q31" s="31">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R31" s="31">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S31" s="33">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/SUM(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/SUM(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T31" s="34">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U31" s="34">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V31" s="34">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W31" s="34" t="n"/>
       <c r="X31" s="34" t="n"/>
       <c r="Y31" s="33">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/SUM(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/SUM(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z31" s="34" t="n"/>
       <c r="AA31" s="34" t="n"/>
       <c r="AB31" s="35" t="n"/>
       <c r="AC31" s="31">
-        <f>IF(B10="DIV", F10,"")</f>
+        <f>IF(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD31" s="36" t="n"/>
     </row>
     <row r="32" ht="15.75" customHeight="1" s="63">
       <c r="A32" s="37" t="n">
-        <v>45712</v>
+        <v>45806</v>
       </c>
       <c r="B32" s="26" t="inlineStr">
         <is>
@@ -2427,116 +2368,92 @@
       </c>
       <c r="C32" s="26" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D32" s="27" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E32" s="28" t="n">
-        <v>484.4</v>
-      </c>
-      <c r="F32" s="28" t="n">
-        <v>968.8099999999999</v>
+        <v>699.29</v>
+      </c>
+      <c r="F32" s="28">
+        <f>D10*E10</f>
+        <v/>
       </c>
       <c r="G32" s="26" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H32" s="27" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="I32" s="27" t="n">
-        <v>6.94</v>
-      </c>
+      <c r="H32" s="27" t="n"/>
+      <c r="I32" s="27" t="n"/>
       <c r="J32" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K32" s="30">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/SUM(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/SUM(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L32" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M32" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N32" s="32">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O32" s="30">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/SUM(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/SUM(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P32" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q32" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R32" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S32" s="33">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/SUM(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/SUM(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T32" s="34">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U32" s="34">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V32" s="34">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
-        <v/>
-      </c>
-      <c r="W32" s="34" t="n">
-        <v>703.9400000000001</v>
-      </c>
-      <c r="X32" s="37" t="n">
-        <v>45806</v>
-      </c>
-      <c r="Y32" s="38" t="n">
-        <v>0.4432517815</v>
-      </c>
-      <c r="Z32" s="39" t="n">
-        <v>432.93288</v>
-      </c>
-      <c r="AA32" s="39" t="n">
-        <v>1401.73288</v>
-      </c>
-      <c r="AB32" s="40" t="n">
-        <v>2</v>
-      </c>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <v/>
+      </c>
+      <c r="W32" s="34" t="n"/>
+      <c r="X32" s="34" t="n"/>
+      <c r="Y32" s="33">
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/SUM(F10:I10), "")</f>
+        <v/>
+      </c>
+      <c r="Z32" s="34" t="n"/>
+      <c r="AA32" s="34" t="n"/>
+      <c r="AB32" s="35" t="n"/>
       <c r="AC32" s="31">
-        <f>IF(B11="DIV", F11,"")</f>
+        <f>IF(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD32" s="36" t="n"/>
-      <c r="AE32" s="41" t="n"/>
-      <c r="AF32" s="41" t="n"/>
-      <c r="AG32" s="41" t="n"/>
-      <c r="AH32" s="41" t="n"/>
-      <c r="AI32" s="41" t="n"/>
-      <c r="AJ32" s="41" t="n"/>
-      <c r="AK32" s="41" t="n"/>
-      <c r="AL32" s="41" t="n"/>
-      <c r="AM32" s="41" t="n"/>
-      <c r="AN32" s="41" t="n"/>
-      <c r="AO32" s="41" t="n"/>
-      <c r="AP32" s="41" t="n"/>
     </row>
     <row r="33" ht="15.75" customHeight="1" s="63">
       <c r="A33" s="37" t="n">
@@ -2556,10 +2473,10 @@
         <v>2</v>
       </c>
       <c r="E33" s="28" t="n">
-        <v>486.42</v>
+        <v>484.4</v>
       </c>
       <c r="F33" s="28" t="n">
-        <v>972.83</v>
+        <v>968.8099999999999</v>
       </c>
       <c r="G33" s="26" t="inlineStr">
         <is>
@@ -2570,58 +2487,58 @@
         <v>0.97</v>
       </c>
       <c r="I33" s="27" t="n">
-        <v>6.96</v>
+        <v>6.94</v>
       </c>
       <c r="J33" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K33" s="30">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/SUM(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/SUM(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L33" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M33" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N33" s="32">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O33" s="30">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/SUM(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/SUM(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P33" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q33" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R33" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S33" s="33">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/SUM(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/SUM(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T33" s="34">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U33" s="34">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V33" s="34">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W33" s="34" t="n">
@@ -2631,19 +2548,19 @@
         <v>45806</v>
       </c>
       <c r="Y33" s="38" t="n">
-        <v>0.4373643297</v>
+        <v>0.4432517815</v>
       </c>
       <c r="Z33" s="39" t="n">
-        <v>428.94944</v>
+        <v>432.93288</v>
       </c>
       <c r="AA33" s="39" t="n">
-        <v>1401.78944</v>
+        <v>1401.73288</v>
       </c>
       <c r="AB33" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AC33" s="31">
-        <f>IF(B12="DIV", F12,"")</f>
+        <f>IF(B11="DIV", F11,"")</f>
         <v/>
       </c>
       <c r="AD33" s="36" t="n"/>
@@ -2678,10 +2595,10 @@
         <v>2</v>
       </c>
       <c r="E34" s="28" t="n">
-        <v>485.17</v>
+        <v>486.42</v>
       </c>
       <c r="F34" s="28" t="n">
-        <v>970.33</v>
+        <v>972.83</v>
       </c>
       <c r="G34" s="26" t="inlineStr">
         <is>
@@ -2699,51 +2616,51 @@
         <v/>
       </c>
       <c r="K34" s="30">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/SUM(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/SUM(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L34" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M34" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N34" s="32">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O34" s="30">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/SUM(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/SUM(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P34" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q34" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R34" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S34" s="33">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/SUM(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/SUM(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T34" s="34">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U34" s="34">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V34" s="34">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W34" s="34" t="n">
@@ -2753,19 +2670,19 @@
         <v>45806</v>
       </c>
       <c r="Y34" s="38" t="n">
-        <v>0.4410018196</v>
+        <v>0.4373643297</v>
       </c>
       <c r="Z34" s="39" t="n">
-        <v>431.41444</v>
+        <v>428.94944</v>
       </c>
       <c r="AA34" s="39" t="n">
-        <v>1401.75444</v>
+        <v>1401.78944</v>
       </c>
       <c r="AB34" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AC34" s="31">
-        <f>IF(B13="DIV", F13,"")</f>
+        <f>IF(B12="DIV", F12,"")</f>
         <v/>
       </c>
       <c r="AD34" s="36" t="n"/>
@@ -2800,10 +2717,10 @@
         <v>2</v>
       </c>
       <c r="E35" s="28" t="n">
-        <v>485.42</v>
+        <v>485.17</v>
       </c>
       <c r="F35" s="28" t="n">
-        <v>970.83</v>
+        <v>970.33</v>
       </c>
       <c r="G35" s="26" t="inlineStr">
         <is>
@@ -2821,51 +2738,51 @@
         <v/>
       </c>
       <c r="K35" s="30">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/SUM(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/SUM(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L35" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M35" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N35" s="32">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O35" s="30">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/SUM(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/SUM(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P35" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q35" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R35" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S35" s="33">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/SUM(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/SUM(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T35" s="34">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U35" s="34">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V35" s="34">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W35" s="34" t="n">
@@ -2875,19 +2792,19 @@
         <v>45806</v>
       </c>
       <c r="Y35" s="38" t="n">
-        <v>0.440272835</v>
+        <v>0.4410018196</v>
       </c>
       <c r="Z35" s="39" t="n">
-        <v>430.92144</v>
+        <v>431.41444</v>
       </c>
       <c r="AA35" s="39" t="n">
-        <v>1401.76144</v>
+        <v>1401.75444</v>
       </c>
       <c r="AB35" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AC35" s="31">
-        <f>IF(B14="DIV", F14,"")</f>
+        <f>IF(B13="DIV", F13,"")</f>
         <v/>
       </c>
       <c r="AD35" s="36" t="n"/>
@@ -2922,10 +2839,10 @@
         <v>2</v>
       </c>
       <c r="E36" s="28" t="n">
-        <v>484.15</v>
+        <v>485.42</v>
       </c>
       <c r="F36" s="28" t="n">
-        <v>968.3099999999999</v>
+        <v>970.83</v>
       </c>
       <c r="G36" s="26" t="inlineStr">
         <is>
@@ -2936,58 +2853,58 @@
         <v>0.97</v>
       </c>
       <c r="I36" s="27" t="n">
-        <v>6.94</v>
+        <v>6.96</v>
       </c>
       <c r="J36" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K36" s="30">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/SUM(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/SUM(F14:I14), "")</f>
         <v/>
       </c>
       <c r="L36" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="M36" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
         <v/>
       </c>
       <c r="N36" s="32">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O36" s="30">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/SUM(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/SUM(F14:I14), "")</f>
         <v/>
       </c>
       <c r="P36" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="Q36" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
         <v/>
       </c>
       <c r="R36" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S36" s="33">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/SUM(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/SUM(F14:I14), "")</f>
         <v/>
       </c>
       <c r="T36" s="34">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="U36" s="34">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
         <v/>
       </c>
       <c r="V36" s="34">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W36" s="34" t="n">
@@ -2997,19 +2914,19 @@
         <v>45806</v>
       </c>
       <c r="Y36" s="38" t="n">
-        <v>0.4439838151</v>
+        <v>0.440272835</v>
       </c>
       <c r="Z36" s="39" t="n">
-        <v>433.42588</v>
+        <v>430.92144</v>
       </c>
       <c r="AA36" s="39" t="n">
-        <v>1401.72588</v>
+        <v>1401.76144</v>
       </c>
       <c r="AB36" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AC36" s="31">
-        <f>IF(B15="DIV", F15,"")</f>
+        <f>IF(B14="DIV", F14,"")</f>
         <v/>
       </c>
       <c r="AD36" s="36" t="n"/>
@@ -3041,13 +2958,13 @@
         </is>
       </c>
       <c r="D37" s="27" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E37" s="28" t="n">
-        <v>490.95</v>
+        <v>484.15</v>
       </c>
       <c r="F37" s="28" t="n">
-        <v>13746.59</v>
+        <v>968.3099999999999</v>
       </c>
       <c r="G37" s="26" t="inlineStr">
         <is>
@@ -3055,61 +2972,61 @@
         </is>
       </c>
       <c r="H37" s="27" t="n">
-        <v>13.53</v>
+        <v>0.97</v>
       </c>
       <c r="I37" s="27" t="n">
-        <v>98.45999999999999</v>
+        <v>6.94</v>
       </c>
       <c r="J37" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K37" s="30">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/SUM(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/SUM(F15:I15), "")</f>
         <v/>
       </c>
       <c r="L37" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="M37" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
         <v/>
       </c>
       <c r="N37" s="32">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O37" s="30">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/SUM(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/SUM(F15:I15), "")</f>
         <v/>
       </c>
       <c r="P37" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="Q37" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
         <v/>
       </c>
       <c r="R37" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S37" s="33">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/SUM(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/SUM(F15:I15), "")</f>
         <v/>
       </c>
       <c r="T37" s="34">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="U37" s="34">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
         <v/>
       </c>
       <c r="V37" s="34">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W37" s="34" t="n">
@@ -3119,19 +3036,19 @@
         <v>45806</v>
       </c>
       <c r="Y37" s="38" t="n">
-        <v>0.4243023398</v>
+        <v>0.4439838151</v>
       </c>
       <c r="Z37" s="39" t="n">
-        <v>5880.22792</v>
+        <v>433.42588</v>
       </c>
       <c r="AA37" s="39" t="n">
-        <v>19626.82792</v>
+        <v>1401.72588</v>
       </c>
       <c r="AB37" s="40" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="AC37" s="31">
-        <f>IF(B16="DIV", F16,"")</f>
+        <f>IF(B15="DIV", F15,"")</f>
         <v/>
       </c>
       <c r="AD37" s="36" t="n"/>
@@ -3163,13 +3080,13 @@
         </is>
       </c>
       <c r="D38" s="27" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E38" s="28" t="n">
-        <v>484.9</v>
+        <v>490.95</v>
       </c>
       <c r="F38" s="28" t="n">
-        <v>969.8099999999999</v>
+        <v>13746.59</v>
       </c>
       <c r="G38" s="26" t="inlineStr">
         <is>
@@ -3177,61 +3094,61 @@
         </is>
       </c>
       <c r="H38" s="27" t="n">
-        <v>0.97</v>
+        <v>13.53</v>
       </c>
       <c r="I38" s="27" t="n">
-        <v>6.94</v>
+        <v>98.45999999999999</v>
       </c>
       <c r="J38" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K38" s="30">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L38" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M38" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N38" s="32">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O38" s="30">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P38" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q38" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R38" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S38" s="33">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T38" s="34">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U38" s="34">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V38" s="34">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W38" s="34" t="n">
@@ -3241,19 +3158,19 @@
         <v>45806</v>
       </c>
       <c r="Y38" s="38" t="n">
-        <v>0.4417899603</v>
+        <v>0.4243023398</v>
       </c>
       <c r="Z38" s="39" t="n">
-        <v>431.94688</v>
+        <v>5880.22792</v>
       </c>
       <c r="AA38" s="39" t="n">
-        <v>1401.74688</v>
+        <v>19626.82792</v>
       </c>
       <c r="AB38" s="40" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="AC38" s="31">
-        <f>IF(B17="DIV", F17,"")</f>
+        <f>IF(B16="DIV", F16,"")</f>
         <v/>
       </c>
       <c r="AD38" s="36" t="n"/>
@@ -3288,10 +3205,10 @@
         <v>2</v>
       </c>
       <c r="E39" s="28" t="n">
-        <v>485.67</v>
+        <v>484.9</v>
       </c>
       <c r="F39" s="28" t="n">
-        <v>971.33</v>
+        <v>969.8099999999999</v>
       </c>
       <c r="G39" s="26" t="inlineStr">
         <is>
@@ -3302,58 +3219,58 @@
         <v>0.97</v>
       </c>
       <c r="I39" s="27" t="n">
-        <v>6.96</v>
+        <v>6.94</v>
       </c>
       <c r="J39" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K39" s="30">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="L39" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="M39" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
         <v/>
       </c>
       <c r="N39" s="32">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
         <v/>
       </c>
       <c r="O39" s="30">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="P39" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="Q39" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
         <v/>
       </c>
       <c r="R39" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="S39" s="33">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="T39" s="34">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="U39" s="34">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
         <v/>
       </c>
       <c r="V39" s="34">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="W39" s="34" t="n">
@@ -3363,19 +3280,19 @@
         <v>45806</v>
       </c>
       <c r="Y39" s="38" t="n">
-        <v>0.4395445949</v>
+        <v>0.4417899603</v>
       </c>
       <c r="Z39" s="39" t="n">
-        <v>430.42844</v>
+        <v>431.94688</v>
       </c>
       <c r="AA39" s="39" t="n">
-        <v>1401.76844</v>
+        <v>1401.74688</v>
       </c>
       <c r="AB39" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AC39" s="31">
-        <f>IF(B18="DIV", F18,"")</f>
+        <f>IF(B17="DIV", F17,"")</f>
         <v/>
       </c>
       <c r="AD39" s="36" t="n"/>
@@ -3410,10 +3327,10 @@
         <v>2</v>
       </c>
       <c r="E40" s="28" t="n">
-        <v>485.92</v>
+        <v>485.67</v>
       </c>
       <c r="F40" s="28" t="n">
-        <v>971.83</v>
+        <v>971.33</v>
       </c>
       <c r="G40" s="26" t="inlineStr">
         <is>
@@ -3431,51 +3348,51 @@
         <v/>
       </c>
       <c r="K40" s="30">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="L40" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M40" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N40" s="32">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O40" s="30">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="P40" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q40" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R40" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S40" s="33">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="T40" s="34">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="U40" s="34">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V40" s="34">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="W40" s="34" t="n">
@@ -3485,19 +3402,19 @@
         <v>45806</v>
       </c>
       <c r="Y40" s="38" t="n">
-        <v>0.4388170981</v>
+        <v>0.4395445949</v>
       </c>
       <c r="Z40" s="39" t="n">
-        <v>429.93544</v>
+        <v>430.42844</v>
       </c>
       <c r="AA40" s="39" t="n">
-        <v>1401.77544</v>
+        <v>1401.76844</v>
       </c>
       <c r="AB40" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AC40" s="31">
-        <f>IF(B19="DIV", F19,"")</f>
+        <f>IF(B18="DIV", F18,"")</f>
         <v/>
       </c>
       <c r="AD40" s="36" t="n"/>
@@ -3532,10 +3449,10 @@
         <v>2</v>
       </c>
       <c r="E41" s="28" t="n">
-        <v>483.95</v>
+        <v>485.92</v>
       </c>
       <c r="F41" s="28" t="n">
-        <v>967.91</v>
+        <v>971.83</v>
       </c>
       <c r="G41" s="26" t="inlineStr">
         <is>
@@ -3546,58 +3463,58 @@
         <v>0.97</v>
       </c>
       <c r="I41" s="27" t="n">
-        <v>6.94</v>
+        <v>6.96</v>
       </c>
       <c r="J41" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K41" s="30">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="L41" s="31">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M41" s="31">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N41" s="32">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O41" s="30">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="P41" s="31">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q41" s="31">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R41" s="31">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S41" s="33">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="T41" s="34">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="U41" s="34">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V41" s="34">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="W41" s="34" t="n">
@@ -3607,19 +3524,19 @@
         <v>45806</v>
       </c>
       <c r="Y41" s="38" t="n">
-        <v>0.4445699822</v>
+        <v>0.4388170981</v>
       </c>
       <c r="Z41" s="39" t="n">
-        <v>433.82028</v>
+        <v>429.93544</v>
       </c>
       <c r="AA41" s="39" t="n">
-        <v>1401.72028</v>
+        <v>1401.77544</v>
       </c>
       <c r="AB41" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AC41" s="31">
-        <f>IF(B20="DIV", F20,"")</f>
+        <f>IF(B19="DIV", F19,"")</f>
         <v/>
       </c>
       <c r="AD41" s="36" t="n"/>
@@ -3654,10 +3571,10 @@
         <v>2</v>
       </c>
       <c r="E42" s="28" t="n">
-        <v>484.65</v>
+        <v>483.95</v>
       </c>
       <c r="F42" s="28" t="n">
-        <v>969.3099999999999</v>
+        <v>967.91</v>
       </c>
       <c r="G42" s="26" t="inlineStr">
         <is>
@@ -3675,51 +3592,51 @@
         <v/>
       </c>
       <c r="K42" s="30">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="L42" s="31">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M42" s="31">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N42" s="32">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O42" s="30">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="P42" s="31">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q42" s="31">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R42" s="31">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S42" s="33">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="T42" s="34">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="U42" s="34">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V42" s="34">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="W42" s="34" t="n">
@@ -3729,19 +3646,19 @@
         <v>45806</v>
       </c>
       <c r="Y42" s="38" t="n">
-        <v>0.4425204969</v>
+        <v>0.4445699822</v>
       </c>
       <c r="Z42" s="39" t="n">
-        <v>432.43988</v>
+        <v>433.82028</v>
       </c>
       <c r="AA42" s="39" t="n">
-        <v>1401.73988</v>
+        <v>1401.72028</v>
       </c>
       <c r="AB42" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AC42" s="31">
-        <f>IF(B21="DIV", F21,"")</f>
+        <f>IF(B20="DIV", F20,"")</f>
         <v/>
       </c>
       <c r="AD42" s="36" t="n"/>
@@ -3776,10 +3693,10 @@
         <v>2</v>
       </c>
       <c r="E43" s="28" t="n">
-        <v>486.17</v>
+        <v>484.65</v>
       </c>
       <c r="F43" s="28" t="n">
-        <v>972.33</v>
+        <v>969.3099999999999</v>
       </c>
       <c r="G43" s="26" t="inlineStr">
         <is>
@@ -3790,58 +3707,58 @@
         <v>0.97</v>
       </c>
       <c r="I43" s="27" t="n">
-        <v>6.96</v>
+        <v>6.94</v>
       </c>
       <c r="J43" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K43" s="30">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="L43" s="31">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="M43" s="31">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
         <v/>
       </c>
       <c r="N43" s="32">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O43" s="30">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="P43" s="31">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="Q43" s="31">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
         <v/>
       </c>
       <c r="R43" s="31">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="S43" s="33">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="T43" s="34">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="U43" s="34">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
         <v/>
       </c>
       <c r="V43" s="34">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="W43" s="34" t="n">
@@ -3851,19 +3768,19 @@
         <v>45806</v>
       </c>
       <c r="Y43" s="38" t="n">
-        <v>0.4380903434</v>
+        <v>0.4425204969</v>
       </c>
       <c r="Z43" s="39" t="n">
-        <v>429.44244</v>
+        <v>432.43988</v>
       </c>
       <c r="AA43" s="39" t="n">
-        <v>1401.78244</v>
+        <v>1401.73988</v>
       </c>
       <c r="AB43" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AC43" s="31">
-        <f>IF(B23="DIV", F23,"")</f>
+        <f>IF(B21="DIV", F21,"")</f>
         <v/>
       </c>
       <c r="AD43" s="36" t="n"/>
@@ -3882,7 +3799,7 @@
     </row>
     <row r="44" ht="15.75" customHeight="1" s="63">
       <c r="A44" s="37" t="n">
-        <v>45705</v>
+        <v>45712</v>
       </c>
       <c r="B44" s="26" t="inlineStr">
         <is>
@@ -3895,13 +3812,13 @@
         </is>
       </c>
       <c r="D44" s="27" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E44" s="28" t="n">
-        <v>445.69</v>
+        <v>486.17</v>
       </c>
       <c r="F44" s="28" t="n">
-        <v>8913.73</v>
+        <v>972.33</v>
       </c>
       <c r="G44" s="26" t="inlineStr">
         <is>
@@ -3909,61 +3826,61 @@
         </is>
       </c>
       <c r="H44" s="27" t="n">
-        <v>8.83</v>
+        <v>0.97</v>
       </c>
       <c r="I44" s="27" t="n">
-        <v>63.9</v>
+        <v>6.96</v>
       </c>
       <c r="J44" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K44" s="30">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="L44" s="31">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="M44" s="31">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
         <v/>
       </c>
       <c r="N44" s="32">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
         <v/>
       </c>
       <c r="O44" s="30">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="P44" s="31">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="Q44" s="31">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
         <v/>
       </c>
       <c r="R44" s="31">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="S44" s="33">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="T44" s="34">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="U44" s="34">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
         <v/>
       </c>
       <c r="V44" s="34">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="W44" s="34" t="n">
@@ -3973,19 +3890,19 @@
         <v>45806</v>
       </c>
       <c r="Y44" s="38" t="n">
-        <v>0.5667070237</v>
+        <v>0.4380903434</v>
       </c>
       <c r="Z44" s="39" t="n">
-        <v>5092.69</v>
+        <v>429.44244</v>
       </c>
       <c r="AA44" s="39" t="n">
-        <v>14006.49</v>
+        <v>1401.78244</v>
       </c>
       <c r="AB44" s="40" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="AC44" s="31">
-        <f>IF(B24="DIV", F24,"")</f>
+        <f>IF(B23="DIV", F23,"")</f>
         <v/>
       </c>
       <c r="AD44" s="36" t="n"/>
@@ -4004,7 +3921,7 @@
     </row>
     <row r="45" ht="15.75" customHeight="1" s="63">
       <c r="A45" s="37" t="n">
-        <v>45699</v>
+        <v>45705</v>
       </c>
       <c r="B45" s="26" t="inlineStr">
         <is>
@@ -4017,13 +3934,13 @@
         </is>
       </c>
       <c r="D45" s="27" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E45" s="28" t="n">
-        <v>509.46</v>
+        <v>445.69</v>
       </c>
       <c r="F45" s="28" t="n">
-        <v>5094.65</v>
+        <v>8913.73</v>
       </c>
       <c r="G45" s="26" t="inlineStr">
         <is>
@@ -4031,61 +3948,61 @@
         </is>
       </c>
       <c r="H45" s="27" t="n">
-        <v>5.05</v>
+        <v>8.83</v>
       </c>
       <c r="I45" s="27" t="n">
-        <v>36.6</v>
+        <v>63.9</v>
       </c>
       <c r="J45" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K45" s="30">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="L45" s="31">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="M45" s="31">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
         <v/>
       </c>
       <c r="N45" s="32">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
         <v/>
       </c>
       <c r="O45" s="30">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="P45" s="31">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="Q45" s="31">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
         <v/>
       </c>
       <c r="R45" s="31">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="S45" s="33">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="T45" s="34">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="U45" s="34">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
         <v/>
       </c>
       <c r="V45" s="34">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="W45" s="34" t="n">
@@ -4095,19 +4012,19 @@
         <v>45806</v>
       </c>
       <c r="Y45" s="38" t="n">
-        <v>0.3733373829</v>
+        <v>0.5667070237</v>
       </c>
       <c r="Z45" s="39" t="n">
-        <v>1917.5728</v>
+        <v>5092.69</v>
       </c>
       <c r="AA45" s="39" t="n">
-        <v>7012.1728</v>
+        <v>14006.49</v>
       </c>
       <c r="AB45" s="40" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AC45" s="31">
-        <f>IF(B25="DIV", F25,"")</f>
+        <f>IF(B24="DIV", F24,"")</f>
         <v/>
       </c>
       <c r="AD45" s="36" t="n"/>
@@ -4126,7 +4043,7 @@
     </row>
     <row r="46" ht="15.75" customHeight="1" s="63">
       <c r="A46" s="37" t="n">
-        <v>45694</v>
+        <v>45699</v>
       </c>
       <c r="B46" s="26" t="inlineStr">
         <is>
@@ -4139,13 +4056,13 @@
         </is>
       </c>
       <c r="D46" s="27" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E46" s="28" t="n">
-        <v>529.3200000000001</v>
+        <v>509.46</v>
       </c>
       <c r="F46" s="28" t="n">
-        <v>10586.46</v>
+        <v>5094.65</v>
       </c>
       <c r="G46" s="26" t="inlineStr">
         <is>
@@ -4153,61 +4070,61 @@
         </is>
       </c>
       <c r="H46" s="27" t="n">
-        <v>10.47</v>
+        <v>5.05</v>
       </c>
       <c r="I46" s="27" t="n">
-        <v>75.98999999999999</v>
+        <v>36.6</v>
       </c>
       <c r="J46" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K46" s="30">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), L26/SUM(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/SUM(F25:I25), "")</f>
         <v/>
       </c>
       <c r="L46" s="31">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="M46" s="31">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
         <v/>
       </c>
       <c r="N46" s="32">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
         <v/>
       </c>
       <c r="O46" s="30">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), P26/SUM(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/SUM(F25:I25), "")</f>
         <v/>
       </c>
       <c r="P46" s="31">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="Q46" s="31">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
         <v/>
       </c>
       <c r="R46" s="31">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
         <v/>
       </c>
       <c r="S46" s="33">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), T26/SUM(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/SUM(F25:I25), "")</f>
         <v/>
       </c>
       <c r="T46" s="34">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="U46" s="34">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
         <v/>
       </c>
       <c r="V46" s="34">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
         <v/>
       </c>
       <c r="W46" s="34" t="n">
@@ -4217,19 +4134,19 @@
         <v>45806</v>
       </c>
       <c r="Y46" s="38" t="n">
-        <v>0.3226395775</v>
+        <v>0.3733373829</v>
       </c>
       <c r="Z46" s="39" t="n">
-        <v>3443.5064</v>
+        <v>1917.5728</v>
       </c>
       <c r="AA46" s="39" t="n">
-        <v>14029.9064</v>
+        <v>7012.1728</v>
       </c>
       <c r="AB46" s="40" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AC46" s="31">
-        <f>IF(B26="DIV", F26,"")</f>
+        <f>IF(B25="DIV", F25,"")</f>
         <v/>
       </c>
       <c r="AD46" s="36" t="n"/>
@@ -4247,20 +4164,126 @@
       <c r="AP46" s="41" t="n"/>
     </row>
     <row r="47" ht="15.75" customHeight="1" s="63">
-      <c r="E47" s="42" t="n"/>
-      <c r="F47" s="42" t="n"/>
-      <c r="G47" s="43" t="n"/>
-      <c r="J47" s="42" t="n"/>
-      <c r="K47" s="42" t="n"/>
-      <c r="L47" s="42" t="n"/>
-      <c r="M47" s="1" t="n"/>
-      <c r="W47" s="42" t="n"/>
-      <c r="X47" s="42" t="n"/>
-      <c r="Y47" s="42" t="n"/>
-      <c r="Z47" s="42" t="n"/>
-      <c r="AA47" s="42" t="n"/>
-      <c r="AB47" s="42" t="n"/>
-      <c r="AC47" s="42" t="n"/>
+      <c r="A47" s="37" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B47" s="26" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C47" s="26" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D47" s="27" t="n">
+        <v>20</v>
+      </c>
+      <c r="E47" s="28" t="n">
+        <v>529.3200000000001</v>
+      </c>
+      <c r="F47" s="28" t="n">
+        <v>10586.46</v>
+      </c>
+      <c r="G47" s="26" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H47" s="27" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="I47" s="27" t="n">
+        <v>75.98999999999999</v>
+      </c>
+      <c r="J47" s="29">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K47" s="30">
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), L26/SUM(F26:I26), "")</f>
+        <v/>
+      </c>
+      <c r="L47" s="31">
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <v/>
+      </c>
+      <c r="M47" s="31">
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
+        <v/>
+      </c>
+      <c r="N47" s="32">
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
+        <v/>
+      </c>
+      <c r="O47" s="30">
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), P26/SUM(F26:I26), "")</f>
+        <v/>
+      </c>
+      <c r="P47" s="31">
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <v/>
+      </c>
+      <c r="Q47" s="31">
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
+        <v/>
+      </c>
+      <c r="R47" s="31">
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
+        <v/>
+      </c>
+      <c r="S47" s="33">
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), T26/SUM(F26:I26), "")</f>
+        <v/>
+      </c>
+      <c r="T47" s="34">
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <v/>
+      </c>
+      <c r="U47" s="34">
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
+        <v/>
+      </c>
+      <c r="V47" s="34">
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
+        <v/>
+      </c>
+      <c r="W47" s="34" t="n">
+        <v>703.9400000000001</v>
+      </c>
+      <c r="X47" s="37" t="n">
+        <v>45806</v>
+      </c>
+      <c r="Y47" s="38" t="n">
+        <v>0.3226395775</v>
+      </c>
+      <c r="Z47" s="39" t="n">
+        <v>3443.5064</v>
+      </c>
+      <c r="AA47" s="39" t="n">
+        <v>14029.9064</v>
+      </c>
+      <c r="AB47" s="40" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC47" s="31">
+        <f>IF(B26="DIV", F26,"")</f>
+        <v/>
+      </c>
+      <c r="AD47" s="36" t="n"/>
+      <c r="AE47" s="41" t="n"/>
+      <c r="AF47" s="41" t="n"/>
+      <c r="AG47" s="41" t="n"/>
+      <c r="AH47" s="41" t="n"/>
+      <c r="AI47" s="41" t="n"/>
+      <c r="AJ47" s="41" t="n"/>
+      <c r="AK47" s="41" t="n"/>
+      <c r="AL47" s="41" t="n"/>
+      <c r="AM47" s="41" t="n"/>
+      <c r="AN47" s="41" t="n"/>
+      <c r="AO47" s="41" t="n"/>
+      <c r="AP47" s="41" t="n"/>
     </row>
     <row r="48" ht="15.75" customHeight="1" s="63">
       <c r="E48" s="42" t="n"/>
@@ -19229,6 +19252,7 @@
       <c r="J983" s="42" t="n"/>
       <c r="K983" s="42" t="n"/>
       <c r="L983" s="42" t="n"/>
+      <c r="M983" s="1" t="n"/>
       <c r="W983" s="42" t="n"/>
       <c r="X983" s="42" t="n"/>
       <c r="Y983" s="42" t="n"/>
@@ -19476,6 +19500,21 @@
       <c r="AA999" s="42" t="n"/>
       <c r="AB999" s="42" t="n"/>
       <c r="AC999" s="42" t="n"/>
+    </row>
+    <row r="1000">
+      <c r="E1000" s="42" t="n"/>
+      <c r="F1000" s="42" t="n"/>
+      <c r="G1000" s="43" t="n"/>
+      <c r="J1000" s="42" t="n"/>
+      <c r="K1000" s="42" t="n"/>
+      <c r="L1000" s="42" t="n"/>
+      <c r="W1000" s="42" t="n"/>
+      <c r="X1000" s="42" t="n"/>
+      <c r="Y1000" s="42" t="n"/>
+      <c r="Z1000" s="42" t="n"/>
+      <c r="AA1000" s="42" t="n"/>
+      <c r="AB1000" s="42" t="n"/>
+      <c r="AC1000" s="42" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:AO56"/>
